--- a/assignment72/HeatForOMP/task_5_output/Task5.xlsx
+++ b/assignment72/HeatForOMP/task_5_output/Task5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemra\Downloads\Programming_of_supercomputer\pos_21_group12\assignment72\HeatForOMP\Task_5_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemra\Downloads\Programming_of_supercomputer\pos_21_group12\assignment72\HeatForOMP\task_5_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B490C42-519C-4DE7-AF49-85BE7AC36F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719C6B0D-A757-4E07-9FAF-02F0614FEE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="151">
   <si>
     <t>Resolution</t>
   </si>
@@ -456,6 +456,42 @@
   <si>
     <t>Sum</t>
   </si>
+  <si>
+    <t>Dim: 2x2</t>
+  </si>
+  <si>
+    <t>MPI: 2x2 OMP: 48</t>
+  </si>
+  <si>
+    <t>MPI: 3x2 OMP: 32</t>
+  </si>
+  <si>
+    <t>MPI: 4x2 OMP: 24</t>
+  </si>
+  <si>
+    <t>MPI: 4x3 OMP: 16</t>
+  </si>
+  <si>
+    <t>MPI: 16x1 OMP: 12</t>
+  </si>
+  <si>
+    <t>MPI: 3x8 OMP: 8</t>
+  </si>
+  <si>
+    <t>MPI: 16x2 OMP: 6</t>
+  </si>
+  <si>
+    <t>MPI: 16x3 OMP: 4</t>
+  </si>
+  <si>
+    <t>MPI: 16x4 OMP: 3</t>
+  </si>
+  <si>
+    <t>MPI: 8x12 OMP: 2</t>
+  </si>
+  <si>
+    <t>MPI: 12x16 OMP: 1</t>
+  </si>
 </sst>
 </file>
 
@@ -699,19 +735,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -722,15 +749,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -754,6 +772,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,6 +811,1957 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$76</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$B$74:$L$75</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Tabelle1!$B$74:$L$74</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$B$74:$L$74</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>MPI: 2x2 OMP: 48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MPI: 3x2 OMP: 32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPI: 4x2 OMP: 24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MPI: 4x3 OMP: 16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MPI: 16x1 OMP: 12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPI: 3x8 OMP: 8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MPI: 16x2 OMP: 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MPI: 16x3 OMP: 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MPI: 16x4 OMP: 3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MPI: 8x12 OMP: 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MPI: 12x16 OMP: 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$76:$L$76</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>31.960352184951116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.199294838448644</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.149013108332085</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.228026761983323</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.104919053549196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.676886792452834</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>109.79439599183523</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100.37014418999152</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>103.82207404807862</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>119.02675518004428</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105.4503653537694</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E5A3-42A5-BAE7-EEDC2DB5AA24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$B$74:$L$75</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Tabelle1!$B$74:$L$74</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$B$74:$L$74</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>MPI: 2x2 OMP: 48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MPI: 3x2 OMP: 32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPI: 4x2 OMP: 24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MPI: 4x3 OMP: 16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MPI: 16x1 OMP: 12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPI: 3x8 OMP: 8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MPI: 16x2 OMP: 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MPI: 16x3 OMP: 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MPI: 16x4 OMP: 3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MPI: 8x12 OMP: 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MPI: 12x16 OMP: 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$77:$L$77</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>29.148762515282687</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.618252011419674</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.962030407851344</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.685417145483804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.513921415560773</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.762772807090897</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.98804328853204</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.725031766200772</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.447612444752579</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.600106923282553</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84.309375896014529</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E5A3-42A5-BAE7-EEDC2DB5AA24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$B$74:$L$75</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Tabelle1!$B$74:$L$74</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$B$74:$L$74</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>MPI: 2x2 OMP: 48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MPI: 3x2 OMP: 32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPI: 4x2 OMP: 24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MPI: 4x3 OMP: 16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MPI: 16x1 OMP: 12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPI: 3x8 OMP: 8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MPI: 16x2 OMP: 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MPI: 16x3 OMP: 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MPI: 16x4 OMP: 3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MPI: 8x12 OMP: 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MPI: 12x16 OMP: 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$78:$L$78</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>28.160391176006669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.826193444959031</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.986238532110093</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.888595138429899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.303110120555168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.628244311842046</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.392687661777387</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.020432241111166</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.619847729062755</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66.004542093588256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68.613703744372458</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E5A3-42A5-BAE7-EEDC2DB5AA24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$B$74:$L$75</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Tabelle1!$B$74:$L$74</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$B$74:$L$74</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>MPI: 2x2 OMP: 48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MPI: 3x2 OMP: 32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPI: 4x2 OMP: 24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MPI: 4x3 OMP: 16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MPI: 16x1 OMP: 12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPI: 3x8 OMP: 8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MPI: 16x2 OMP: 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MPI: 16x3 OMP: 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MPI: 16x4 OMP: 3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MPI: 8x12 OMP: 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MPI: 12x16 OMP: 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$79:$L$79</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>26.833585427863419</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.680772507810282</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.989359112563896</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.72720284916344</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.10121916643039</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.547982366904037</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.436415881136767</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.234784179158382</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.896874087058137</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.128834355828218</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.541147648459336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E5A3-42A5-BAE7-EEDC2DB5AA24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$B$74:$L$75</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Tabelle1!$B$74:$L$74</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$B$74:$L$74</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>MPI: 2x2 OMP: 48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MPI: 3x2 OMP: 32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPI: 4x2 OMP: 24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MPI: 4x3 OMP: 16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MPI: 16x1 OMP: 12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPI: 3x8 OMP: 8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MPI: 16x2 OMP: 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MPI: 16x3 OMP: 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MPI: 16x4 OMP: 3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MPI: 8x12 OMP: 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MPI: 12x16 OMP: 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$80:$L$80</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>24.585287197066517</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.89905604514264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.484578407171625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.316403878170597</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.177823132766683</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.585233822866023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.364640008451744</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.053867551085915</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54.265745696132456</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54.248583401417918</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.736636880584896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E5A3-42A5-BAE7-EEDC2DB5AA24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$B$74:$L$75</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Tabelle1!$B$74:$L$74</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$B$74:$L$74</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>MPI: 2x2 OMP: 48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MPI: 3x2 OMP: 32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPI: 4x2 OMP: 24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MPI: 4x3 OMP: 16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MPI: 16x1 OMP: 12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPI: 3x8 OMP: 8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MPI: 16x2 OMP: 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MPI: 16x3 OMP: 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MPI: 16x4 OMP: 3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MPI: 8x12 OMP: 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MPI: 12x16 OMP: 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$81:$L$81</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>24.374133135192803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.154392953903955</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.963830219333872</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.240840426347674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.750480351111378</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.815455337072962</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.034427724578201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.476445374187328</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.359588755422081</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.205561903207375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51.63977073200266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E5A3-42A5-BAE7-EEDC2DB5AA24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$B$74:$L$75</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Tabelle1!$B$74:$L$74</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$B$74:$L$74</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>MPI: 2x2 OMP: 48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MPI: 3x2 OMP: 32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPI: 4x2 OMP: 24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MPI: 4x3 OMP: 16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MPI: 16x1 OMP: 12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPI: 3x8 OMP: 8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MPI: 16x2 OMP: 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MPI: 16x3 OMP: 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MPI: 16x4 OMP: 3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MPI: 8x12 OMP: 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MPI: 12x16 OMP: 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$82:$L$82</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>24.095335254263688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.622553061536113</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.145956764140607</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.866625871986294</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.434928604029473</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.336384220429252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.225342510226611</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.691908186837495</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.400126254236163</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.846019851442847</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49.740884830557519</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E5A3-42A5-BAE7-EEDC2DB5AA24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$B$74:$L$75</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Tabelle1!$B$74:$L$74</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$B$74:$L$74</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>MPI: 2x2 OMP: 48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MPI: 3x2 OMP: 32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPI: 4x2 OMP: 24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MPI: 4x3 OMP: 16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MPI: 16x1 OMP: 12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPI: 3x8 OMP: 8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MPI: 16x2 OMP: 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MPI: 16x3 OMP: 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MPI: 16x4 OMP: 3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MPI: 8x12 OMP: 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MPI: 12x16 OMP: 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$83:$L$83</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>23.825911993141659</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.708662520133181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.658417227815185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.346647546079943</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.576445373340967</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.730526150504431</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.848347897323869</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.210095589920591</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.57626911481109</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49.64848686841755</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50.757560889179643</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E5A3-42A5-BAE7-EEDC2DB5AA24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$B$74:$L$75</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Tabelle1!$B$74:$L$74</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$B$74:$L$74</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>MPI: 2x2 OMP: 48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MPI: 3x2 OMP: 32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPI: 4x2 OMP: 24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MPI: 4x3 OMP: 16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MPI: 16x1 OMP: 12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPI: 3x8 OMP: 8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MPI: 16x2 OMP: 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MPI: 16x3 OMP: 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MPI: 16x4 OMP: 3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MPI: 8x12 OMP: 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MPI: 12x16 OMP: 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$84:$L$84</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>23.727164617995872</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.814313073388274</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.207739650011774</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.322002193672368</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.48022048614709</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.764154125724986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.800637614730952</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.271751703601907</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.940019341259465</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49.161996281611898</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49.678893579456073</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E5A3-42A5-BAE7-EEDC2DB5AA24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="791988320"/>
+        <c:axId val="791991232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="791988320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="791991232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="791991232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="791988320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D992F865-FC25-4229-9F4C-EDABF744D2C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1036,8 +3029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q76" sqref="Q76"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,66 +3071,66 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2" t="s">
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2" t="s">
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2" t="s">
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2" t="s">
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2702,66 +4695,66 @@
       <c r="E15" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2" t="s">
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2" t="s">
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2" t="s">
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2" t="s">
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2" t="s">
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
-      <c r="AI15" s="2"/>
-      <c r="AJ15" s="2"/>
-      <c r="AK15" s="2"/>
-      <c r="AL15" s="2" t="s">
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="37"/>
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="37"/>
+      <c r="AK15" s="37"/>
+      <c r="AL15" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AM15" s="2"/>
-      <c r="AN15" s="2"/>
-      <c r="AO15" s="2"/>
-      <c r="AP15" s="2"/>
-      <c r="AQ15" s="2"/>
-      <c r="AR15" s="2"/>
-      <c r="AS15" s="2"/>
-      <c r="AT15" s="2"/>
-      <c r="AU15" s="2"/>
-      <c r="AV15" s="2"/>
-      <c r="AW15" s="2"/>
-      <c r="AX15" s="2"/>
-      <c r="AY15" s="2"/>
+      <c r="AM15" s="37"/>
+      <c r="AN15" s="37"/>
+      <c r="AO15" s="37"/>
+      <c r="AP15" s="37"/>
+      <c r="AQ15" s="37"/>
+      <c r="AR15" s="37"/>
+      <c r="AS15" s="37"/>
+      <c r="AT15" s="37"/>
+      <c r="AU15" s="37"/>
+      <c r="AV15" s="37"/>
+      <c r="AW15" s="37"/>
+      <c r="AX15" s="37"/>
+      <c r="AY15" s="37"/>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4763,7 +6756,7 @@
         <v>51.290932460855345</v>
       </c>
     </row>
-    <row r="29" spans="1:51" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -4845,231 +6838,231 @@
     </row>
     <row r="41" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3" t="s">
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="16" t="s">
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="16" t="s">
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="16" t="s">
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AC42" s="4"/>
-      <c r="AD42" s="16" t="s">
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="36"/>
+      <c r="AD42" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="AE42" s="3"/>
-      <c r="AF42" s="3"/>
-      <c r="AG42" s="3"/>
-      <c r="AH42" s="3"/>
-      <c r="AI42" s="3"/>
-      <c r="AJ42" s="3"/>
-      <c r="AK42" s="4"/>
-      <c r="AL42" s="16" t="s">
+      <c r="AE42" s="35"/>
+      <c r="AF42" s="35"/>
+      <c r="AG42" s="35"/>
+      <c r="AH42" s="35"/>
+      <c r="AI42" s="35"/>
+      <c r="AJ42" s="35"/>
+      <c r="AK42" s="36"/>
+      <c r="AL42" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="AM42" s="3"/>
-      <c r="AN42" s="3"/>
-      <c r="AO42" s="3"/>
-      <c r="AP42" s="3"/>
-      <c r="AQ42" s="3"/>
-      <c r="AR42" s="3"/>
-      <c r="AS42" s="3"/>
-      <c r="AT42" s="3"/>
-      <c r="AU42" s="3"/>
-      <c r="AV42" s="3"/>
-      <c r="AW42" s="3"/>
-      <c r="AX42" s="3"/>
-      <c r="AY42" s="4"/>
+      <c r="AM42" s="35"/>
+      <c r="AN42" s="35"/>
+      <c r="AO42" s="35"/>
+      <c r="AP42" s="35"/>
+      <c r="AQ42" s="35"/>
+      <c r="AR42" s="35"/>
+      <c r="AS42" s="35"/>
+      <c r="AT42" s="35"/>
+      <c r="AU42" s="35"/>
+      <c r="AV42" s="35"/>
+      <c r="AW42" s="35"/>
+      <c r="AX42" s="35"/>
+      <c r="AY42" s="36"/>
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="E43" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="I43" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="J43" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="K43" s="5" t="s">
+      <c r="K43" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L43" s="6" t="s">
+      <c r="L43" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="M43" s="6" t="s">
+      <c r="M43" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="N43" s="6" t="s">
+      <c r="N43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O43" s="17" t="s">
+      <c r="O43" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P43" s="18" t="s">
+      <c r="P43" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="Q43" s="18" t="s">
+      <c r="Q43" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R43" s="19" t="s">
+      <c r="R43" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="S43" s="17" t="s">
+      <c r="S43" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T43" s="18" t="s">
+      <c r="T43" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="U43" s="18" t="s">
+      <c r="U43" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="V43" s="18" t="s">
+      <c r="V43" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="W43" s="19" t="s">
+      <c r="W43" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="X43" s="17" t="s">
+      <c r="X43" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y43" s="18" t="s">
+      <c r="Y43" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="Z43" s="18" t="s">
+      <c r="Z43" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AA43" s="18" t="s">
+      <c r="AA43" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AB43" s="18" t="s">
+      <c r="AB43" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AC43" s="19" t="s">
+      <c r="AC43" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AD43" s="17" t="s">
+      <c r="AD43" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AE43" s="18" t="s">
+      <c r="AE43" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AF43" s="18" t="s">
+      <c r="AF43" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AG43" s="18" t="s">
+      <c r="AG43" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AH43" s="18" t="s">
+      <c r="AH43" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AI43" s="18" t="s">
+      <c r="AI43" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AJ43" s="18" t="s">
+      <c r="AJ43" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AK43" s="19" t="s">
+      <c r="AK43" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AL43" s="17" t="s">
+      <c r="AL43" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AM43" s="18" t="s">
+      <c r="AM43" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AN43" s="18" t="s">
+      <c r="AN43" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AO43" s="18" t="s">
+      <c r="AO43" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AP43" s="18" t="s">
+      <c r="AP43" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AQ43" s="18" t="s">
+      <c r="AQ43" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AR43" s="18" t="s">
+      <c r="AR43" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AS43" s="18" t="s">
+      <c r="AS43" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AT43" s="18" t="s">
+      <c r="AT43" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AU43" s="18" t="s">
+      <c r="AU43" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AV43" s="18" t="s">
+      <c r="AV43" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AW43" s="18" t="s">
+      <c r="AW43" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AX43" s="18" t="s">
+      <c r="AX43" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AY43" s="19" t="s">
+      <c r="AY43" s="13" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5077,154 +7070,154 @@
       <c r="A44">
         <v>4500</v>
       </c>
-      <c r="B44" s="31">
+      <c r="B44" s="25">
         <v>31.960352184951116</v>
       </c>
-      <c r="C44" s="31">
+      <c r="C44" s="25">
         <v>34.199294838448644</v>
       </c>
-      <c r="D44" s="31">
+      <c r="D44" s="25">
         <v>89.149013108332085</v>
       </c>
-      <c r="E44" s="31">
+      <c r="E44" s="25">
         <v>54.228026761983323</v>
       </c>
-      <c r="F44" s="30">
+      <c r="F44" s="24">
         <v>92.104919053549196</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="6">
         <v>78.733466400532279</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="6">
         <v>80.000270416441325</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="6">
         <v>88.707946026986519</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J44" s="7">
         <v>98.318710535061484</v>
       </c>
-      <c r="K44" s="8">
+      <c r="K44" s="5">
         <v>62.585360693886187</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L44" s="6">
         <v>80.206316931001766</v>
       </c>
-      <c r="M44" s="30">
+      <c r="M44" s="24">
         <v>99.676886792452834</v>
       </c>
-      <c r="N44" s="9">
+      <c r="N44" s="6">
         <v>0.74322759258282278</v>
       </c>
-      <c r="O44" s="32">
+      <c r="O44" s="26">
         <v>109.79439599183523</v>
       </c>
-      <c r="P44" s="9">
+      <c r="P44" s="6">
         <v>68.331447049312857</v>
       </c>
-      <c r="Q44" s="9">
+      <c r="Q44" s="6">
         <v>65.012855730139549</v>
       </c>
-      <c r="R44" s="10">
+      <c r="R44" s="7">
         <v>64.685907947961084</v>
       </c>
-      <c r="S44" s="32">
+      <c r="S44" s="26">
         <v>100.37014418999152</v>
       </c>
-      <c r="T44" s="9">
+      <c r="T44" s="6">
         <v>88.113477289650049</v>
       </c>
-      <c r="U44" s="9">
+      <c r="U44" s="6">
         <v>96.632696390658182</v>
       </c>
-      <c r="V44" s="9">
+      <c r="V44" s="6">
         <v>77.455426102893057</v>
       </c>
-      <c r="W44" s="10">
+      <c r="W44" s="7">
         <v>72.8582686861224</v>
       </c>
-      <c r="X44" s="32">
+      <c r="X44" s="26">
         <v>103.82207404807862</v>
       </c>
-      <c r="Y44" s="9">
+      <c r="Y44" s="6">
         <v>52.514600159758594</v>
       </c>
-      <c r="Z44" s="9">
+      <c r="Z44" s="6">
         <v>70.121118748518612</v>
       </c>
-      <c r="AA44" s="9">
+      <c r="AA44" s="6">
         <v>57.866210268948663</v>
       </c>
-      <c r="AB44" s="9">
+      <c r="AB44" s="6">
         <v>66.73607038123167</v>
       </c>
-      <c r="AC44" s="10">
+      <c r="AC44" s="7">
         <v>67.061317012354081</v>
       </c>
-      <c r="AD44" s="8">
+      <c r="AD44" s="5">
         <v>54.937975858867226</v>
       </c>
-      <c r="AE44" s="9">
+      <c r="AE44" s="6">
         <v>75.431157572667004</v>
       </c>
-      <c r="AF44" s="9">
+      <c r="AF44" s="6">
         <v>94.532992490813243</v>
       </c>
-      <c r="AG44" s="9">
+      <c r="AG44" s="6">
         <v>63.18013881473572</v>
       </c>
-      <c r="AH44" s="9">
+      <c r="AH44" s="6">
         <v>79.773762976944866</v>
       </c>
-      <c r="AI44" s="9">
+      <c r="AI44" s="6">
         <v>72.822400000000002</v>
       </c>
-      <c r="AJ44" s="9">
+      <c r="AJ44" s="6">
         <v>111.009756097561</v>
       </c>
-      <c r="AK44" s="33">
+      <c r="AK44" s="27">
         <v>119.02675518004428</v>
       </c>
-      <c r="AL44" s="8">
+      <c r="AL44" s="5">
         <v>86.909811985898955</v>
       </c>
-      <c r="AM44" s="9">
+      <c r="AM44" s="6">
         <v>39.330098378090938</v>
       </c>
-      <c r="AN44" s="30">
+      <c r="AN44" s="24">
         <v>105.4503653537694</v>
       </c>
-      <c r="AO44" s="9">
+      <c r="AO44" s="6">
         <v>55.787478785593059</v>
       </c>
-      <c r="AP44" s="9">
+      <c r="AP44" s="6">
         <v>58.019415571680724</v>
       </c>
-      <c r="AQ44" s="9">
+      <c r="AQ44" s="6">
         <v>40.612396183677674</v>
       </c>
-      <c r="AR44" s="9">
+      <c r="AR44" s="6">
         <v>57.820971367145511</v>
       </c>
-      <c r="AS44" s="9">
+      <c r="AS44" s="6">
         <v>73.960250000000002</v>
       </c>
-      <c r="AT44" s="9">
+      <c r="AT44" s="6">
         <v>55.302551640340219</v>
       </c>
-      <c r="AU44" s="9">
+      <c r="AU44" s="6">
         <v>60.866371772451394</v>
       </c>
-      <c r="AV44" s="9">
+      <c r="AV44" s="6">
         <v>71.201203369434424</v>
       </c>
-      <c r="AW44" s="9">
+      <c r="AW44" s="6">
         <v>55.603984587914674</v>
       </c>
-      <c r="AX44" s="9">
+      <c r="AX44" s="6">
         <v>49.041193535018657</v>
       </c>
-      <c r="AY44" s="10">
+      <c r="AY44" s="7">
         <v>97.092550049228763</v>
       </c>
     </row>
@@ -5232,154 +7225,154 @@
       <c r="A45">
         <v>5500</v>
       </c>
-      <c r="B45" s="31">
+      <c r="B45" s="25">
         <v>29.148762515282687</v>
       </c>
-      <c r="C45" s="31">
+      <c r="C45" s="25">
         <v>28.618252011419674</v>
       </c>
-      <c r="D45" s="31">
+      <c r="D45" s="25">
         <v>70.962030407851344</v>
       </c>
-      <c r="E45" s="31">
+      <c r="E45" s="25">
         <v>50.685417145483804</v>
       </c>
-      <c r="F45" s="30">
+      <c r="F45" s="24">
         <v>76.513921415560773</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="6">
         <v>69.557561898754145</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="6">
         <v>71.110761789600971</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="6">
         <v>71.746970313135421</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J45" s="7">
         <v>68.739110106756016</v>
       </c>
-      <c r="K45" s="8">
+      <c r="K45" s="5">
         <v>73.437312687312698</v>
       </c>
-      <c r="L45" s="9">
+      <c r="L45" s="6">
         <v>76.117784105617403</v>
       </c>
-      <c r="M45" s="30">
+      <c r="M45" s="24">
         <v>73.762772807090897</v>
       </c>
-      <c r="N45" s="9">
+      <c r="N45" s="6">
         <v>67.549506087755574</v>
       </c>
-      <c r="O45" s="32">
+      <c r="O45" s="26">
         <v>76.98804328853204</v>
       </c>
-      <c r="P45" s="9">
+      <c r="P45" s="6">
         <v>78.635139953645933</v>
       </c>
-      <c r="Q45" s="9">
+      <c r="Q45" s="6">
         <v>77.816601976005643</v>
       </c>
-      <c r="R45" s="10">
+      <c r="R45" s="7">
         <v>74.247033078023748</v>
       </c>
-      <c r="S45" s="32">
+      <c r="S45" s="26">
         <v>74.725031766200772</v>
       </c>
-      <c r="T45" s="9">
+      <c r="T45" s="6">
         <v>75.4343252950231</v>
       </c>
-      <c r="U45" s="9">
+      <c r="U45" s="6">
         <v>77.223934167906847</v>
       </c>
-      <c r="V45" s="9">
+      <c r="V45" s="6">
         <v>78.320962443398741</v>
       </c>
-      <c r="W45" s="10">
+      <c r="W45" s="7">
         <v>75.402085648346016</v>
       </c>
-      <c r="X45" s="32">
+      <c r="X45" s="26">
         <v>76.447612444752579</v>
       </c>
-      <c r="Y45" s="9">
+      <c r="Y45" s="6">
         <v>67.477166679415589</v>
       </c>
-      <c r="Z45" s="9">
+      <c r="Z45" s="6">
         <v>88.460589651022872</v>
       </c>
-      <c r="AA45" s="9">
+      <c r="AA45" s="6">
         <v>77.604381103193461</v>
       </c>
-      <c r="AB45" s="9">
+      <c r="AB45" s="6">
         <v>79.664860471416972</v>
       </c>
-      <c r="AC45" s="10">
+      <c r="AC45" s="7">
         <v>76.613600833767592</v>
       </c>
-      <c r="AD45" s="8">
+      <c r="AD45" s="5">
         <v>82.51908325537886</v>
       </c>
-      <c r="AE45" s="9">
+      <c r="AE45" s="6">
         <v>53.999081782566115</v>
       </c>
-      <c r="AF45" s="9">
+      <c r="AF45" s="6">
         <v>70.598559423769515</v>
       </c>
-      <c r="AG45" s="9">
+      <c r="AG45" s="6">
         <v>79.057985302025457</v>
       </c>
-      <c r="AH45" s="9">
+      <c r="AH45" s="6">
         <v>80.069801216302082</v>
       </c>
-      <c r="AI45" s="9">
+      <c r="AI45" s="6">
         <v>81.982249070631966</v>
       </c>
-      <c r="AJ45" s="9">
+      <c r="AJ45" s="6">
         <v>80.222717351764274</v>
       </c>
-      <c r="AK45" s="33">
+      <c r="AK45" s="27">
         <v>78.600106923282553</v>
       </c>
-      <c r="AL45" s="8">
+      <c r="AL45" s="5">
         <v>90.419126691266911</v>
       </c>
-      <c r="AM45" s="9">
+      <c r="AM45" s="6">
         <v>79.214170258620697</v>
       </c>
-      <c r="AN45" s="30">
+      <c r="AN45" s="24">
         <v>84.309375896014529</v>
       </c>
-      <c r="AO45" s="9">
+      <c r="AO45" s="6">
         <v>80.95154629714601</v>
       </c>
-      <c r="AP45" s="9">
+      <c r="AP45" s="6">
         <v>77.440874374506194</v>
       </c>
-      <c r="AQ45" s="9">
+      <c r="AQ45" s="6">
         <v>49.736637347767264</v>
       </c>
-      <c r="AR45" s="9">
+      <c r="AR45" s="6">
         <v>81.092939878654164</v>
       </c>
-      <c r="AS45" s="9">
+      <c r="AS45" s="6">
         <v>82.720273818454615</v>
       </c>
-      <c r="AT45" s="9">
+      <c r="AT45" s="6">
         <v>75.466592522884767</v>
       </c>
-      <c r="AU45" s="9">
+      <c r="AU45" s="6">
         <v>78.796694953104065</v>
       </c>
-      <c r="AV45" s="9">
+      <c r="AV45" s="6">
         <v>79.700849295265641</v>
       </c>
-      <c r="AW45" s="9">
+      <c r="AW45" s="6">
         <v>82.005112949707183</v>
       </c>
-      <c r="AX45" s="9">
+      <c r="AX45" s="6">
         <v>80.251910480349352</v>
       </c>
-      <c r="AY45" s="10">
+      <c r="AY45" s="7">
         <v>82.020362622036259</v>
       </c>
     </row>
@@ -5387,154 +7380,154 @@
       <c r="A46">
         <v>6500</v>
       </c>
-      <c r="B46" s="31">
+      <c r="B46" s="25">
         <v>28.160391176006669</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46" s="25">
         <v>27.826193444959031</v>
       </c>
-      <c r="D46" s="31">
+      <c r="D46" s="25">
         <v>60.986238532110093</v>
       </c>
-      <c r="E46" s="31">
+      <c r="E46" s="25">
         <v>45.888595138429899</v>
       </c>
-      <c r="F46" s="30">
+      <c r="F46" s="24">
         <v>63.303110120555168</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="6">
         <v>60.109181857534509</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="6">
         <v>59.824317855433222</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="6">
         <v>60.707762557077622</v>
       </c>
-      <c r="J46" s="10">
+      <c r="J46" s="7">
         <v>61.454071597167584</v>
       </c>
-      <c r="K46" s="8">
+      <c r="K46" s="5">
         <v>63.729219785823567</v>
       </c>
-      <c r="L46" s="9">
+      <c r="L46" s="6">
         <v>63.531594733363832</v>
       </c>
-      <c r="M46" s="30">
+      <c r="M46" s="24">
         <v>60.628244311842046</v>
       </c>
-      <c r="N46" s="9">
+      <c r="N46" s="6">
         <v>61.926069074872402</v>
       </c>
-      <c r="O46" s="32">
+      <c r="O46" s="26">
         <v>67.392687661777387</v>
       </c>
-      <c r="P46" s="9">
+      <c r="P46" s="6">
         <v>67.034811993777822</v>
       </c>
-      <c r="Q46" s="9">
+      <c r="Q46" s="6">
         <v>62.498999799959989</v>
       </c>
-      <c r="R46" s="10">
+      <c r="R46" s="7">
         <v>60.496175815664635</v>
       </c>
-      <c r="S46" s="32">
+      <c r="S46" s="26">
         <v>67.020432241111166</v>
       </c>
-      <c r="T46" s="9">
+      <c r="T46" s="6">
         <v>60.660615474225807</v>
       </c>
-      <c r="U46" s="9">
+      <c r="U46" s="6">
         <v>65.98363252375924</v>
       </c>
-      <c r="V46" s="9">
+      <c r="V46" s="6">
         <v>64.518843572534848</v>
       </c>
-      <c r="W46" s="10">
+      <c r="W46" s="7">
         <v>66.028953347070328</v>
       </c>
-      <c r="X46" s="32">
+      <c r="X46" s="26">
         <v>65.619847729062755</v>
       </c>
-      <c r="Y46" s="9">
+      <c r="Y46" s="6">
         <v>59.482627320323651</v>
       </c>
-      <c r="Z46" s="9">
+      <c r="Z46" s="6">
         <v>69.12605785718236</v>
       </c>
-      <c r="AA46" s="9">
+      <c r="AA46" s="6">
         <v>67.957041870581833</v>
       </c>
-      <c r="AB46" s="9">
+      <c r="AB46" s="6">
         <v>62.567838189646544</v>
       </c>
-      <c r="AC46" s="10">
+      <c r="AC46" s="7">
         <v>64.7494948448267</v>
       </c>
-      <c r="AD46" s="8">
+      <c r="AD46" s="5">
         <v>66.397301030708746</v>
       </c>
-      <c r="AE46" s="9">
+      <c r="AE46" s="6">
         <v>40.799516829355881</v>
       </c>
-      <c r="AF46" s="9">
+      <c r="AF46" s="6">
         <v>58.672769953051642</v>
       </c>
-      <c r="AG46" s="9">
+      <c r="AG46" s="6">
         <v>64.439001753119513</v>
       </c>
-      <c r="AH46" s="9">
+      <c r="AH46" s="6">
         <v>68.591108671789243</v>
       </c>
-      <c r="AI46" s="9">
+      <c r="AI46" s="6">
         <v>67.531071003998704</v>
       </c>
-      <c r="AJ46" s="9">
+      <c r="AJ46" s="6">
         <v>66.018489170628641</v>
       </c>
-      <c r="AK46" s="33">
+      <c r="AK46" s="27">
         <v>66.004542093588256</v>
       </c>
-      <c r="AL46" s="8">
+      <c r="AL46" s="5">
         <v>68.568528475803802</v>
       </c>
-      <c r="AM46" s="9">
+      <c r="AM46" s="6">
         <v>62.43967024731451</v>
       </c>
-      <c r="AN46" s="30">
+      <c r="AN46" s="24">
         <v>68.613703744372458</v>
       </c>
-      <c r="AO46" s="9">
+      <c r="AO46" s="6">
         <v>66.102295567544701</v>
       </c>
-      <c r="AP46" s="9">
+      <c r="AP46" s="6">
         <v>65.413766029835116</v>
       </c>
-      <c r="AQ46" s="9">
+      <c r="AQ46" s="6">
         <v>44.174118977766781</v>
       </c>
-      <c r="AR46" s="9">
+      <c r="AR46" s="6">
         <v>68.377195382174307</v>
       </c>
-      <c r="AS46" s="9">
+      <c r="AS46" s="6">
         <v>68.328594860579543</v>
       </c>
-      <c r="AT46" s="9">
+      <c r="AT46" s="6">
         <v>58.796988943777933</v>
       </c>
-      <c r="AU46" s="9">
+      <c r="AU46" s="6">
         <v>66.891291548466512</v>
       </c>
-      <c r="AV46" s="9">
+      <c r="AV46" s="6">
         <v>65.796040855006837</v>
       </c>
-      <c r="AW46" s="9">
+      <c r="AW46" s="6">
         <v>67.407227615965482</v>
       </c>
-      <c r="AX46" s="9">
+      <c r="AX46" s="6">
         <v>65.820298098699112</v>
       </c>
-      <c r="AY46" s="10">
+      <c r="AY46" s="7">
         <v>68.298721171712756</v>
       </c>
     </row>
@@ -5542,154 +7535,154 @@
       <c r="A47">
         <v>7500</v>
       </c>
-      <c r="B47" s="31">
+      <c r="B47" s="25">
         <v>26.833585427863419</v>
       </c>
-      <c r="C47" s="31">
+      <c r="C47" s="25">
         <v>23.680772507810282</v>
       </c>
-      <c r="D47" s="31">
+      <c r="D47" s="25">
         <v>57.989359112563896</v>
       </c>
-      <c r="E47" s="31">
+      <c r="E47" s="25">
         <v>42.72720284916344</v>
       </c>
-      <c r="F47" s="30">
+      <c r="F47" s="24">
         <v>59.10121916643039</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="6">
         <v>55.105412728834843</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="6">
         <v>58.56982298398426</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="6">
         <v>58.639848090583016</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J47" s="7">
         <v>54.578778555999214</v>
       </c>
-      <c r="K47" s="8">
+      <c r="K47" s="5">
         <v>58.287312128626354</v>
       </c>
-      <c r="L47" s="9">
+      <c r="L47" s="6">
         <v>58.487654320987652</v>
       </c>
-      <c r="M47" s="30">
+      <c r="M47" s="24">
         <v>56.547982366904037</v>
       </c>
-      <c r="N47" s="9">
+      <c r="N47" s="6">
         <v>56.168951463505003</v>
       </c>
-      <c r="O47" s="32">
+      <c r="O47" s="26">
         <v>58.436415881136767</v>
       </c>
-      <c r="P47" s="9">
+      <c r="P47" s="6">
         <v>58.44255975327679</v>
       </c>
-      <c r="Q47" s="9">
+      <c r="Q47" s="6">
         <v>59.8822177535191</v>
       </c>
-      <c r="R47" s="10">
+      <c r="R47" s="7">
         <v>58.116679445180175</v>
       </c>
-      <c r="S47" s="32">
+      <c r="S47" s="26">
         <v>60.234784179158382</v>
       </c>
-      <c r="T47" s="9">
+      <c r="T47" s="6">
         <v>57.408427430459923</v>
       </c>
-      <c r="U47" s="9">
+      <c r="U47" s="6">
         <v>62.349510207133775</v>
       </c>
-      <c r="V47" s="9">
+      <c r="V47" s="6">
         <v>57.736384724578471</v>
       </c>
-      <c r="W47" s="10">
+      <c r="W47" s="7">
         <v>58.782473827064756</v>
       </c>
-      <c r="X47" s="32">
+      <c r="X47" s="26">
         <v>60.896874087058137</v>
       </c>
-      <c r="Y47" s="9">
+      <c r="Y47" s="6">
         <v>55.584813839538683</v>
       </c>
-      <c r="Z47" s="9">
+      <c r="Z47" s="6">
         <v>59.73207249802995</v>
       </c>
-      <c r="AA47" s="9">
+      <c r="AA47" s="6">
         <v>60.178268557612498</v>
       </c>
-      <c r="AB47" s="9">
+      <c r="AB47" s="6">
         <v>58.882101620705484</v>
       </c>
-      <c r="AC47" s="10">
+      <c r="AC47" s="7">
         <v>57.868619217822811</v>
       </c>
-      <c r="AD47" s="8">
+      <c r="AD47" s="5">
         <v>61.797294793403744</v>
       </c>
-      <c r="AE47" s="9">
+      <c r="AE47" s="6">
         <v>36.077277545810524</v>
       </c>
-      <c r="AF47" s="9">
+      <c r="AF47" s="6">
         <v>54.695135950670732</v>
       </c>
-      <c r="AG47" s="9">
+      <c r="AG47" s="6">
         <v>59.663685152057248</v>
       </c>
-      <c r="AH47" s="9">
+      <c r="AH47" s="6">
         <v>61.469276420067082</v>
       </c>
-      <c r="AI47" s="9">
+      <c r="AI47" s="6">
         <v>60.28704674451393</v>
       </c>
-      <c r="AJ47" s="9">
+      <c r="AJ47" s="6">
         <v>59.948952079663513</v>
       </c>
-      <c r="AK47" s="33">
+      <c r="AK47" s="27">
         <v>58.128834355828218</v>
       </c>
-      <c r="AL47" s="8">
+      <c r="AL47" s="5">
         <v>60.503591901893913</v>
       </c>
-      <c r="AM47" s="9">
+      <c r="AM47" s="6">
         <v>54.352856816922525</v>
       </c>
-      <c r="AN47" s="30">
+      <c r="AN47" s="24">
         <v>57.541147648459336</v>
       </c>
-      <c r="AO47" s="9">
+      <c r="AO47" s="6">
         <v>60.611347363064731</v>
       </c>
-      <c r="AP47" s="9">
+      <c r="AP47" s="6">
         <v>60.450953382150367</v>
       </c>
-      <c r="AQ47" s="9">
+      <c r="AQ47" s="6">
         <v>37.803772216177002</v>
       </c>
-      <c r="AR47" s="9">
+      <c r="AR47" s="6">
         <v>61.288544231688043</v>
       </c>
-      <c r="AS47" s="9">
+      <c r="AS47" s="6">
         <v>61.230034881586192</v>
       </c>
-      <c r="AT47" s="9">
+      <c r="AT47" s="6">
         <v>55.003628207665408</v>
       </c>
-      <c r="AU47" s="9">
+      <c r="AU47" s="6">
         <v>59.946797037889141</v>
       </c>
-      <c r="AV47" s="9">
+      <c r="AV47" s="6">
         <v>57.858580251196997</v>
       </c>
-      <c r="AW47" s="9">
+      <c r="AW47" s="6">
         <v>62.066398689891322</v>
       </c>
-      <c r="AX47" s="9">
+      <c r="AX47" s="6">
         <v>60.221732692932719</v>
       </c>
-      <c r="AY47" s="10">
+      <c r="AY47" s="7">
         <v>61.900519673348185</v>
       </c>
     </row>
@@ -5697,154 +7690,154 @@
       <c r="A48">
         <v>8500</v>
       </c>
-      <c r="B48" s="31">
+      <c r="B48" s="25">
         <v>24.585287197066517</v>
       </c>
-      <c r="C48" s="31">
+      <c r="C48" s="25">
         <v>23.89905604514264</v>
       </c>
-      <c r="D48" s="31">
+      <c r="D48" s="25">
         <v>53.484578407171625</v>
       </c>
-      <c r="E48" s="31">
+      <c r="E48" s="25">
         <v>40.316403878170597</v>
       </c>
-      <c r="F48" s="30">
+      <c r="F48" s="24">
         <v>53.177823132766683</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="6">
         <v>49.794469845416941</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="6">
         <v>52.776954437065719</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="6">
         <v>53.544404557515222</v>
       </c>
-      <c r="J48" s="10">
+      <c r="J48" s="7">
         <v>50.283473799926718</v>
       </c>
-      <c r="K48" s="8">
+      <c r="K48" s="5">
         <v>53.58901327779224</v>
       </c>
-      <c r="L48" s="9">
+      <c r="L48" s="6">
         <v>52.855558123411143</v>
       </c>
-      <c r="M48" s="30">
+      <c r="M48" s="24">
         <v>51.585233822866023</v>
       </c>
-      <c r="N48" s="9">
+      <c r="N48" s="6">
         <v>53.110589328104041</v>
       </c>
-      <c r="O48" s="32">
+      <c r="O48" s="26">
         <v>54.364640008451744</v>
       </c>
-      <c r="P48" s="9">
+      <c r="P48" s="6">
         <v>53.231457535947037</v>
       </c>
-      <c r="Q48" s="9">
+      <c r="Q48" s="6">
         <v>54.465336579170199</v>
       </c>
-      <c r="R48" s="10">
+      <c r="R48" s="7">
         <v>53.906191074795721</v>
       </c>
-      <c r="S48" s="32">
+      <c r="S48" s="26">
         <v>55.053867551085915</v>
       </c>
-      <c r="T48" s="9">
+      <c r="T48" s="6">
         <v>51.451132330150479</v>
       </c>
-      <c r="U48" s="9">
+      <c r="U48" s="6">
         <v>55.314253466623668</v>
       </c>
-      <c r="V48" s="9">
+      <c r="V48" s="6">
         <v>54.383312637057784</v>
       </c>
-      <c r="W48" s="10">
+      <c r="W48" s="7">
         <v>53.903367726391878</v>
       </c>
-      <c r="X48" s="32">
+      <c r="X48" s="26">
         <v>54.265745696132456</v>
       </c>
-      <c r="Y48" s="9">
+      <c r="Y48" s="6">
         <v>50.62978723404256</v>
       </c>
-      <c r="Z48" s="9">
+      <c r="Z48" s="6">
         <v>56.342320641611693</v>
       </c>
-      <c r="AA48" s="9">
+      <c r="AA48" s="6">
         <v>57.136821651630811</v>
       </c>
-      <c r="AB48" s="9">
+      <c r="AB48" s="6">
         <v>54.521600932376231</v>
       </c>
-      <c r="AC48" s="10">
+      <c r="AC48" s="7">
         <v>53.653268689396306</v>
       </c>
-      <c r="AD48" s="8">
+      <c r="AD48" s="5">
         <v>54.870418255004935</v>
       </c>
-      <c r="AE48" s="9">
+      <c r="AE48" s="6">
         <v>31.873426346025798</v>
       </c>
-      <c r="AF48" s="9">
+      <c r="AF48" s="6">
         <v>51.358700533958775</v>
       </c>
-      <c r="AG48" s="9">
+      <c r="AG48" s="6">
         <v>56.380902815821194</v>
       </c>
-      <c r="AH48" s="9">
+      <c r="AH48" s="6">
         <v>57.09719833564494</v>
       </c>
-      <c r="AI48" s="9">
+      <c r="AI48" s="6">
         <v>54.534601526070368</v>
       </c>
-      <c r="AJ48" s="9">
+      <c r="AJ48" s="6">
         <v>55.341022745604135</v>
       </c>
-      <c r="AK48" s="33">
+      <c r="AK48" s="27">
         <v>54.248583401417918</v>
       </c>
-      <c r="AL48" s="8">
+      <c r="AL48" s="5">
         <v>55.3722863368574</v>
       </c>
-      <c r="AM48" s="9">
+      <c r="AM48" s="6">
         <v>53.429046073977943</v>
       </c>
-      <c r="AN48" s="30">
+      <c r="AN48" s="24">
         <v>55.736636880584896</v>
       </c>
-      <c r="AO48" s="9">
+      <c r="AO48" s="6">
         <v>54.141564522068492</v>
       </c>
-      <c r="AP48" s="9">
+      <c r="AP48" s="6">
         <v>53.133896073724152</v>
       </c>
-      <c r="AQ48" s="9">
+      <c r="AQ48" s="6">
         <v>36.5293178107475</v>
       </c>
-      <c r="AR48" s="9">
+      <c r="AR48" s="6">
         <v>55.192631522496917</v>
       </c>
-      <c r="AS48" s="9">
+      <c r="AS48" s="6">
         <v>55.508171080308507</v>
       </c>
-      <c r="AT48" s="9">
+      <c r="AT48" s="6">
         <v>50.479546792230728</v>
       </c>
-      <c r="AU48" s="9">
+      <c r="AU48" s="6">
         <v>55.37973525613431</v>
       </c>
-      <c r="AV48" s="9">
+      <c r="AV48" s="6">
         <v>53.203939205955336</v>
       </c>
-      <c r="AW48" s="9">
+      <c r="AW48" s="6">
         <v>54.890903757433534</v>
       </c>
-      <c r="AX48" s="9">
+      <c r="AX48" s="6">
         <v>53.530479558930615</v>
       </c>
-      <c r="AY48" s="10">
+      <c r="AY48" s="7">
         <v>55.529135642602789</v>
       </c>
     </row>
@@ -5852,154 +7845,154 @@
       <c r="A49">
         <v>9500</v>
       </c>
-      <c r="B49" s="31">
+      <c r="B49" s="25">
         <v>24.374133135192803</v>
       </c>
-      <c r="C49" s="31">
+      <c r="C49" s="25">
         <v>24.154392953903955</v>
       </c>
-      <c r="D49" s="31">
+      <c r="D49" s="25">
         <v>51.963830219333872</v>
       </c>
-      <c r="E49" s="31">
+      <c r="E49" s="25">
         <v>39.240840426347674</v>
       </c>
-      <c r="F49" s="30">
+      <c r="F49" s="24">
         <v>51.750480351111378</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="6">
         <v>49.023796294522249</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="6">
         <v>51.935352264193071</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I49" s="6">
         <v>51.192409267336238</v>
       </c>
-      <c r="J49" s="10">
+      <c r="J49" s="7">
         <v>49.673830324208886</v>
       </c>
-      <c r="K49" s="8">
+      <c r="K49" s="5">
         <v>51.157609564939222</v>
       </c>
-      <c r="L49" s="9">
+      <c r="L49" s="6">
         <v>51.721190192233827</v>
       </c>
-      <c r="M49" s="30">
+      <c r="M49" s="24">
         <v>51.815455337072962</v>
       </c>
-      <c r="N49" s="9">
+      <c r="N49" s="6">
         <v>51.881645646619894</v>
       </c>
-      <c r="O49" s="32">
+      <c r="O49" s="26">
         <v>53.034427724578201</v>
       </c>
-      <c r="P49" s="9">
+      <c r="P49" s="6">
         <v>51.490129394482118</v>
       </c>
-      <c r="Q49" s="9">
+      <c r="Q49" s="6">
         <v>51.517083777961219</v>
       </c>
-      <c r="R49" s="10">
+      <c r="R49" s="7">
         <v>51.706557542689701</v>
       </c>
-      <c r="S49" s="32">
+      <c r="S49" s="26">
         <v>52.476445374187328</v>
       </c>
-      <c r="T49" s="9">
+      <c r="T49" s="6">
         <v>51.226230755370473</v>
       </c>
-      <c r="U49" s="9">
+      <c r="U49" s="6">
         <v>54.206279261911313</v>
       </c>
-      <c r="V49" s="9">
+      <c r="V49" s="6">
         <v>52.152358240593529</v>
       </c>
-      <c r="W49" s="10">
+      <c r="W49" s="7">
         <v>53.120308088357412</v>
       </c>
-      <c r="X49" s="32">
+      <c r="X49" s="26">
         <v>53.359588755422081</v>
       </c>
-      <c r="Y49" s="9">
+      <c r="Y49" s="6">
         <v>50.11652139849182</v>
       </c>
-      <c r="Z49" s="9">
+      <c r="Z49" s="6">
         <v>52.740368958054205</v>
       </c>
-      <c r="AA49" s="9">
+      <c r="AA49" s="6">
         <v>53.372945348352097</v>
       </c>
-      <c r="AB49" s="9">
+      <c r="AB49" s="6">
         <v>52.499056177930981</v>
       </c>
-      <c r="AC49" s="10">
+      <c r="AC49" s="7">
         <v>52.68064648960263</v>
       </c>
-      <c r="AD49" s="8">
+      <c r="AD49" s="5">
         <v>52.746892329258486</v>
       </c>
-      <c r="AE49" s="9">
+      <c r="AE49" s="6">
         <v>30.430272108843532</v>
       </c>
-      <c r="AF49" s="9">
+      <c r="AF49" s="6">
         <v>49.551658694347068</v>
       </c>
-      <c r="AG49" s="9">
+      <c r="AG49" s="6">
         <v>54.740896837961571</v>
       </c>
-      <c r="AH49" s="9">
+      <c r="AH49" s="6">
         <v>54.449672284644194</v>
       </c>
-      <c r="AI49" s="9">
+      <c r="AI49" s="6">
         <v>52.841662880508856</v>
       </c>
-      <c r="AJ49" s="9">
+      <c r="AJ49" s="6">
         <v>52.558367397243387</v>
       </c>
-      <c r="AK49" s="33">
+      <c r="AK49" s="27">
         <v>52.205561903207375</v>
       </c>
-      <c r="AL49" s="8">
+      <c r="AL49" s="5">
         <v>51.484949092518811</v>
       </c>
-      <c r="AM49" s="9">
+      <c r="AM49" s="6">
         <v>49.343342011377878</v>
       </c>
-      <c r="AN49" s="30">
+      <c r="AN49" s="24">
         <v>51.63977073200266</v>
       </c>
-      <c r="AO49" s="9">
+      <c r="AO49" s="6">
         <v>51.223154228058931</v>
       </c>
-      <c r="AP49" s="9">
+      <c r="AP49" s="6">
         <v>49.588150933157614</v>
       </c>
-      <c r="AQ49" s="9">
+      <c r="AQ49" s="6">
         <v>41.579170593779452</v>
       </c>
-      <c r="AR49" s="9">
+      <c r="AR49" s="6">
         <v>51.370214218313954</v>
       </c>
-      <c r="AS49" s="9">
+      <c r="AS49" s="6">
         <v>51.984945144250304</v>
       </c>
-      <c r="AT49" s="9">
+      <c r="AT49" s="6">
         <v>47.89956568946797</v>
       </c>
-      <c r="AU49" s="9">
+      <c r="AU49" s="6">
         <v>52.674139492753618</v>
       </c>
-      <c r="AV49" s="9">
+      <c r="AV49" s="6">
         <v>51.647067134956195</v>
       </c>
-      <c r="AW49" s="9">
+      <c r="AW49" s="6">
         <v>54.774880654207607</v>
       </c>
-      <c r="AX49" s="9">
+      <c r="AX49" s="6">
         <v>51.443544171458441</v>
       </c>
-      <c r="AY49" s="10">
+      <c r="AY49" s="7">
         <v>54.277571540697053</v>
       </c>
     </row>
@@ -6007,154 +8000,154 @@
       <c r="A50">
         <v>10500</v>
       </c>
-      <c r="B50" s="31">
+      <c r="B50" s="25">
         <v>24.095335254263688</v>
       </c>
-      <c r="C50" s="31">
+      <c r="C50" s="25">
         <v>23.622553061536113</v>
       </c>
-      <c r="D50" s="31">
+      <c r="D50" s="25">
         <v>49.145956764140607</v>
       </c>
-      <c r="E50" s="31">
+      <c r="E50" s="25">
         <v>37.866625871986294</v>
       </c>
-      <c r="F50" s="30">
+      <c r="F50" s="24">
         <v>50.434928604029473</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="6">
         <v>47.253764623232236</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="6">
         <v>50.068482288784253</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I50" s="6">
         <v>49.534636504810855</v>
       </c>
-      <c r="J50" s="10">
+      <c r="J50" s="7">
         <v>48.479865876970322</v>
       </c>
-      <c r="K50" s="8">
+      <c r="K50" s="5">
         <v>50.519748550902115</v>
       </c>
-      <c r="L50" s="9">
+      <c r="L50" s="6">
         <v>49.334024267742407</v>
       </c>
-      <c r="M50" s="30">
+      <c r="M50" s="24">
         <v>49.336384220429252</v>
       </c>
-      <c r="N50" s="9">
+      <c r="N50" s="6">
         <v>49.594184779124198</v>
       </c>
-      <c r="O50" s="32">
+      <c r="O50" s="26">
         <v>50.225342510226611</v>
       </c>
-      <c r="P50" s="9">
+      <c r="P50" s="6">
         <v>49.960149198301337</v>
       </c>
-      <c r="Q50" s="9">
+      <c r="Q50" s="6">
         <v>49.991630582304659</v>
       </c>
-      <c r="R50" s="10">
+      <c r="R50" s="7">
         <v>49.83461916343196</v>
       </c>
-      <c r="S50" s="32">
+      <c r="S50" s="26">
         <v>50.691908186837495</v>
       </c>
-      <c r="T50" s="9">
+      <c r="T50" s="6">
         <v>50.149634504108789</v>
       </c>
-      <c r="U50" s="9">
+      <c r="U50" s="6">
         <v>51.874090467089168</v>
       </c>
-      <c r="V50" s="9">
+      <c r="V50" s="6">
         <v>50.238390595570571</v>
       </c>
-      <c r="W50" s="10">
+      <c r="W50" s="7">
         <v>51.109749248405961</v>
       </c>
-      <c r="X50" s="32">
+      <c r="X50" s="26">
         <v>51.400126254236163</v>
       </c>
-      <c r="Y50" s="9">
+      <c r="Y50" s="6">
         <v>49.105397641606764</v>
       </c>
-      <c r="Z50" s="9">
+      <c r="Z50" s="6">
         <v>50.397139785646814</v>
       </c>
-      <c r="AA50" s="9">
+      <c r="AA50" s="6">
         <v>53.04443682496143</v>
       </c>
-      <c r="AB50" s="9">
+      <c r="AB50" s="6">
         <v>49.829803681574411</v>
       </c>
-      <c r="AC50" s="10">
+      <c r="AC50" s="7">
         <v>50.578382973158533</v>
       </c>
-      <c r="AD50" s="8">
+      <c r="AD50" s="5">
         <v>51.399272388989488</v>
       </c>
-      <c r="AE50" s="9">
+      <c r="AE50" s="6">
         <v>29.372616030150279</v>
       </c>
-      <c r="AF50" s="9">
+      <c r="AF50" s="6">
         <v>46.889266067558765</v>
       </c>
-      <c r="AG50" s="9">
+      <c r="AG50" s="6">
         <v>51.471096102340596</v>
       </c>
-      <c r="AH50" s="9">
+      <c r="AH50" s="6">
         <v>51.085277461323827</v>
       </c>
-      <c r="AI50" s="9">
+      <c r="AI50" s="6">
         <v>50.51150110195087</v>
       </c>
-      <c r="AJ50" s="9">
+      <c r="AJ50" s="6">
         <v>50.284112331794837</v>
       </c>
-      <c r="AK50" s="33">
+      <c r="AK50" s="27">
         <v>50.846019851442847</v>
       </c>
-      <c r="AL50" s="8">
+      <c r="AL50" s="5">
         <v>52.066132669202034</v>
       </c>
-      <c r="AM50" s="9">
+      <c r="AM50" s="6">
         <v>48.635323336162728</v>
       </c>
-      <c r="AN50" s="30">
+      <c r="AN50" s="24">
         <v>49.740884830557519</v>
       </c>
-      <c r="AO50" s="9">
+      <c r="AO50" s="6">
         <v>51.263867718205319</v>
       </c>
-      <c r="AP50" s="9">
+      <c r="AP50" s="6">
         <v>50.315185221322409</v>
       </c>
-      <c r="AQ50" s="9">
+      <c r="AQ50" s="6">
         <v>39.725778702205794</v>
       </c>
-      <c r="AR50" s="9">
+      <c r="AR50" s="6">
         <v>51.776866695672553</v>
       </c>
-      <c r="AS50" s="9">
+      <c r="AS50" s="6">
         <v>51.619652986319657</v>
       </c>
-      <c r="AT50" s="9">
+      <c r="AT50" s="6">
         <v>47.359364476826059</v>
       </c>
-      <c r="AU50" s="9">
+      <c r="AU50" s="6">
         <v>52.208457073434133</v>
       </c>
-      <c r="AV50" s="9">
+      <c r="AV50" s="6">
         <v>49.606906945424235</v>
       </c>
-      <c r="AW50" s="9">
+      <c r="AW50" s="6">
         <v>50.338924591230786</v>
       </c>
-      <c r="AX50" s="9">
+      <c r="AX50" s="6">
         <v>51.425755410032252</v>
       </c>
-      <c r="AY50" s="10">
+      <c r="AY50" s="7">
         <v>51.468527513473951</v>
       </c>
     </row>
@@ -6162,154 +8155,154 @@
       <c r="A51">
         <v>11500</v>
       </c>
-      <c r="B51" s="31">
+      <c r="B51" s="25">
         <v>23.825911993141659</v>
       </c>
-      <c r="C51" s="31">
+      <c r="C51" s="25">
         <v>23.708662520133181</v>
       </c>
-      <c r="D51" s="31">
+      <c r="D51" s="25">
         <v>49.658417227815185</v>
       </c>
-      <c r="E51" s="31">
+      <c r="E51" s="25">
         <v>37.346647546079943</v>
       </c>
-      <c r="F51" s="30">
+      <c r="F51" s="24">
         <v>49.576445373340967</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="6">
         <v>47.598836912065437</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="6">
         <v>48.34401692759041</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="6">
         <v>49.85919697963665</v>
       </c>
-      <c r="J51" s="10">
+      <c r="J51" s="7">
         <v>47.680498297185878</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K51" s="5">
         <v>49.644515836621522</v>
       </c>
-      <c r="L51" s="9">
+      <c r="L51" s="6">
         <v>49.005618864647204</v>
       </c>
-      <c r="M51" s="30">
+      <c r="M51" s="24">
         <v>48.730526150504431</v>
       </c>
-      <c r="N51" s="9">
+      <c r="N51" s="6">
         <v>49.72737712141646</v>
       </c>
-      <c r="O51" s="32">
+      <c r="O51" s="26">
         <v>50.848347897323869</v>
       </c>
-      <c r="P51" s="9">
+      <c r="P51" s="6">
         <v>50.171539041870993</v>
       </c>
-      <c r="Q51" s="9">
+      <c r="Q51" s="6">
         <v>49.427739066958665</v>
       </c>
-      <c r="R51" s="10">
+      <c r="R51" s="7">
         <v>49.914662913818525</v>
       </c>
-      <c r="S51" s="32">
+      <c r="S51" s="26">
         <v>50.210095589920591</v>
       </c>
-      <c r="T51" s="9">
+      <c r="T51" s="6">
         <v>48.805884280191343</v>
       </c>
-      <c r="U51" s="9">
+      <c r="U51" s="6">
         <v>51.048387317862186</v>
       </c>
-      <c r="V51" s="9">
+      <c r="V51" s="6">
         <v>49.69287325033693</v>
       </c>
-      <c r="W51" s="10">
+      <c r="W51" s="7">
         <v>50.731977441150832</v>
       </c>
-      <c r="X51" s="32">
+      <c r="X51" s="26">
         <v>50.57626911481109</v>
       </c>
-      <c r="Y51" s="9">
+      <c r="Y51" s="6">
         <v>48.656671762108211</v>
       </c>
-      <c r="Z51" s="9">
+      <c r="Z51" s="6">
         <v>50.526863484655259</v>
       </c>
-      <c r="AA51" s="9">
+      <c r="AA51" s="6">
         <v>51.58864924018895</v>
       </c>
-      <c r="AB51" s="9">
+      <c r="AB51" s="6">
         <v>49.726713133579025</v>
       </c>
-      <c r="AC51" s="10">
+      <c r="AC51" s="7">
         <v>48.905226526592259</v>
       </c>
-      <c r="AD51" s="8">
+      <c r="AD51" s="5">
         <v>51.240134837644476</v>
       </c>
-      <c r="AE51" s="9">
+      <c r="AE51" s="6">
         <v>28.556455261361982</v>
       </c>
-      <c r="AF51" s="9">
+      <c r="AF51" s="6">
         <v>47.525944359367024</v>
       </c>
-      <c r="AG51" s="9">
+      <c r="AG51" s="6">
         <v>49.81051547494851</v>
       </c>
-      <c r="AH51" s="9">
+      <c r="AH51" s="6">
         <v>50.778323175304401</v>
       </c>
-      <c r="AI51" s="9">
+      <c r="AI51" s="6">
         <v>50.121571424726113</v>
       </c>
-      <c r="AJ51" s="9">
+      <c r="AJ51" s="6">
         <v>50.30097113605359</v>
       </c>
-      <c r="AK51" s="33">
+      <c r="AK51" s="27">
         <v>49.64848686841755</v>
       </c>
-      <c r="AL51" s="8">
+      <c r="AL51" s="5">
         <v>50.330202448847203</v>
       </c>
-      <c r="AM51" s="9">
+      <c r="AM51" s="6">
         <v>48.694207635983261</v>
       </c>
-      <c r="AN51" s="30">
+      <c r="AN51" s="24">
         <v>50.757560889179643</v>
       </c>
-      <c r="AO51" s="9">
+      <c r="AO51" s="6">
         <v>49.092830119036641</v>
       </c>
-      <c r="AP51" s="9">
+      <c r="AP51" s="6">
         <v>48.837886040259654</v>
       </c>
-      <c r="AQ51" s="9">
+      <c r="AQ51" s="6">
         <v>39.477744209466266</v>
       </c>
-      <c r="AR51" s="9">
+      <c r="AR51" s="6">
         <v>50.259561661583312</v>
       </c>
-      <c r="AS51" s="9">
+      <c r="AS51" s="6">
         <v>49.579085402383015</v>
       </c>
-      <c r="AT51" s="9">
+      <c r="AT51" s="6">
         <v>47.442393436775461</v>
       </c>
-      <c r="AU51" s="9">
+      <c r="AU51" s="6">
         <v>49.79453135445916</v>
       </c>
-      <c r="AV51" s="9">
+      <c r="AV51" s="6">
         <v>48.087455613661312</v>
       </c>
-      <c r="AW51" s="9">
+      <c r="AW51" s="6">
         <v>50.807418927952632</v>
       </c>
-      <c r="AX51" s="9">
+      <c r="AX51" s="6">
         <v>49.414622172095804</v>
       </c>
-      <c r="AY51" s="10">
+      <c r="AY51" s="7">
         <v>51.911527739057711</v>
       </c>
     </row>
@@ -6317,794 +8310,794 @@
       <c r="A52">
         <v>12500</v>
       </c>
-      <c r="B52" s="31">
+      <c r="B52" s="25">
         <v>23.727164617995872</v>
       </c>
-      <c r="C52" s="31">
+      <c r="C52" s="25">
         <v>23.814313073388274</v>
       </c>
-      <c r="D52" s="31">
+      <c r="D52" s="25">
         <v>49.207739650011774</v>
       </c>
-      <c r="E52" s="31">
+      <c r="E52" s="25">
         <v>37.322002193672368</v>
       </c>
-      <c r="F52" s="30">
+      <c r="F52" s="24">
         <v>45.48022048614709</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="6">
         <v>47.086288644311431</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="6">
         <v>48.067521545352015</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I52" s="6">
         <v>48.896391930578922</v>
       </c>
-      <c r="J52" s="10">
+      <c r="J52" s="7">
         <v>47.09083496937123</v>
       </c>
-      <c r="K52" s="8">
+      <c r="K52" s="5">
         <v>48.972766118865131</v>
       </c>
-      <c r="L52" s="9">
+      <c r="L52" s="6">
         <v>48.165097548664605</v>
       </c>
-      <c r="M52" s="30">
+      <c r="M52" s="24">
         <v>47.764154125724986</v>
       </c>
-      <c r="N52" s="9">
+      <c r="N52" s="6">
         <v>49.132831126383778</v>
       </c>
-      <c r="O52" s="32">
+      <c r="O52" s="26">
         <v>49.800637614730952</v>
       </c>
-      <c r="P52" s="9">
+      <c r="P52" s="6">
         <v>49.467825185385543</v>
       </c>
-      <c r="Q52" s="9">
+      <c r="Q52" s="6">
         <v>49.058150321318813</v>
       </c>
-      <c r="R52" s="10">
+      <c r="R52" s="7">
         <v>49.953090859431903</v>
       </c>
-      <c r="S52" s="32">
+      <c r="S52" s="26">
         <v>50.271751703601907</v>
       </c>
-      <c r="T52" s="9">
+      <c r="T52" s="6">
         <v>48.426000904647907</v>
       </c>
-      <c r="U52" s="9">
+      <c r="U52" s="6">
         <v>48.224363340730811</v>
       </c>
-      <c r="V52" s="9">
+      <c r="V52" s="6">
         <v>49.082835737448292</v>
       </c>
-      <c r="W52" s="10">
+      <c r="W52" s="7">
         <v>49.573414647919144</v>
       </c>
-      <c r="X52" s="32">
+      <c r="X52" s="26">
         <v>49.940019341259465</v>
       </c>
-      <c r="Y52" s="9">
+      <c r="Y52" s="6">
         <v>47.49437898313154</v>
       </c>
-      <c r="Z52" s="9">
+      <c r="Z52" s="6">
         <v>48.263601178695524</v>
       </c>
-      <c r="AA52" s="9">
+      <c r="AA52" s="6">
         <v>50.550222263168813</v>
       </c>
-      <c r="AB52" s="9">
+      <c r="AB52" s="6">
         <v>48.55348708589127</v>
       </c>
-      <c r="AC52" s="10">
+      <c r="AC52" s="7">
         <v>48.629870489569377</v>
       </c>
-      <c r="AD52" s="8">
+      <c r="AD52" s="5">
         <v>49.826076098801316</v>
       </c>
-      <c r="AE52" s="9">
+      <c r="AE52" s="6">
         <v>28.242684339209884</v>
       </c>
-      <c r="AF52" s="9">
+      <c r="AF52" s="6">
         <v>46.35287284708069</v>
       </c>
-      <c r="AG52" s="9">
+      <c r="AG52" s="6">
         <v>48.278995589480751</v>
       </c>
-      <c r="AH52" s="9">
+      <c r="AH52" s="6">
         <v>51.295727574440242</v>
       </c>
-      <c r="AI52" s="9">
+      <c r="AI52" s="6">
         <v>49.776353987117851</v>
       </c>
-      <c r="AJ52" s="9">
+      <c r="AJ52" s="6">
         <v>49.217119278810578</v>
       </c>
-      <c r="AK52" s="33">
+      <c r="AK52" s="27">
         <v>49.161996281611898</v>
       </c>
-      <c r="AL52" s="11">
+      <c r="AL52" s="8">
         <v>49.66765108568972</v>
       </c>
-      <c r="AM52" s="12">
+      <c r="AM52" s="9">
         <v>48.692446781368211</v>
       </c>
-      <c r="AN52" s="34">
+      <c r="AN52" s="28">
         <v>49.678893579456073</v>
       </c>
-      <c r="AO52" s="12">
+      <c r="AO52" s="9">
         <v>49.72053509735737</v>
       </c>
-      <c r="AP52" s="12">
+      <c r="AP52" s="9">
         <v>47.72468605599348</v>
       </c>
-      <c r="AQ52" s="12">
+      <c r="AQ52" s="9">
         <v>41.260309254124181</v>
       </c>
-      <c r="AR52" s="12">
+      <c r="AR52" s="9">
         <v>50.496140439679273</v>
       </c>
-      <c r="AS52" s="12">
+      <c r="AS52" s="9">
         <v>50.168329618835365</v>
       </c>
-      <c r="AT52" s="12">
+      <c r="AT52" s="9">
         <v>46.409232200630143</v>
       </c>
-      <c r="AU52" s="12">
+      <c r="AU52" s="9">
         <v>51.022643263977692</v>
       </c>
-      <c r="AV52" s="12">
+      <c r="AV52" s="9">
         <v>48.960748664294563</v>
       </c>
-      <c r="AW52" s="12">
+      <c r="AW52" s="9">
         <v>49.978685370102589</v>
       </c>
-      <c r="AX52" s="12">
+      <c r="AX52" s="9">
         <v>49.43272858317286</v>
       </c>
-      <c r="AY52" s="13">
+      <c r="AY52" s="10">
         <v>51.290932460855345</v>
       </c>
     </row>
     <row r="53" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="23">
+      <c r="B53" s="17">
         <f>MAX(B44:B52)</f>
         <v>31.960352184951116</v>
       </c>
-      <c r="C53" s="23">
+      <c r="C53" s="17">
         <f t="shared" ref="C53:AY53" si="18">MAX(C44:C52)</f>
         <v>34.199294838448644</v>
       </c>
-      <c r="D53" s="23">
+      <c r="D53" s="17">
         <f t="shared" si="18"/>
         <v>89.149013108332085</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="17">
         <f t="shared" si="18"/>
         <v>54.228026761983323</v>
       </c>
-      <c r="F53" s="24">
+      <c r="F53" s="18">
         <f t="shared" si="18"/>
         <v>92.104919053549196</v>
       </c>
-      <c r="G53" s="24">
+      <c r="G53" s="18">
         <f t="shared" si="18"/>
         <v>78.733466400532279</v>
       </c>
-      <c r="H53" s="24">
+      <c r="H53" s="18">
         <f t="shared" si="18"/>
         <v>80.000270416441325</v>
       </c>
-      <c r="I53" s="24">
+      <c r="I53" s="18">
         <f t="shared" si="18"/>
         <v>88.707946026986519</v>
       </c>
-      <c r="J53" s="25">
+      <c r="J53" s="19">
         <f t="shared" si="18"/>
         <v>98.318710535061484</v>
       </c>
-      <c r="K53" s="26">
+      <c r="K53" s="20">
         <f t="shared" si="18"/>
         <v>73.437312687312698</v>
       </c>
-      <c r="L53" s="24">
+      <c r="L53" s="18">
         <f t="shared" si="18"/>
         <v>80.206316931001766</v>
       </c>
-      <c r="M53" s="24">
+      <c r="M53" s="18">
         <f t="shared" si="18"/>
         <v>99.676886792452834</v>
       </c>
-      <c r="N53" s="24">
+      <c r="N53" s="18">
         <f t="shared" si="18"/>
         <v>67.549506087755574</v>
       </c>
-      <c r="O53" s="26">
+      <c r="O53" s="20">
         <f t="shared" si="18"/>
         <v>109.79439599183523</v>
       </c>
-      <c r="P53" s="24">
+      <c r="P53" s="18">
         <f t="shared" si="18"/>
         <v>78.635139953645933</v>
       </c>
-      <c r="Q53" s="24">
+      <c r="Q53" s="18">
         <f t="shared" si="18"/>
         <v>77.816601976005643</v>
       </c>
-      <c r="R53" s="25">
+      <c r="R53" s="19">
         <f t="shared" si="18"/>
         <v>74.247033078023748</v>
       </c>
-      <c r="S53" s="26">
+      <c r="S53" s="20">
         <f t="shared" si="18"/>
         <v>100.37014418999152</v>
       </c>
-      <c r="T53" s="24">
+      <c r="T53" s="18">
         <f t="shared" si="18"/>
         <v>88.113477289650049</v>
       </c>
-      <c r="U53" s="24">
+      <c r="U53" s="18">
         <f t="shared" si="18"/>
         <v>96.632696390658182</v>
       </c>
-      <c r="V53" s="24">
+      <c r="V53" s="18">
         <f t="shared" si="18"/>
         <v>78.320962443398741</v>
       </c>
-      <c r="W53" s="25">
+      <c r="W53" s="19">
         <f t="shared" si="18"/>
         <v>75.402085648346016</v>
       </c>
-      <c r="X53" s="26">
+      <c r="X53" s="20">
         <f t="shared" si="18"/>
         <v>103.82207404807862</v>
       </c>
-      <c r="Y53" s="24">
+      <c r="Y53" s="18">
         <f t="shared" si="18"/>
         <v>67.477166679415589</v>
       </c>
-      <c r="Z53" s="24">
+      <c r="Z53" s="18">
         <f t="shared" si="18"/>
         <v>88.460589651022872</v>
       </c>
-      <c r="AA53" s="24">
+      <c r="AA53" s="18">
         <f t="shared" si="18"/>
         <v>77.604381103193461</v>
       </c>
-      <c r="AB53" s="24">
+      <c r="AB53" s="18">
         <f t="shared" si="18"/>
         <v>79.664860471416972</v>
       </c>
-      <c r="AC53" s="25">
+      <c r="AC53" s="19">
         <f t="shared" si="18"/>
         <v>76.613600833767592</v>
       </c>
-      <c r="AD53" s="26">
+      <c r="AD53" s="20">
         <f t="shared" si="18"/>
         <v>82.51908325537886</v>
       </c>
-      <c r="AE53" s="24">
+      <c r="AE53" s="18">
         <f t="shared" si="18"/>
         <v>75.431157572667004</v>
       </c>
-      <c r="AF53" s="24">
+      <c r="AF53" s="18">
         <f t="shared" si="18"/>
         <v>94.532992490813243</v>
       </c>
-      <c r="AG53" s="24">
+      <c r="AG53" s="18">
         <f t="shared" si="18"/>
         <v>79.057985302025457</v>
       </c>
-      <c r="AH53" s="24">
+      <c r="AH53" s="18">
         <f t="shared" si="18"/>
         <v>80.069801216302082</v>
       </c>
-      <c r="AI53" s="24">
+      <c r="AI53" s="18">
         <f t="shared" si="18"/>
         <v>81.982249070631966</v>
       </c>
-      <c r="AJ53" s="24">
+      <c r="AJ53" s="18">
         <f t="shared" si="18"/>
         <v>111.009756097561</v>
       </c>
-      <c r="AK53" s="25">
+      <c r="AK53" s="19">
         <f t="shared" si="18"/>
         <v>119.02675518004428</v>
       </c>
-      <c r="AL53" s="24">
+      <c r="AL53" s="18">
         <f t="shared" si="18"/>
         <v>90.419126691266911</v>
       </c>
-      <c r="AM53" s="24">
+      <c r="AM53" s="18">
         <f t="shared" si="18"/>
         <v>79.214170258620697</v>
       </c>
-      <c r="AN53" s="24">
+      <c r="AN53" s="18">
         <f t="shared" si="18"/>
         <v>105.4503653537694</v>
       </c>
-      <c r="AO53" s="24">
+      <c r="AO53" s="18">
         <f t="shared" si="18"/>
         <v>80.95154629714601</v>
       </c>
-      <c r="AP53" s="24">
+      <c r="AP53" s="18">
         <f t="shared" si="18"/>
         <v>77.440874374506194</v>
       </c>
-      <c r="AQ53" s="24">
+      <c r="AQ53" s="18">
         <f t="shared" si="18"/>
         <v>49.736637347767264</v>
       </c>
-      <c r="AR53" s="24">
+      <c r="AR53" s="18">
         <f t="shared" si="18"/>
         <v>81.092939878654164</v>
       </c>
-      <c r="AS53" s="24">
+      <c r="AS53" s="18">
         <f t="shared" si="18"/>
         <v>82.720273818454615</v>
       </c>
-      <c r="AT53" s="24">
+      <c r="AT53" s="18">
         <f t="shared" si="18"/>
         <v>75.466592522884767</v>
       </c>
-      <c r="AU53" s="24">
+      <c r="AU53" s="18">
         <f t="shared" si="18"/>
         <v>78.796694953104065</v>
       </c>
-      <c r="AV53" s="24">
+      <c r="AV53" s="18">
         <f t="shared" si="18"/>
         <v>79.700849295265641</v>
       </c>
-      <c r="AW53" s="24">
+      <c r="AW53" s="18">
         <f t="shared" si="18"/>
         <v>82.005112949707183</v>
       </c>
-      <c r="AX53" s="24">
+      <c r="AX53" s="18">
         <f t="shared" si="18"/>
         <v>80.251910480349352</v>
       </c>
-      <c r="AY53" s="25">
+      <c r="AY53" s="19">
         <f t="shared" si="18"/>
         <v>97.092550049228763</v>
       </c>
     </row>
     <row r="54" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="27" t="s">
+      <c r="A54" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="22">
+      <c r="B54" s="16">
         <f>AVERAGE(B44:B52)</f>
         <v>26.301213722418268</v>
       </c>
-      <c r="C54" s="22">
+      <c r="C54" s="16">
         <f t="shared" ref="C54:AY54" si="19">AVERAGE(C44:C52)</f>
         <v>25.94705449519353</v>
       </c>
-      <c r="D54" s="22">
+      <c r="D54" s="16">
         <f t="shared" si="19"/>
         <v>59.171907047703385</v>
       </c>
-      <c r="E54" s="22">
+      <c r="E54" s="16">
         <f t="shared" si="19"/>
         <v>42.846862423479706</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54" s="9">
         <f t="shared" si="19"/>
         <v>60.16034085594346</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G54" s="9">
         <f t="shared" si="19"/>
         <v>56.029197689467118</v>
       </c>
-      <c r="H54" s="12">
+      <c r="H54" s="9">
         <f t="shared" si="19"/>
         <v>57.855277834271696</v>
       </c>
-      <c r="I54" s="12">
+      <c r="I54" s="9">
         <f t="shared" si="19"/>
         <v>59.20328513640672</v>
       </c>
-      <c r="J54" s="13">
+      <c r="J54" s="10">
         <f t="shared" si="19"/>
         <v>58.477686006960816</v>
       </c>
-      <c r="K54" s="11">
+      <c r="K54" s="8">
         <f t="shared" si="19"/>
         <v>56.880317627196554</v>
       </c>
-      <c r="L54" s="12">
+      <c r="L54" s="9">
         <f t="shared" si="19"/>
         <v>58.824982120852205</v>
       </c>
-      <c r="M54" s="12">
+      <c r="M54" s="9">
         <f t="shared" si="19"/>
         <v>59.983071103876391</v>
       </c>
-      <c r="N54" s="12">
+      <c r="N54" s="9">
         <f t="shared" si="19"/>
         <v>48.870486913373803</v>
       </c>
-      <c r="O54" s="11">
+      <c r="O54" s="8">
         <f t="shared" si="19"/>
         <v>63.431659842065855</v>
       </c>
-      <c r="P54" s="12">
+      <c r="P54" s="9">
         <f t="shared" si="19"/>
         <v>58.529451011777809</v>
       </c>
-      <c r="Q54" s="12">
+      <c r="Q54" s="9">
         <f t="shared" si="19"/>
         <v>57.741179509704203</v>
       </c>
-      <c r="R54" s="13">
+      <c r="R54" s="10">
         <f t="shared" si="19"/>
         <v>56.984546426777491</v>
       </c>
-      <c r="S54" s="11">
+      <c r="S54" s="8">
         <f t="shared" si="19"/>
         <v>62.339384531343889</v>
       </c>
-      <c r="T54" s="12">
+      <c r="T54" s="9">
         <f t="shared" si="19"/>
         <v>59.075080918203099</v>
       </c>
-      <c r="U54" s="12">
+      <c r="U54" s="9">
         <f t="shared" si="19"/>
         <v>62.539683015963909</v>
       </c>
-      <c r="V54" s="12">
+      <c r="V54" s="9">
         <f t="shared" si="19"/>
         <v>59.286820811601352</v>
       </c>
-      <c r="W54" s="13">
+      <c r="W54" s="10">
         <f t="shared" si="19"/>
         <v>59.056733184536519</v>
       </c>
-      <c r="X54" s="11">
+      <c r="X54" s="8">
         <f t="shared" si="19"/>
         <v>62.925350830090373</v>
       </c>
-      <c r="Y54" s="12">
+      <c r="Y54" s="9">
         <f t="shared" si="19"/>
         <v>53.451329446490824</v>
       </c>
-      <c r="Z54" s="12">
+      <c r="Z54" s="9">
         <f t="shared" si="19"/>
         <v>60.634459200379702</v>
       </c>
-      <c r="AA54" s="12">
+      <c r="AA54" s="9">
         <f t="shared" si="19"/>
         <v>58.81099745873761</v>
       </c>
-      <c r="AB54" s="12">
+      <c r="AB54" s="9">
         <f t="shared" si="19"/>
         <v>58.109059074928055</v>
       </c>
-      <c r="AC54" s="13">
+      <c r="AC54" s="10">
         <f t="shared" si="19"/>
         <v>57.860047453010033</v>
       </c>
-      <c r="AD54" s="11">
+      <c r="AD54" s="8">
         <f t="shared" si="19"/>
         <v>58.414938760895261</v>
       </c>
-      <c r="AE54" s="12">
+      <c r="AE54" s="9">
         <f t="shared" si="19"/>
         <v>39.420276423998999</v>
       </c>
-      <c r="AF54" s="12">
+      <c r="AF54" s="9">
         <f t="shared" si="19"/>
         <v>57.797544480068609</v>
       </c>
-      <c r="AG54" s="12">
+      <c r="AG54" s="9">
         <f t="shared" si="19"/>
         <v>58.558135315832288</v>
       </c>
-      <c r="AH54" s="12">
+      <c r="AH54" s="9">
         <f t="shared" si="19"/>
         <v>61.623349790717874</v>
       </c>
-      <c r="AI54" s="12">
+      <c r="AI54" s="9">
         <f t="shared" si="19"/>
         <v>60.045384193279851</v>
       </c>
-      <c r="AJ54" s="12">
+      <c r="AJ54" s="9">
         <f t="shared" si="19"/>
         <v>63.87794528768044</v>
       </c>
-      <c r="AK54" s="13">
+      <c r="AK54" s="10">
         <f t="shared" si="19"/>
         <v>64.207876317648982</v>
       </c>
-      <c r="AL54" s="12">
+      <c r="AL54" s="9">
         <f t="shared" si="19"/>
         <v>62.813586743108758</v>
       </c>
-      <c r="AM54" s="12">
+      <c r="AM54" s="9">
         <f t="shared" si="19"/>
         <v>53.792351282202084</v>
       </c>
-      <c r="AN54" s="12">
+      <c r="AN54" s="9">
         <f t="shared" si="19"/>
         <v>63.718704394932942</v>
       </c>
-      <c r="AO54" s="12">
+      <c r="AO54" s="9">
         <f t="shared" si="19"/>
         <v>57.654957744230586</v>
       </c>
-      <c r="AP54" s="12">
+      <c r="AP54" s="9">
         <f t="shared" si="19"/>
         <v>56.769423742514412</v>
       </c>
-      <c r="AQ54" s="12">
+      <c r="AQ54" s="9">
         <f t="shared" si="19"/>
         <v>41.211027255079109</v>
       </c>
-      <c r="AR54" s="12">
+      <c r="AR54" s="9">
         <f t="shared" si="19"/>
         <v>58.630562821934227</v>
       </c>
-      <c r="AS54" s="12">
+      <c r="AS54" s="9">
         <f t="shared" si="19"/>
         <v>60.566593088079685</v>
       </c>
-      <c r="AT54" s="12">
+      <c r="AT54" s="9">
         <f t="shared" si="19"/>
         <v>53.795540434510961</v>
       </c>
-      <c r="AU54" s="12">
+      <c r="AU54" s="9">
         <f t="shared" si="19"/>
         <v>58.62007352807445</v>
       </c>
-      <c r="AV54" s="12">
+      <c r="AV54" s="9">
         <f t="shared" si="19"/>
         <v>58.451421259466173</v>
       </c>
-      <c r="AW54" s="12">
+      <c r="AW54" s="9">
         <f t="shared" si="19"/>
         <v>58.652615238267316</v>
       </c>
-      <c r="AX54" s="12">
+      <c r="AX54" s="9">
         <f t="shared" si="19"/>
         <v>56.731362744743315</v>
       </c>
-      <c r="AY54" s="13">
+      <c r="AY54" s="10">
         <f t="shared" si="19"/>
         <v>63.754427601445869</v>
       </c>
     </row>
     <row r="57" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="20" t="s">
+      <c r="E58" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="16" t="s">
+      <c r="F58" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="16" t="s">
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="16" t="s">
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="16" t="s">
+      <c r="P58" s="35"/>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="36"/>
+      <c r="S58" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="16" t="s">
+      <c r="T58" s="35"/>
+      <c r="U58" s="35"/>
+      <c r="V58" s="35"/>
+      <c r="W58" s="36"/>
+      <c r="X58" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
-      <c r="AA58" s="3"/>
-      <c r="AB58" s="3"/>
-      <c r="AC58" s="4"/>
-      <c r="AD58" s="16" t="s">
+      <c r="Y58" s="35"/>
+      <c r="Z58" s="35"/>
+      <c r="AA58" s="35"/>
+      <c r="AB58" s="35"/>
+      <c r="AC58" s="36"/>
+      <c r="AD58" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="AE58" s="3"/>
-      <c r="AF58" s="3"/>
-      <c r="AG58" s="3"/>
-      <c r="AH58" s="3"/>
-      <c r="AI58" s="3"/>
-      <c r="AJ58" s="3"/>
-      <c r="AK58" s="4"/>
-      <c r="AL58" s="16" t="s">
+      <c r="AE58" s="35"/>
+      <c r="AF58" s="35"/>
+      <c r="AG58" s="35"/>
+      <c r="AH58" s="35"/>
+      <c r="AI58" s="35"/>
+      <c r="AJ58" s="35"/>
+      <c r="AK58" s="36"/>
+      <c r="AL58" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="AM58" s="3"/>
-      <c r="AN58" s="3"/>
-      <c r="AO58" s="3"/>
-      <c r="AP58" s="3"/>
-      <c r="AQ58" s="3"/>
-      <c r="AR58" s="3"/>
-      <c r="AS58" s="3"/>
-      <c r="AT58" s="3"/>
-      <c r="AU58" s="3"/>
-      <c r="AV58" s="3"/>
-      <c r="AW58" s="3"/>
-      <c r="AX58" s="3"/>
-      <c r="AY58" s="4"/>
+      <c r="AM58" s="35"/>
+      <c r="AN58" s="35"/>
+      <c r="AO58" s="35"/>
+      <c r="AP58" s="35"/>
+      <c r="AQ58" s="35"/>
+      <c r="AR58" s="35"/>
+      <c r="AS58" s="35"/>
+      <c r="AT58" s="35"/>
+      <c r="AU58" s="35"/>
+      <c r="AV58" s="35"/>
+      <c r="AW58" s="35"/>
+      <c r="AX58" s="35"/>
+      <c r="AY58" s="36"/>
     </row>
     <row r="59" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="D59" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="21" t="s">
+      <c r="E59" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G59" s="6" t="s">
+      <c r="G59" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H59" s="6" t="s">
+      <c r="H59" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I59" s="6" t="s">
+      <c r="I59" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J59" s="7" t="s">
+      <c r="J59" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="K59" s="5" t="s">
+      <c r="K59" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L59" s="6" t="s">
+      <c r="L59" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="M59" s="6" t="s">
+      <c r="M59" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="N59" s="7" t="s">
+      <c r="N59" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O59" s="17" t="s">
+      <c r="O59" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P59" s="18" t="s">
+      <c r="P59" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="Q59" s="18" t="s">
+      <c r="Q59" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R59" s="19" t="s">
+      <c r="R59" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="S59" s="17" t="s">
+      <c r="S59" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T59" s="18" t="s">
+      <c r="T59" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="U59" s="18" t="s">
+      <c r="U59" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="V59" s="18" t="s">
+      <c r="V59" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="W59" s="19" t="s">
+      <c r="W59" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="X59" s="17" t="s">
+      <c r="X59" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y59" s="18" t="s">
+      <c r="Y59" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="Z59" s="18" t="s">
+      <c r="Z59" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AA59" s="18" t="s">
+      <c r="AA59" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AB59" s="18" t="s">
+      <c r="AB59" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AC59" s="19" t="s">
+      <c r="AC59" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AD59" s="17" t="s">
+      <c r="AD59" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AE59" s="18" t="s">
+      <c r="AE59" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AF59" s="18" t="s">
+      <c r="AF59" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AG59" s="18" t="s">
+      <c r="AG59" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AH59" s="18" t="s">
+      <c r="AH59" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AI59" s="18" t="s">
+      <c r="AI59" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AJ59" s="18" t="s">
+      <c r="AJ59" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AK59" s="19" t="s">
+      <c r="AK59" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AL59" s="17" t="s">
+      <c r="AL59" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AM59" s="18" t="s">
+      <c r="AM59" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AN59" s="18" t="s">
+      <c r="AN59" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AO59" s="18" t="s">
+      <c r="AO59" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AP59" s="18" t="s">
+      <c r="AP59" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AQ59" s="18" t="s">
+      <c r="AQ59" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AR59" s="18" t="s">
+      <c r="AR59" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AS59" s="18" t="s">
+      <c r="AS59" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AT59" s="18" t="s">
+      <c r="AT59" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AU59" s="18" t="s">
+      <c r="AU59" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AV59" s="18" t="s">
+      <c r="AV59" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AW59" s="18" t="s">
+      <c r="AW59" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AX59" s="18" t="s">
+      <c r="AX59" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AY59" s="19" t="s">
+      <c r="AY59" s="13" t="s">
         <v>58</v>
       </c>
     </row>
@@ -7112,154 +9105,154 @@
       <c r="A60">
         <v>4500</v>
       </c>
-      <c r="B60" s="21">
+      <c r="B60" s="15">
         <v>153135.9</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="15">
         <v>163862.6</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D60" s="15">
         <v>427144.6</v>
       </c>
-      <c r="E60" s="21">
+      <c r="E60" s="15">
         <v>259829.8</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="40">
         <v>441300.9</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G60" s="12">
         <v>377235.9</v>
       </c>
-      <c r="H60" s="18">
+      <c r="H60" s="12">
         <v>383316.2</v>
       </c>
-      <c r="I60" s="18">
+      <c r="I60" s="12">
         <v>425037.6</v>
       </c>
-      <c r="J60" s="19">
+      <c r="J60" s="13">
         <v>471074.1</v>
       </c>
-      <c r="K60" s="17">
+      <c r="K60" s="11">
         <v>299880.3</v>
       </c>
-      <c r="L60" s="18">
+      <c r="L60" s="12">
         <v>384307.3</v>
       </c>
-      <c r="M60" s="18">
+      <c r="M60" s="42">
         <v>477601.8</v>
       </c>
-      <c r="N60" s="19">
+      <c r="N60" s="13">
         <v>3561.1</v>
       </c>
-      <c r="O60" s="17">
+      <c r="O60" s="40">
         <v>526074.1</v>
       </c>
-      <c r="P60" s="18">
+      <c r="P60" s="12">
         <v>327400.3</v>
       </c>
-      <c r="Q60" s="18">
+      <c r="Q60" s="12">
         <v>311507.20000000001</v>
       </c>
-      <c r="R60" s="19">
+      <c r="R60" s="13">
         <v>309932</v>
       </c>
-      <c r="S60" s="17">
+      <c r="S60" s="40">
         <v>480924.2</v>
       </c>
-      <c r="T60" s="18">
+      <c r="T60" s="12">
         <v>422185.4</v>
       </c>
-      <c r="U60" s="18">
+      <c r="U60" s="12">
         <v>463003.3</v>
       </c>
-      <c r="V60" s="18">
+      <c r="V60" s="12">
         <v>371125.2</v>
       </c>
-      <c r="W60" s="19">
+      <c r="W60" s="13">
         <v>349094.40000000002</v>
       </c>
-      <c r="X60" s="17">
+      <c r="X60" s="40">
         <v>497462.7</v>
       </c>
-      <c r="Y60" s="18">
+      <c r="Y60" s="12">
         <v>251621</v>
       </c>
-      <c r="Z60" s="18">
+      <c r="Z60" s="12">
         <v>335975.7</v>
       </c>
-      <c r="AA60" s="18">
+      <c r="AA60" s="12">
         <v>277266.5</v>
       </c>
-      <c r="AB60" s="18">
+      <c r="AB60" s="12">
         <v>319766.90000000002</v>
       </c>
-      <c r="AC60" s="19">
+      <c r="AC60" s="13">
         <v>321322.3</v>
       </c>
-      <c r="AD60" s="17">
+      <c r="AD60" s="11">
         <v>263229.2</v>
       </c>
-      <c r="AE60" s="18">
+      <c r="AE60" s="12">
         <v>361424.1</v>
       </c>
-      <c r="AF60" s="18">
+      <c r="AF60" s="12">
         <v>452950.3</v>
       </c>
-      <c r="AG60" s="18">
+      <c r="AG60" s="12">
         <v>302720.3</v>
       </c>
-      <c r="AH60" s="18">
+      <c r="AH60" s="12">
         <v>382231.9</v>
       </c>
-      <c r="AI60" s="18">
+      <c r="AI60" s="12">
         <v>348920.2</v>
       </c>
-      <c r="AJ60" s="18">
+      <c r="AJ60" s="12">
         <v>531886.4</v>
       </c>
-      <c r="AK60" s="19">
+      <c r="AK60" s="44">
         <v>570304.6</v>
       </c>
-      <c r="AL60" s="17">
+      <c r="AL60" s="11">
         <v>416419.3</v>
       </c>
-      <c r="AM60" s="18">
+      <c r="AM60" s="12">
         <v>188447.5</v>
       </c>
-      <c r="AN60" s="18">
+      <c r="AN60" s="42">
         <v>505262.7</v>
       </c>
-      <c r="AO60" s="18">
+      <c r="AO60" s="12">
         <v>267300.3</v>
       </c>
-      <c r="AP60" s="18">
+      <c r="AP60" s="12">
         <v>277992.5</v>
       </c>
-      <c r="AQ60" s="18">
+      <c r="AQ60" s="12">
         <v>194590.7</v>
       </c>
-      <c r="AR60" s="18">
+      <c r="AR60" s="12">
         <v>277040.40000000002</v>
       </c>
-      <c r="AS60" s="18">
+      <c r="AS60" s="12">
         <v>354369</v>
       </c>
-      <c r="AT60" s="18">
+      <c r="AT60" s="12">
         <v>264977.2</v>
       </c>
-      <c r="AU60" s="18">
+      <c r="AU60" s="12">
         <v>291635.40000000002</v>
       </c>
-      <c r="AV60" s="18">
+      <c r="AV60" s="12">
         <v>341161.8</v>
       </c>
-      <c r="AW60" s="18">
+      <c r="AW60" s="12">
         <v>266419.90000000002</v>
       </c>
-      <c r="AX60" s="18">
+      <c r="AX60" s="12">
         <v>234973.9</v>
       </c>
-      <c r="AY60" s="19">
+      <c r="AY60" s="13">
         <v>465213.3</v>
       </c>
     </row>
@@ -7267,154 +9260,154 @@
       <c r="A61">
         <v>5500</v>
       </c>
-      <c r="B61" s="21">
+      <c r="B61" s="15">
         <v>139940.1</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="15">
         <v>137393.20000000001</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D61" s="15">
         <v>340683.1</v>
       </c>
-      <c r="E61" s="21">
+      <c r="E61" s="15">
         <v>243337.1</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F61" s="40">
         <v>367335.5</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G61" s="12">
         <v>333938.90000000002</v>
       </c>
-      <c r="H61" s="18">
+      <c r="H61" s="12">
         <v>341396.8</v>
       </c>
-      <c r="I61" s="18">
+      <c r="I61" s="12">
         <v>344448.7</v>
       </c>
-      <c r="J61" s="19">
+      <c r="J61" s="13">
         <v>330005.5</v>
       </c>
-      <c r="K61" s="17">
+      <c r="K61" s="11">
         <v>352564</v>
       </c>
-      <c r="L61" s="18">
+      <c r="L61" s="12">
         <v>365431.2</v>
       </c>
-      <c r="M61" s="18">
+      <c r="M61" s="42">
         <v>354124.4</v>
       </c>
-      <c r="N61" s="19">
+      <c r="N61" s="13">
         <v>324299.90000000002</v>
       </c>
-      <c r="O61" s="17">
+      <c r="O61" s="40">
         <v>369613.3</v>
       </c>
-      <c r="P61" s="18">
+      <c r="P61" s="12">
         <v>377515.9</v>
       </c>
-      <c r="Q61" s="18">
+      <c r="Q61" s="12">
         <v>373585.7</v>
       </c>
-      <c r="R61" s="19">
+      <c r="R61" s="13">
         <v>356455.2</v>
       </c>
-      <c r="S61" s="17">
+      <c r="S61" s="40">
         <v>358744.5</v>
       </c>
-      <c r="T61" s="18">
+      <c r="T61" s="12">
         <v>362152.9</v>
       </c>
-      <c r="U61" s="18">
+      <c r="U61" s="12">
         <v>370747.4</v>
       </c>
-      <c r="V61" s="18">
+      <c r="V61" s="12">
         <v>376013.5</v>
       </c>
-      <c r="W61" s="19">
+      <c r="W61" s="13">
         <v>361998</v>
       </c>
-      <c r="X61" s="17">
+      <c r="X61" s="40">
         <v>367016.8</v>
       </c>
-      <c r="Y61" s="18">
+      <c r="Y61" s="12">
         <v>323950.90000000002</v>
       </c>
-      <c r="Z61" s="18">
+      <c r="Z61" s="12">
         <v>424685.1</v>
       </c>
-      <c r="AA61" s="18">
+      <c r="AA61" s="12">
         <v>372574.8</v>
       </c>
-      <c r="AB61" s="18">
+      <c r="AB61" s="12">
         <v>382458</v>
       </c>
-      <c r="AC61" s="19">
+      <c r="AC61" s="13">
         <v>367814.7</v>
       </c>
-      <c r="AD61" s="17">
+      <c r="AD61" s="11">
         <v>396165.6</v>
       </c>
-      <c r="AE61" s="18">
+      <c r="AE61" s="12">
         <v>259244</v>
       </c>
-      <c r="AF61" s="18">
+      <c r="AF61" s="12">
         <v>338934.5</v>
       </c>
-      <c r="AG61" s="18">
+      <c r="AG61" s="12">
         <v>379548.7</v>
       </c>
-      <c r="AH61" s="18">
+      <c r="AH61" s="12">
         <v>384403</v>
       </c>
-      <c r="AI61" s="18">
+      <c r="AI61" s="12">
         <v>393584.8</v>
       </c>
-      <c r="AJ61" s="18">
+      <c r="AJ61" s="12">
         <v>385136.4</v>
       </c>
-      <c r="AK61" s="19">
+      <c r="AK61" s="44">
         <v>377355.5</v>
       </c>
-      <c r="AL61" s="17">
+      <c r="AL61" s="11">
         <v>434098.5</v>
       </c>
-      <c r="AM61" s="18">
+      <c r="AM61" s="12">
         <v>380304.4</v>
       </c>
-      <c r="AN61" s="18">
+      <c r="AN61" s="42">
         <v>404759.7</v>
       </c>
-      <c r="AO61" s="18">
+      <c r="AO61" s="12">
         <v>388641.9</v>
       </c>
-      <c r="AP61" s="18">
+      <c r="AP61" s="12">
         <v>371787.2</v>
       </c>
-      <c r="AQ61" s="18">
+      <c r="AQ61" s="12">
         <v>238780.4</v>
       </c>
-      <c r="AR61" s="18">
+      <c r="AR61" s="12">
         <v>389314.8</v>
       </c>
-      <c r="AS61" s="18">
+      <c r="AS61" s="12">
         <v>397131</v>
       </c>
-      <c r="AT61" s="18">
+      <c r="AT61" s="12">
         <v>362308.1</v>
       </c>
-      <c r="AU61" s="18">
+      <c r="AU61" s="12">
         <v>378295.8</v>
       </c>
-      <c r="AV61" s="18">
+      <c r="AV61" s="12">
         <v>382639.2</v>
       </c>
-      <c r="AW61" s="18">
+      <c r="AW61" s="12">
         <v>393698.2</v>
       </c>
-      <c r="AX61" s="18">
+      <c r="AX61" s="12">
         <v>385278.4</v>
       </c>
-      <c r="AY61" s="19">
+      <c r="AY61" s="13">
         <v>393768.1</v>
       </c>
     </row>
@@ -7422,154 +9415,154 @@
       <c r="A62">
         <v>6500</v>
       </c>
-      <c r="B62" s="21">
+      <c r="B62" s="15">
         <v>133283.79999999999</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="15">
         <v>131702.39999999999</v>
       </c>
-      <c r="D62" s="21">
+      <c r="D62" s="15">
         <v>288648.09999999998</v>
       </c>
-      <c r="E62" s="21">
+      <c r="E62" s="15">
         <v>217191.1</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="40">
         <v>299614.90000000002</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G62" s="12">
         <v>284500.59999999998</v>
       </c>
-      <c r="H62" s="18">
+      <c r="H62" s="12">
         <v>283149.90000000002</v>
       </c>
-      <c r="I62" s="18">
+      <c r="I62" s="12">
         <v>287331</v>
       </c>
-      <c r="J62" s="19">
+      <c r="J62" s="13">
         <v>290864.7</v>
       </c>
-      <c r="K62" s="17">
+      <c r="K62" s="11">
         <v>301632.90000000002</v>
       </c>
-      <c r="L62" s="18">
+      <c r="L62" s="12">
         <v>300697</v>
       </c>
-      <c r="M62" s="18">
+      <c r="M62" s="42">
         <v>286955.5</v>
       </c>
-      <c r="N62" s="19">
+      <c r="N62" s="13">
         <v>293094.90000000002</v>
       </c>
-      <c r="O62" s="17">
+      <c r="O62" s="40">
         <v>318971.8</v>
       </c>
-      <c r="P62" s="18">
+      <c r="P62" s="12">
         <v>317274.90000000002</v>
       </c>
-      <c r="Q62" s="18">
+      <c r="Q62" s="12">
         <v>295810.2</v>
       </c>
-      <c r="R62" s="19">
+      <c r="R62" s="13">
         <v>286329.5</v>
       </c>
-      <c r="S62" s="17">
+      <c r="S62" s="40">
         <v>317210</v>
       </c>
-      <c r="T62" s="18">
+      <c r="T62" s="12">
         <v>287108.2</v>
       </c>
-      <c r="U62" s="18">
+      <c r="U62" s="12">
         <v>312298.5</v>
       </c>
-      <c r="V62" s="18">
+      <c r="V62" s="12">
         <v>305367.90000000002</v>
       </c>
-      <c r="W62" s="19">
+      <c r="W62" s="13">
         <v>312514.90000000002</v>
       </c>
-      <c r="X62" s="17">
+      <c r="X62" s="40">
         <v>310578.3</v>
       </c>
-      <c r="Y62" s="18">
+      <c r="Y62" s="12">
         <v>281533.59999999998</v>
       </c>
-      <c r="Z62" s="18">
+      <c r="Z62" s="12">
         <v>327174.40000000002</v>
       </c>
-      <c r="AA62" s="18">
+      <c r="AA62" s="12">
         <v>321643.2</v>
       </c>
-      <c r="AB62" s="18">
+      <c r="AB62" s="12">
         <v>296135.09999999998</v>
       </c>
-      <c r="AC62" s="19">
+      <c r="AC62" s="13">
         <v>306461.8</v>
       </c>
-      <c r="AD62" s="17">
+      <c r="AD62" s="11">
         <v>314260.7</v>
       </c>
-      <c r="AE62" s="18">
+      <c r="AE62" s="12">
         <v>193104.6</v>
       </c>
-      <c r="AF62" s="18">
+      <c r="AF62" s="12">
         <v>277701.59999999998</v>
       </c>
-      <c r="AG62" s="18">
+      <c r="AG62" s="12">
         <v>304988.7</v>
       </c>
-      <c r="AH62" s="18">
+      <c r="AH62" s="12">
         <v>324644.2</v>
       </c>
-      <c r="AI62" s="18">
+      <c r="AI62" s="12">
         <v>319625.2</v>
       </c>
-      <c r="AJ62" s="18">
+      <c r="AJ62" s="12">
         <v>312467.7</v>
       </c>
-      <c r="AK62" s="19">
+      <c r="AK62" s="44">
         <v>312400.8</v>
       </c>
-      <c r="AL62" s="17">
+      <c r="AL62" s="11">
         <v>324533.8</v>
       </c>
-      <c r="AM62" s="18">
+      <c r="AM62" s="12">
         <v>295528.3</v>
       </c>
-      <c r="AN62" s="18">
+      <c r="AN62" s="42">
         <v>324750.40000000002</v>
       </c>
-      <c r="AO62" s="18">
+      <c r="AO62" s="12">
         <v>312865.7</v>
       </c>
-      <c r="AP62" s="18">
+      <c r="AP62" s="12">
         <v>309605.5</v>
       </c>
-      <c r="AQ62" s="18">
+      <c r="AQ62" s="12">
         <v>209077.2</v>
       </c>
-      <c r="AR62" s="18">
+      <c r="AR62" s="12">
         <v>323632</v>
       </c>
-      <c r="AS62" s="18">
+      <c r="AS62" s="12">
         <v>323404.2</v>
       </c>
-      <c r="AT62" s="18">
+      <c r="AT62" s="12">
         <v>278287.2</v>
       </c>
-      <c r="AU62" s="18">
+      <c r="AU62" s="12">
         <v>316594.7</v>
       </c>
-      <c r="AV62" s="18">
+      <c r="AV62" s="12">
         <v>311412.59999999998</v>
       </c>
-      <c r="AW62" s="18">
+      <c r="AW62" s="12">
         <v>319041.5</v>
       </c>
-      <c r="AX62" s="18">
+      <c r="AX62" s="12">
         <v>311526</v>
       </c>
-      <c r="AY62" s="19">
+      <c r="AY62" s="13">
         <v>323261</v>
       </c>
     </row>
@@ -7577,154 +9570,154 @@
       <c r="A63">
         <v>7500</v>
       </c>
-      <c r="B63" s="21">
+      <c r="B63" s="15">
         <v>126717.8</v>
       </c>
-      <c r="C63" s="21">
+      <c r="C63" s="15">
         <v>111829</v>
       </c>
-      <c r="D63" s="21">
+      <c r="D63" s="15">
         <v>273847.7</v>
       </c>
-      <c r="E63" s="21">
+      <c r="E63" s="15">
         <v>201773.6</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F63" s="40">
         <v>279095.7</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G63" s="12">
         <v>260227.4</v>
       </c>
-      <c r="H63" s="18">
+      <c r="H63" s="12">
         <v>276588</v>
       </c>
-      <c r="I63" s="18">
+      <c r="I63" s="12">
         <v>276919.59999999998</v>
       </c>
-      <c r="J63" s="19">
+      <c r="J63" s="13">
         <v>257739.9</v>
       </c>
-      <c r="K63" s="17">
+      <c r="K63" s="11">
         <v>275253.5</v>
       </c>
-      <c r="L63" s="18">
+      <c r="L63" s="12">
         <v>276199.5</v>
       </c>
-      <c r="M63" s="18">
+      <c r="M63" s="42">
         <v>267039.7</v>
       </c>
-      <c r="N63" s="19">
+      <c r="N63" s="13">
         <v>265249.09999999998</v>
       </c>
-      <c r="O63" s="17">
+      <c r="O63" s="40">
         <v>275957.2</v>
       </c>
-      <c r="P63" s="18">
+      <c r="P63" s="12">
         <v>275987.20000000001</v>
       </c>
-      <c r="Q63" s="18">
+      <c r="Q63" s="12">
         <v>282785.09999999998</v>
       </c>
-      <c r="R63" s="19">
+      <c r="R63" s="13">
         <v>274448.40000000002</v>
       </c>
-      <c r="S63" s="17">
+      <c r="S63" s="40">
         <v>284450.8</v>
       </c>
-      <c r="T63" s="18">
+      <c r="T63" s="12">
         <v>271103.3</v>
       </c>
-      <c r="U63" s="18">
+      <c r="U63" s="12">
         <v>294436.2</v>
       </c>
-      <c r="V63" s="18">
+      <c r="V63" s="12">
         <v>272651.90000000002</v>
       </c>
-      <c r="W63" s="19">
+      <c r="W63" s="13">
         <v>277592.2</v>
       </c>
-      <c r="X63" s="17">
+      <c r="X63" s="40">
         <v>287578.7</v>
       </c>
-      <c r="Y63" s="18">
+      <c r="Y63" s="12">
         <v>262491.90000000002</v>
       </c>
-      <c r="Z63" s="18">
+      <c r="Z63" s="12">
         <v>282075.09999999998</v>
       </c>
-      <c r="AA63" s="18">
+      <c r="AA63" s="12">
         <v>284184.09999999998</v>
       </c>
-      <c r="AB63" s="18">
+      <c r="AB63" s="12">
         <v>278061.90000000002</v>
       </c>
-      <c r="AC63" s="19">
+      <c r="AC63" s="13">
         <v>273276.79999999999</v>
       </c>
-      <c r="AD63" s="17">
+      <c r="AD63" s="11">
         <v>291829.59999999998</v>
       </c>
-      <c r="AE63" s="18">
+      <c r="AE63" s="12">
         <v>170370</v>
       </c>
-      <c r="AF63" s="18">
+      <c r="AF63" s="12">
         <v>258290.1</v>
       </c>
-      <c r="AG63" s="18">
+      <c r="AG63" s="12">
         <v>281752.59999999998</v>
       </c>
-      <c r="AH63" s="18">
+      <c r="AH63" s="12">
         <v>290280.5</v>
       </c>
-      <c r="AI63" s="18">
+      <c r="AI63" s="12">
         <v>284696</v>
       </c>
-      <c r="AJ63" s="18">
+      <c r="AJ63" s="12">
         <v>283100.2</v>
       </c>
-      <c r="AK63" s="19">
+      <c r="AK63" s="44">
         <v>274505.5</v>
       </c>
-      <c r="AL63" s="17">
+      <c r="AL63" s="11">
         <v>285720.5</v>
       </c>
-      <c r="AM63" s="18">
+      <c r="AM63" s="12">
         <v>256674.4</v>
       </c>
-      <c r="AN63" s="18">
+      <c r="AN63" s="42">
         <v>271730</v>
       </c>
-      <c r="AO63" s="18">
+      <c r="AO63" s="12">
         <v>286228</v>
       </c>
-      <c r="AP63" s="18">
+      <c r="AP63" s="12">
         <v>285471.09999999998</v>
       </c>
-      <c r="AQ63" s="18">
+      <c r="AQ63" s="12">
         <v>178522</v>
       </c>
-      <c r="AR63" s="18">
+      <c r="AR63" s="12">
         <v>289428.40000000002</v>
       </c>
-      <c r="AS63" s="18">
+      <c r="AS63" s="12">
         <v>289149.7</v>
       </c>
-      <c r="AT63" s="18">
+      <c r="AT63" s="12">
         <v>259746.5</v>
       </c>
-      <c r="AU63" s="18">
+      <c r="AU63" s="12">
         <v>283090.40000000002</v>
       </c>
-      <c r="AV63" s="18">
+      <c r="AV63" s="12">
         <v>273229.3</v>
       </c>
-      <c r="AW63" s="18">
+      <c r="AW63" s="12">
         <v>293098.5</v>
       </c>
-      <c r="AX63" s="18">
+      <c r="AX63" s="12">
         <v>284387.09999999998</v>
       </c>
-      <c r="AY63" s="19">
+      <c r="AY63" s="13">
         <v>292317.7</v>
       </c>
     </row>
@@ -7732,154 +9725,154 @@
       <c r="A64">
         <v>8500</v>
       </c>
-      <c r="B64" s="21">
+      <c r="B64" s="15">
         <v>120815.3</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="15">
         <v>117442.8</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D64" s="15">
         <v>262829.3</v>
       </c>
-      <c r="E64" s="21">
+      <c r="E64" s="15">
         <v>198118.9</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64" s="40">
         <v>261322.1</v>
       </c>
-      <c r="G64" s="18">
+      <c r="G64" s="12">
         <v>244696</v>
       </c>
-      <c r="H64" s="18">
+      <c r="H64" s="12">
         <v>259352.4</v>
       </c>
-      <c r="I64" s="18">
+      <c r="I64" s="12">
         <v>263124.40000000002</v>
       </c>
-      <c r="J64" s="19">
+      <c r="J64" s="13">
         <v>247098.8</v>
       </c>
-      <c r="K64" s="17">
+      <c r="K64" s="11">
         <v>263341.59999999998</v>
       </c>
-      <c r="L64" s="18">
+      <c r="L64" s="12">
         <v>259739.8</v>
       </c>
-      <c r="M64" s="18">
+      <c r="M64" s="42">
         <v>253494.7</v>
       </c>
-      <c r="N64" s="19">
+      <c r="N64" s="13">
         <v>260992.6</v>
       </c>
-      <c r="O64" s="17">
+      <c r="O64" s="40">
         <v>267154</v>
       </c>
-      <c r="P64" s="18">
+      <c r="P64" s="12">
         <v>261586.4</v>
       </c>
-      <c r="Q64" s="18">
+      <c r="Q64" s="12">
         <v>267649.5</v>
       </c>
-      <c r="R64" s="19">
+      <c r="R64" s="13">
         <v>264900.40000000002</v>
       </c>
-      <c r="S64" s="17">
+      <c r="S64" s="40">
         <v>270540.7</v>
       </c>
-      <c r="T64" s="18">
+      <c r="T64" s="12">
         <v>252837.6</v>
       </c>
-      <c r="U64" s="18">
+      <c r="U64" s="12">
         <v>271821.7</v>
       </c>
-      <c r="V64" s="18">
+      <c r="V64" s="12">
         <v>267246.5</v>
       </c>
-      <c r="W64" s="19">
+      <c r="W64" s="13">
         <v>264887.09999999998</v>
       </c>
-      <c r="X64" s="17">
+      <c r="X64" s="40">
         <v>266668.7</v>
       </c>
-      <c r="Y64" s="18">
+      <c r="Y64" s="12">
         <v>248800.1</v>
       </c>
-      <c r="Z64" s="18">
+      <c r="Z64" s="12">
         <v>276873.90000000002</v>
       </c>
-      <c r="AA64" s="18">
+      <c r="AA64" s="12">
         <v>280776.90000000002</v>
       </c>
-      <c r="AB64" s="18">
+      <c r="AB64" s="12">
         <v>267926.7</v>
       </c>
-      <c r="AC64" s="19">
+      <c r="AC64" s="13">
         <v>263659.09999999998</v>
       </c>
-      <c r="AD64" s="17">
+      <c r="AD64" s="11">
         <v>269639.7</v>
       </c>
-      <c r="AE64" s="18">
+      <c r="AE64" s="12">
         <v>156629.79999999999</v>
       </c>
-      <c r="AF64" s="18">
+      <c r="AF64" s="12">
         <v>252383.3</v>
       </c>
-      <c r="AG64" s="18">
+      <c r="AG64" s="12">
         <v>277061.90000000002</v>
       </c>
-      <c r="AH64" s="18">
+      <c r="AH64" s="12">
         <v>280583.7</v>
       </c>
-      <c r="AI64" s="18">
+      <c r="AI64" s="12">
         <v>267991</v>
       </c>
-      <c r="AJ64" s="18">
+      <c r="AJ64" s="12">
         <v>271952.40000000002</v>
       </c>
-      <c r="AK64" s="19">
+      <c r="AK64" s="44">
         <v>266583.2</v>
       </c>
-      <c r="AL64" s="17">
+      <c r="AL64" s="11">
         <v>272105.90000000002</v>
       </c>
-      <c r="AM64" s="18">
+      <c r="AM64" s="12">
         <v>262557.7</v>
       </c>
-      <c r="AN64" s="18">
+      <c r="AN64" s="42">
         <v>273895.90000000002</v>
       </c>
-      <c r="AO64" s="18">
+      <c r="AO64" s="12">
         <v>266058.3</v>
       </c>
-      <c r="AP64" s="18">
+      <c r="AP64" s="12">
         <v>261106.6</v>
       </c>
-      <c r="AQ64" s="18">
+      <c r="AQ64" s="12">
         <v>179509.2</v>
       </c>
-      <c r="AR64" s="18">
+      <c r="AR64" s="12">
         <v>271223.90000000002</v>
       </c>
-      <c r="AS64" s="18">
+      <c r="AS64" s="12">
         <v>272774.2</v>
       </c>
-      <c r="AT64" s="18">
+      <c r="AT64" s="12">
         <v>248062.5</v>
       </c>
-      <c r="AU64" s="18">
+      <c r="AU64" s="12">
         <v>272142.5</v>
       </c>
-      <c r="AV64" s="18">
+      <c r="AV64" s="12">
         <v>261451</v>
       </c>
-      <c r="AW64" s="18">
+      <c r="AW64" s="12">
         <v>269740.90000000002</v>
       </c>
-      <c r="AX64" s="18">
+      <c r="AX64" s="12">
         <v>263054.2</v>
       </c>
-      <c r="AY64" s="19">
+      <c r="AY64" s="13">
         <v>272875.90000000002</v>
       </c>
     </row>
@@ -7887,154 +9880,154 @@
       <c r="A65">
         <v>9500</v>
       </c>
-      <c r="B65" s="21">
+      <c r="B65" s="15">
         <v>120360.9</v>
       </c>
-      <c r="C65" s="21">
+      <c r="C65" s="15">
         <v>119275.7</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D65" s="15">
         <v>256601</v>
       </c>
-      <c r="E65" s="21">
+      <c r="E65" s="15">
         <v>193773.9</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F65" s="40">
         <v>255546.8</v>
       </c>
-      <c r="G65" s="18">
+      <c r="G65" s="12">
         <v>242082.6</v>
       </c>
-      <c r="H65" s="18">
+      <c r="H65" s="12">
         <v>256459.4</v>
       </c>
-      <c r="I65" s="18">
+      <c r="I65" s="12">
         <v>252790.6</v>
       </c>
-      <c r="J65" s="19">
+      <c r="J65" s="13">
         <v>245291.7</v>
       </c>
-      <c r="K65" s="17">
+      <c r="K65" s="11">
         <v>252618.3</v>
       </c>
-      <c r="L65" s="18">
+      <c r="L65" s="12">
         <v>255402.7</v>
       </c>
-      <c r="M65" s="18">
+      <c r="M65" s="42">
         <v>255867.5</v>
       </c>
-      <c r="N65" s="19">
+      <c r="N65" s="13">
         <v>256194.1</v>
       </c>
-      <c r="O65" s="17">
+      <c r="O65" s="40">
         <v>261887.5</v>
       </c>
-      <c r="P65" s="18">
+      <c r="P65" s="12">
         <v>254261.8</v>
       </c>
-      <c r="Q65" s="18">
+      <c r="Q65" s="12">
         <v>254393.7</v>
       </c>
-      <c r="R65" s="19">
+      <c r="R65" s="13">
         <v>255330.1</v>
       </c>
-      <c r="S65" s="17">
+      <c r="S65" s="40">
         <v>259131.7</v>
       </c>
-      <c r="T65" s="18">
+      <c r="T65" s="12">
         <v>252958.4</v>
       </c>
-      <c r="U65" s="18">
+      <c r="U65" s="12">
         <v>267673.3</v>
       </c>
-      <c r="V65" s="18">
+      <c r="V65" s="12">
         <v>257531.2</v>
       </c>
-      <c r="W65" s="19">
+      <c r="W65" s="13">
         <v>262311.40000000002</v>
       </c>
-      <c r="X65" s="17">
+      <c r="X65" s="40">
         <v>263493</v>
       </c>
-      <c r="Y65" s="18">
+      <c r="Y65" s="12">
         <v>247478.39999999999</v>
       </c>
-      <c r="Z65" s="18">
+      <c r="Z65" s="12">
         <v>260435.8</v>
       </c>
-      <c r="AA65" s="18">
+      <c r="AA65" s="12">
         <v>263558.5</v>
       </c>
-      <c r="AB65" s="18">
+      <c r="AB65" s="12">
         <v>259243.3</v>
       </c>
-      <c r="AC65" s="19">
+      <c r="AC65" s="13">
         <v>260139.2</v>
       </c>
-      <c r="AD65" s="17">
+      <c r="AD65" s="11">
         <v>260466.5</v>
       </c>
-      <c r="AE65" s="18">
+      <c r="AE65" s="12">
         <v>150266.29999999999</v>
       </c>
-      <c r="AF65" s="18">
+      <c r="AF65" s="12">
         <v>244689.2</v>
       </c>
-      <c r="AG65" s="18">
+      <c r="AG65" s="12">
         <v>270313.90000000002</v>
       </c>
-      <c r="AH65" s="18">
+      <c r="AH65" s="12">
         <v>268875.2</v>
       </c>
-      <c r="AI65" s="18">
+      <c r="AI65" s="12">
         <v>260934.6</v>
       </c>
-      <c r="AJ65" s="18">
+      <c r="AJ65" s="12">
         <v>259536.6</v>
       </c>
-      <c r="AK65" s="19">
+      <c r="AK65" s="44">
         <v>257794.3</v>
       </c>
-      <c r="AL65" s="17">
+      <c r="AL65" s="11">
         <v>254235</v>
       </c>
-      <c r="AM65" s="18">
+      <c r="AM65" s="12">
         <v>243660.9</v>
       </c>
-      <c r="AN65" s="18">
+      <c r="AN65" s="42">
         <v>255000.8</v>
       </c>
-      <c r="AO65" s="18">
+      <c r="AO65" s="12">
         <v>252942.7</v>
       </c>
-      <c r="AP65" s="18">
+      <c r="AP65" s="12">
         <v>244869</v>
       </c>
-      <c r="AQ65" s="18">
+      <c r="AQ65" s="12">
         <v>205320.4</v>
       </c>
-      <c r="AR65" s="18">
+      <c r="AR65" s="12">
         <v>253669.1</v>
       </c>
-      <c r="AS65" s="18">
+      <c r="AS65" s="12">
         <v>256705.4</v>
       </c>
-      <c r="AT65" s="18">
+      <c r="AT65" s="12">
         <v>236530.1</v>
       </c>
-      <c r="AU65" s="18">
+      <c r="AU65" s="12">
         <v>260108.5</v>
       </c>
-      <c r="AV65" s="18">
+      <c r="AV65" s="12">
         <v>255036.4</v>
       </c>
-      <c r="AW65" s="18">
+      <c r="AW65" s="12">
         <v>270482.2</v>
       </c>
-      <c r="AX65" s="18">
+      <c r="AX65" s="12">
         <v>254031.5</v>
       </c>
-      <c r="AY65" s="19">
+      <c r="AY65" s="13">
         <v>268025.3</v>
       </c>
     </row>
@@ -8042,154 +10035,154 @@
       <c r="A66">
         <v>10500</v>
       </c>
-      <c r="B66" s="21">
+      <c r="B66" s="15">
         <v>120200.8</v>
       </c>
-      <c r="C66" s="21">
+      <c r="C66" s="15">
         <v>117842.4</v>
       </c>
-      <c r="D66" s="21">
+      <c r="D66" s="15">
         <v>245167.1</v>
       </c>
-      <c r="E66" s="21">
+      <c r="E66" s="15">
         <v>188900.1</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F66" s="40">
         <v>251597.6</v>
       </c>
-      <c r="G66" s="18">
+      <c r="G66" s="12">
         <v>235727.7</v>
       </c>
-      <c r="H66" s="18">
+      <c r="H66" s="12">
         <v>249769.8</v>
       </c>
-      <c r="I66" s="18">
+      <c r="I66" s="12">
         <v>247107.1</v>
       </c>
-      <c r="J66" s="19">
+      <c r="J66" s="13">
         <v>241845.3</v>
       </c>
-      <c r="K66" s="17">
+      <c r="K66" s="11">
         <v>252020.7</v>
       </c>
-      <c r="L66" s="18">
+      <c r="L66" s="12">
         <v>246105.7</v>
       </c>
-      <c r="M66" s="18">
+      <c r="M66" s="42">
         <v>246117.8</v>
       </c>
-      <c r="N66" s="19">
+      <c r="N66" s="13">
         <v>247402.6</v>
       </c>
-      <c r="O66" s="17">
+      <c r="O66" s="40">
         <v>250551.8</v>
       </c>
-      <c r="P66" s="18">
+      <c r="P66" s="12">
         <v>249229.4</v>
       </c>
-      <c r="Q66" s="18">
+      <c r="Q66" s="12">
         <v>249385.9</v>
       </c>
-      <c r="R66" s="19">
+      <c r="R66" s="13">
         <v>248602.5</v>
       </c>
-      <c r="S66" s="17">
+      <c r="S66" s="40">
         <v>252879.1</v>
       </c>
-      <c r="T66" s="18">
+      <c r="T66" s="12">
         <v>250174.2</v>
       </c>
-      <c r="U66" s="18">
+      <c r="U66" s="12">
         <v>258777.3</v>
       </c>
-      <c r="V66" s="18">
+      <c r="V66" s="12">
         <v>250617.8</v>
       </c>
-      <c r="W66" s="19">
+      <c r="W66" s="13">
         <v>254963.6</v>
       </c>
-      <c r="X66" s="17">
+      <c r="X66" s="40">
         <v>256412.7</v>
       </c>
-      <c r="Y66" s="18">
+      <c r="Y66" s="12">
         <v>244964.9</v>
       </c>
-      <c r="Z66" s="18">
+      <c r="Z66" s="12">
         <v>251409</v>
       </c>
-      <c r="AA66" s="18">
+      <c r="AA66" s="12">
         <v>264614.90000000002</v>
       </c>
-      <c r="AB66" s="18">
+      <c r="AB66" s="12">
         <v>248578.7</v>
       </c>
-      <c r="AC66" s="19">
+      <c r="AC66" s="13">
         <v>252313.4</v>
       </c>
-      <c r="AD66" s="17">
+      <c r="AD66" s="11">
         <v>256407.6</v>
       </c>
-      <c r="AE66" s="18">
+      <c r="AE66" s="12">
         <v>146527.20000000001</v>
       </c>
-      <c r="AF66" s="18">
+      <c r="AF66" s="12">
         <v>233910.2</v>
       </c>
-      <c r="AG66" s="18">
+      <c r="AG66" s="12">
         <v>256766.6</v>
       </c>
-      <c r="AH66" s="18">
+      <c r="AH66" s="12">
         <v>254842.2</v>
       </c>
-      <c r="AI66" s="18">
+      <c r="AI66" s="12">
         <v>251979.5</v>
       </c>
-      <c r="AJ66" s="18">
+      <c r="AJ66" s="12">
         <v>250845</v>
       </c>
-      <c r="AK66" s="19">
+      <c r="AK66" s="44">
         <v>253648</v>
       </c>
-      <c r="AL66" s="17">
+      <c r="AL66" s="11">
         <v>259735.5</v>
       </c>
-      <c r="AM66" s="18">
+      <c r="AM66" s="12">
         <v>242620.2</v>
       </c>
-      <c r="AN66" s="18">
+      <c r="AN66" s="42">
         <v>248135.6</v>
       </c>
-      <c r="AO66" s="18">
+      <c r="AO66" s="12">
         <v>255733.1</v>
       </c>
-      <c r="AP66" s="18">
+      <c r="AP66" s="12">
         <v>250999.6</v>
       </c>
-      <c r="AQ66" s="18">
+      <c r="AQ66" s="12">
         <v>198174.6</v>
       </c>
-      <c r="AR66" s="18">
+      <c r="AR66" s="12">
         <v>258292</v>
       </c>
-      <c r="AS66" s="18">
+      <c r="AS66" s="12">
         <v>257508.1</v>
       </c>
-      <c r="AT66" s="18">
+      <c r="AT66" s="12">
         <v>236255.1</v>
       </c>
-      <c r="AU66" s="18">
+      <c r="AU66" s="12">
         <v>260445</v>
       </c>
-      <c r="AV66" s="18">
+      <c r="AV66" s="12">
         <v>247466.9</v>
       </c>
-      <c r="AW66" s="18">
+      <c r="AW66" s="12">
         <v>251118.4</v>
       </c>
-      <c r="AX66" s="18">
+      <c r="AX66" s="12">
         <v>256540.7</v>
       </c>
-      <c r="AY66" s="19">
+      <c r="AY66" s="13">
         <v>256754.4</v>
       </c>
     </row>
@@ -8197,154 +10190,154 @@
       <c r="A67">
         <v>11500</v>
       </c>
-      <c r="B67" s="21">
+      <c r="B67" s="15">
         <v>118453.5</v>
       </c>
-      <c r="C67" s="21">
+      <c r="C67" s="15">
         <v>117870.6</v>
       </c>
-      <c r="D67" s="21">
+      <c r="D67" s="15">
         <v>246883</v>
       </c>
-      <c r="E67" s="21">
+      <c r="E67" s="15">
         <v>185673.4</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F67" s="40">
         <v>246476.3</v>
       </c>
-      <c r="G67" s="18">
+      <c r="G67" s="12">
         <v>236643.20000000001</v>
       </c>
-      <c r="H67" s="18">
+      <c r="H67" s="12">
         <v>240348.4</v>
       </c>
-      <c r="I67" s="18">
+      <c r="I67" s="12">
         <v>247881.4</v>
       </c>
-      <c r="J67" s="19">
+      <c r="J67" s="13">
         <v>237049.9</v>
       </c>
-      <c r="K67" s="17">
+      <c r="K67" s="11">
         <v>246813.9</v>
       </c>
-      <c r="L67" s="18">
+      <c r="L67" s="12">
         <v>243637.6</v>
       </c>
-      <c r="M67" s="18">
+      <c r="M67" s="42">
         <v>242270.2</v>
       </c>
-      <c r="N67" s="19">
+      <c r="N67" s="13">
         <v>247225.7</v>
       </c>
-      <c r="O67" s="17">
+      <c r="O67" s="40">
         <v>252798.9</v>
       </c>
-      <c r="P67" s="18">
+      <c r="P67" s="12">
         <v>249434</v>
       </c>
-      <c r="Q67" s="18">
+      <c r="Q67" s="12">
         <v>245736.2</v>
       </c>
-      <c r="R67" s="19">
+      <c r="R67" s="13">
         <v>248157.1</v>
       </c>
-      <c r="S67" s="17">
+      <c r="S67" s="40">
         <v>249626.4</v>
       </c>
-      <c r="T67" s="18">
+      <c r="T67" s="12">
         <v>242644.2</v>
       </c>
-      <c r="U67" s="18">
+      <c r="U67" s="12">
         <v>253793.6</v>
       </c>
-      <c r="V67" s="18">
+      <c r="V67" s="12">
         <v>247054.2</v>
       </c>
-      <c r="W67" s="19">
+      <c r="W67" s="13">
         <v>252220</v>
       </c>
-      <c r="X67" s="17">
+      <c r="X67" s="40">
         <v>251445.8</v>
       </c>
-      <c r="Y67" s="18">
+      <c r="Y67" s="12">
         <v>241903.4</v>
       </c>
-      <c r="Z67" s="18">
+      <c r="Z67" s="12">
         <v>251200.2</v>
       </c>
-      <c r="AA67" s="18">
+      <c r="AA67" s="12">
         <v>256479.2</v>
       </c>
-      <c r="AB67" s="18">
+      <c r="AB67" s="12">
         <v>247222.5</v>
       </c>
-      <c r="AC67" s="19">
+      <c r="AC67" s="13">
         <v>243138</v>
       </c>
-      <c r="AD67" s="17">
+      <c r="AD67" s="11">
         <v>254746.8</v>
       </c>
-      <c r="AE67" s="18">
+      <c r="AE67" s="12">
         <v>141972</v>
       </c>
-      <c r="AF67" s="18">
+      <c r="AF67" s="12">
         <v>236281.7</v>
       </c>
-      <c r="AG67" s="18">
+      <c r="AG67" s="12">
         <v>247639.6</v>
       </c>
-      <c r="AH67" s="18">
+      <c r="AH67" s="12">
         <v>252451.20000000001</v>
       </c>
-      <c r="AI67" s="18">
+      <c r="AI67" s="12">
         <v>249185.9</v>
       </c>
-      <c r="AJ67" s="18">
+      <c r="AJ67" s="12">
         <v>250077.4</v>
       </c>
-      <c r="AK67" s="19">
+      <c r="AK67" s="44">
         <v>246833.6</v>
       </c>
-      <c r="AL67" s="17">
+      <c r="AL67" s="11">
         <v>250222.5</v>
       </c>
-      <c r="AM67" s="18">
+      <c r="AM67" s="12">
         <v>242089.7</v>
       </c>
-      <c r="AN67" s="18">
+      <c r="AN67" s="42">
         <v>252347.9</v>
       </c>
-      <c r="AO67" s="18">
+      <c r="AO67" s="12">
         <v>244071</v>
       </c>
-      <c r="AP67" s="18">
+      <c r="AP67" s="12">
         <v>242803.5</v>
       </c>
-      <c r="AQ67" s="18">
+      <c r="AQ67" s="12">
         <v>196268.5</v>
       </c>
-      <c r="AR67" s="18">
+      <c r="AR67" s="12">
         <v>249871.4</v>
       </c>
-      <c r="AS67" s="18">
+      <c r="AS67" s="12">
         <v>246488</v>
       </c>
-      <c r="AT67" s="18">
+      <c r="AT67" s="12">
         <v>235866.2</v>
       </c>
-      <c r="AU67" s="18">
+      <c r="AU67" s="12">
         <v>247559.8</v>
       </c>
-      <c r="AV67" s="18">
+      <c r="AV67" s="12">
         <v>239072.8</v>
       </c>
-      <c r="AW67" s="18">
+      <c r="AW67" s="12">
         <v>252594.9</v>
       </c>
-      <c r="AX67" s="18">
+      <c r="AX67" s="12">
         <v>245670.9</v>
       </c>
-      <c r="AY67" s="19">
+      <c r="AY67" s="13">
         <v>258085.1</v>
       </c>
     </row>
@@ -8352,154 +10345,154 @@
       <c r="A68">
         <v>12500</v>
       </c>
-      <c r="B68" s="39">
+      <c r="B68" s="33">
         <v>118244.5</v>
       </c>
-      <c r="C68" s="39">
+      <c r="C68" s="33">
         <v>118678.7</v>
       </c>
-      <c r="D68" s="39">
+      <c r="D68" s="33">
         <v>245226.9</v>
       </c>
-      <c r="E68" s="39">
+      <c r="E68" s="33">
         <v>185994.6</v>
       </c>
-      <c r="F68" s="27">
+      <c r="F68" s="41">
         <v>226651.1</v>
       </c>
-      <c r="G68" s="37">
+      <c r="G68" s="31">
         <v>234654.6</v>
       </c>
-      <c r="H68" s="37">
+      <c r="H68" s="31">
         <v>239544.7</v>
       </c>
-      <c r="I68" s="37">
+      <c r="I68" s="31">
         <v>243675.5</v>
       </c>
-      <c r="J68" s="38">
+      <c r="J68" s="32">
         <v>234677.4</v>
       </c>
-      <c r="K68" s="27">
+      <c r="K68" s="21">
         <v>244056.6</v>
       </c>
-      <c r="L68" s="37">
+      <c r="L68" s="31">
         <v>240031</v>
       </c>
-      <c r="M68" s="37">
+      <c r="M68" s="43">
         <v>238032.7</v>
       </c>
-      <c r="N68" s="38">
+      <c r="N68" s="32">
         <v>244853.8</v>
       </c>
-      <c r="O68" s="27">
+      <c r="O68" s="41">
         <v>248182</v>
       </c>
-      <c r="P68" s="37">
+      <c r="P68" s="31">
         <v>246522.9</v>
       </c>
-      <c r="Q68" s="37">
+      <c r="Q68" s="31">
         <v>244481.9</v>
       </c>
-      <c r="R68" s="38">
+      <c r="R68" s="32">
         <v>248941.6</v>
       </c>
-      <c r="S68" s="27">
+      <c r="S68" s="41">
         <v>250529.5</v>
       </c>
-      <c r="T68" s="37">
+      <c r="T68" s="31">
         <v>241331.6</v>
       </c>
-      <c r="U68" s="37">
+      <c r="U68" s="31">
         <v>240326.5</v>
       </c>
-      <c r="V68" s="37">
+      <c r="V68" s="31">
         <v>244605.1</v>
       </c>
-      <c r="W68" s="38">
+      <c r="W68" s="32">
         <v>247050</v>
       </c>
-      <c r="X68" s="27">
+      <c r="X68" s="41">
         <v>248876.1</v>
       </c>
-      <c r="Y68" s="37">
+      <c r="Y68" s="31">
         <v>236688.5</v>
       </c>
-      <c r="Z68" s="37">
+      <c r="Z68" s="31">
         <v>240521.8</v>
       </c>
-      <c r="AA68" s="37">
+      <c r="AA68" s="31">
         <v>251916.9</v>
       </c>
-      <c r="AB68" s="37">
+      <c r="AB68" s="31">
         <v>241966.7</v>
       </c>
-      <c r="AC68" s="38">
+      <c r="AC68" s="32">
         <v>242347.7</v>
       </c>
-      <c r="AD68" s="27">
+      <c r="AD68" s="21">
         <v>248308.9</v>
       </c>
-      <c r="AE68" s="37">
+      <c r="AE68" s="31">
         <v>140747.6</v>
       </c>
-      <c r="AF68" s="37">
+      <c r="AF68" s="31">
         <v>230999.9</v>
       </c>
-      <c r="AG68" s="37">
+      <c r="AG68" s="31">
         <v>240599.4</v>
       </c>
-      <c r="AH68" s="37">
+      <c r="AH68" s="31">
         <v>255632.7</v>
       </c>
-      <c r="AI68" s="37">
+      <c r="AI68" s="31">
         <v>248060.5</v>
       </c>
-      <c r="AJ68" s="37">
+      <c r="AJ68" s="31">
         <v>245274.1</v>
       </c>
-      <c r="AK68" s="38">
+      <c r="AK68" s="45">
         <v>244999</v>
       </c>
-      <c r="AL68" s="27">
+      <c r="AL68" s="21">
         <v>247519.2</v>
       </c>
-      <c r="AM68" s="37">
+      <c r="AM68" s="31">
         <v>242659.8</v>
       </c>
-      <c r="AN68" s="37">
+      <c r="AN68" s="43">
         <v>247575.3</v>
       </c>
-      <c r="AO68" s="37">
+      <c r="AO68" s="31">
         <v>247782.5</v>
       </c>
-      <c r="AP68" s="37">
+      <c r="AP68" s="31">
         <v>237836.4</v>
       </c>
-      <c r="AQ68" s="37">
+      <c r="AQ68" s="31">
         <v>205621.1</v>
       </c>
-      <c r="AR68" s="37">
+      <c r="AR68" s="31">
         <v>251648.1</v>
       </c>
-      <c r="AS68" s="37">
+      <c r="AS68" s="31">
         <v>250014</v>
       </c>
-      <c r="AT68" s="37">
+      <c r="AT68" s="31">
         <v>231281.2</v>
       </c>
-      <c r="AU68" s="37">
+      <c r="AU68" s="31">
         <v>254271.7</v>
       </c>
-      <c r="AV68" s="37">
+      <c r="AV68" s="31">
         <v>243996.3</v>
       </c>
-      <c r="AW68" s="37">
+      <c r="AW68" s="31">
         <v>249069.3</v>
       </c>
-      <c r="AX68" s="37">
+      <c r="AX68" s="31">
         <v>246348.2</v>
       </c>
-      <c r="AY68" s="38">
+      <c r="AY68" s="32">
         <v>255608.5</v>
       </c>
     </row>
@@ -8523,187 +10516,187 @@
         <f t="shared" si="20"/>
         <v>1874592.5</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69" s="2">
         <f t="shared" si="20"/>
         <v>2628940.9</v>
       </c>
-      <c r="G69" s="6">
+      <c r="G69" s="3">
         <f t="shared" si="20"/>
         <v>2449706.9000000004</v>
       </c>
-      <c r="H69" s="6">
+      <c r="H69" s="3">
         <f t="shared" si="20"/>
         <v>2529925.6</v>
       </c>
-      <c r="I69" s="6">
+      <c r="I69" s="3">
         <f t="shared" si="20"/>
         <v>2588315.9</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J69" s="4">
         <f t="shared" si="20"/>
         <v>2555647.2999999998</v>
       </c>
-      <c r="K69" s="5">
+      <c r="K69" s="2">
         <f t="shared" si="20"/>
         <v>2488181.8000000003</v>
       </c>
-      <c r="L69" s="6">
+      <c r="L69" s="3">
         <f t="shared" si="20"/>
         <v>2571551.7999999998</v>
       </c>
-      <c r="M69" s="6">
+      <c r="M69" s="3">
         <f t="shared" si="20"/>
         <v>2621504.3000000003</v>
       </c>
-      <c r="N69" s="7">
+      <c r="N69" s="4">
         <f t="shared" si="20"/>
         <v>2142873.8000000003</v>
       </c>
-      <c r="O69" s="5">
+      <c r="O69" s="2">
         <f t="shared" si="20"/>
         <v>2771190.5999999996</v>
       </c>
-      <c r="P69" s="6">
+      <c r="P69" s="3">
         <f t="shared" si="20"/>
         <v>2559212.7999999998</v>
       </c>
-      <c r="Q69" s="6">
+      <c r="Q69" s="3">
         <f t="shared" si="20"/>
         <v>2525335.4</v>
       </c>
-      <c r="R69" s="7">
+      <c r="R69" s="4">
         <f t="shared" si="20"/>
         <v>2493096.8000000003</v>
       </c>
-      <c r="S69" s="5">
+      <c r="S69" s="2">
         <f t="shared" si="20"/>
         <v>2724036.9</v>
       </c>
-      <c r="T69" s="6">
+      <c r="T69" s="3">
         <f t="shared" si="20"/>
         <v>2582495.8000000003</v>
       </c>
-      <c r="U69" s="6">
+      <c r="U69" s="3">
         <f t="shared" si="20"/>
         <v>2732877.8</v>
       </c>
-      <c r="V69" s="6">
+      <c r="V69" s="3">
         <f t="shared" si="20"/>
         <v>2592213.3000000003</v>
       </c>
-      <c r="W69" s="7">
+      <c r="W69" s="4">
         <f t="shared" si="20"/>
         <v>2582631.6</v>
       </c>
-      <c r="X69" s="5">
+      <c r="X69" s="2">
         <f t="shared" si="20"/>
         <v>2749532.8</v>
       </c>
-      <c r="Y69" s="6">
+      <c r="Y69" s="3">
         <f t="shared" si="20"/>
         <v>2339432.6999999997</v>
       </c>
-      <c r="Z69" s="6">
+      <c r="Z69" s="3">
         <f t="shared" si="20"/>
         <v>2650351</v>
       </c>
-      <c r="AA69" s="6">
+      <c r="AA69" s="3">
         <f t="shared" si="20"/>
         <v>2573015</v>
       </c>
-      <c r="AB69" s="6">
+      <c r="AB69" s="3">
         <f t="shared" si="20"/>
         <v>2541359.7999999998</v>
       </c>
-      <c r="AC69" s="7">
+      <c r="AC69" s="4">
         <f t="shared" si="20"/>
         <v>2530473</v>
       </c>
-      <c r="AD69" s="5">
+      <c r="AD69" s="2">
         <f t="shared" si="20"/>
         <v>2555054.6</v>
       </c>
-      <c r="AE69" s="6">
+      <c r="AE69" s="3">
         <f t="shared" si="20"/>
         <v>1720285.6</v>
       </c>
-      <c r="AF69" s="6">
+      <c r="AF69" s="3">
         <f t="shared" si="20"/>
         <v>2526140.7999999998</v>
       </c>
-      <c r="AG69" s="6">
+      <c r="AG69" s="3">
         <f t="shared" si="20"/>
         <v>2561391.6999999997</v>
       </c>
-      <c r="AH69" s="6">
+      <c r="AH69" s="3">
         <f t="shared" si="20"/>
         <v>2693944.6000000006</v>
       </c>
-      <c r="AI69" s="6">
+      <c r="AI69" s="3">
         <f t="shared" si="20"/>
         <v>2624977.6999999997</v>
       </c>
-      <c r="AJ69" s="6">
+      <c r="AJ69" s="3">
         <f t="shared" si="20"/>
         <v>2790276.2</v>
       </c>
-      <c r="AK69" s="7">
+      <c r="AK69" s="4">
         <f t="shared" si="20"/>
         <v>2804424.5</v>
       </c>
-      <c r="AL69" s="5">
+      <c r="AL69" s="2">
         <f t="shared" si="20"/>
         <v>2744590.2</v>
       </c>
-      <c r="AM69" s="6">
+      <c r="AM69" s="3">
         <f t="shared" si="20"/>
         <v>2354542.8999999994</v>
       </c>
-      <c r="AN69" s="6">
+      <c r="AN69" s="3">
         <f t="shared" si="20"/>
         <v>2783458.3</v>
       </c>
-      <c r="AO69" s="6">
+      <c r="AO69" s="3">
         <f t="shared" si="20"/>
         <v>2521623.5</v>
       </c>
-      <c r="AP69" s="6">
+      <c r="AP69" s="3">
         <f t="shared" si="20"/>
         <v>2482471.4</v>
       </c>
-      <c r="AQ69" s="6">
+      <c r="AQ69" s="3">
         <f t="shared" si="20"/>
         <v>1805864.1</v>
       </c>
-      <c r="AR69" s="6">
+      <c r="AR69" s="3">
         <f t="shared" si="20"/>
         <v>2564120.1</v>
       </c>
-      <c r="AS69" s="6">
+      <c r="AS69" s="3">
         <f t="shared" si="20"/>
         <v>2647543.5999999996</v>
       </c>
-      <c r="AT69" s="6">
+      <c r="AT69" s="3">
         <f t="shared" si="20"/>
         <v>2353314.1000000006</v>
       </c>
-      <c r="AU69" s="6">
+      <c r="AU69" s="3">
         <f t="shared" si="20"/>
         <v>2564143.7999999998</v>
       </c>
-      <c r="AV69" s="6">
+      <c r="AV69" s="3">
         <f t="shared" si="20"/>
         <v>2555466.2999999993</v>
       </c>
-      <c r="AW69" s="6">
+      <c r="AW69" s="3">
         <f t="shared" si="20"/>
         <v>2565263.7999999998</v>
       </c>
-      <c r="AX69" s="6">
+      <c r="AX69" s="3">
         <f t="shared" si="20"/>
         <v>2481810.9</v>
       </c>
-      <c r="AY69" s="7">
+      <c r="AY69" s="4">
         <f t="shared" si="20"/>
         <v>2785909.3000000003</v>
       </c>
@@ -8717,7 +10710,7 @@
         <v>127905.84444444446</v>
       </c>
       <c r="C70">
-        <f t="shared" ref="C70:BC70" si="21">AVERAGE(C60:C68)</f>
+        <f t="shared" ref="C70:AY70" si="21">AVERAGE(C60:C68)</f>
         <v>126210.82222222224</v>
       </c>
       <c r="D70">
@@ -8728,665 +10721,663 @@
         <f t="shared" si="21"/>
         <v>208288.05555555556</v>
       </c>
-      <c r="F70" s="27">
+      <c r="F70" s="21">
         <f t="shared" si="21"/>
         <v>292104.54444444441</v>
       </c>
-      <c r="G70" s="37">
+      <c r="G70" s="31">
         <f t="shared" si="21"/>
         <v>272189.6555555556</v>
       </c>
-      <c r="H70" s="37">
+      <c r="H70" s="31">
         <f t="shared" si="21"/>
         <v>281102.84444444446</v>
       </c>
-      <c r="I70" s="37">
+      <c r="I70" s="31">
         <f t="shared" si="21"/>
         <v>287590.65555555554</v>
       </c>
-      <c r="J70" s="38">
+      <c r="J70" s="32">
         <f t="shared" si="21"/>
         <v>283960.81111111108</v>
       </c>
-      <c r="K70" s="27">
+      <c r="K70" s="21">
         <f t="shared" si="21"/>
         <v>276464.64444444445</v>
       </c>
-      <c r="L70" s="37">
+      <c r="L70" s="31">
         <f t="shared" si="21"/>
         <v>285727.97777777776</v>
       </c>
-      <c r="M70" s="37">
+      <c r="M70" s="31">
         <f t="shared" si="21"/>
         <v>291278.25555555557</v>
       </c>
-      <c r="N70" s="38">
+      <c r="N70" s="32">
         <f t="shared" si="21"/>
         <v>238097.08888888892</v>
       </c>
-      <c r="O70" s="27">
+      <c r="O70" s="21">
         <f t="shared" si="21"/>
         <v>307910.06666666665</v>
       </c>
-      <c r="P70" s="37">
+      <c r="P70" s="31">
         <f t="shared" si="21"/>
         <v>284356.97777777776</v>
       </c>
-      <c r="Q70" s="37">
+      <c r="Q70" s="31">
         <f t="shared" si="21"/>
         <v>280592.82222222222</v>
       </c>
-      <c r="R70" s="38">
+      <c r="R70" s="32">
         <f t="shared" si="21"/>
         <v>277010.75555555557</v>
       </c>
-      <c r="S70" s="27">
+      <c r="S70" s="21">
         <f t="shared" si="21"/>
         <v>302670.76666666666</v>
       </c>
-      <c r="T70" s="37">
+      <c r="T70" s="31">
         <f t="shared" si="21"/>
         <v>286943.97777777782</v>
       </c>
-      <c r="U70" s="37">
+      <c r="U70" s="31">
         <f t="shared" si="21"/>
         <v>303653.08888888889</v>
       </c>
-      <c r="V70" s="37">
+      <c r="V70" s="31">
         <f t="shared" si="21"/>
         <v>288023.7</v>
       </c>
-      <c r="W70" s="38">
+      <c r="W70" s="32">
         <f t="shared" si="21"/>
         <v>286959.06666666665</v>
       </c>
-      <c r="X70" s="27">
+      <c r="X70" s="21">
         <f t="shared" si="21"/>
         <v>305503.64444444445</v>
       </c>
-      <c r="Y70" s="37">
+      <c r="Y70" s="31">
         <f t="shared" si="21"/>
         <v>259936.96666666665</v>
       </c>
-      <c r="Z70" s="37">
+      <c r="Z70" s="31">
         <f t="shared" si="21"/>
         <v>294483.44444444444</v>
       </c>
-      <c r="AA70" s="37">
+      <c r="AA70" s="31">
         <f t="shared" si="21"/>
         <v>285890.55555555556</v>
       </c>
-      <c r="AB70" s="37">
+      <c r="AB70" s="31">
         <f t="shared" si="21"/>
         <v>282373.31111111108</v>
       </c>
-      <c r="AC70" s="38">
+      <c r="AC70" s="32">
         <f t="shared" si="21"/>
         <v>281163.66666666669</v>
       </c>
-      <c r="AD70" s="27">
+      <c r="AD70" s="21">
         <f t="shared" si="21"/>
         <v>283894.95555555559</v>
       </c>
-      <c r="AE70" s="37">
+      <c r="AE70" s="31">
         <f t="shared" si="21"/>
         <v>191142.84444444446</v>
       </c>
-      <c r="AF70" s="37">
+      <c r="AF70" s="31">
         <f t="shared" si="21"/>
         <v>280682.31111111108</v>
       </c>
-      <c r="AG70" s="37">
+      <c r="AG70" s="31">
         <f t="shared" si="21"/>
         <v>284599.07777777774</v>
       </c>
-      <c r="AH70" s="37">
+      <c r="AH70" s="31">
         <f t="shared" si="21"/>
         <v>299327.17777777783</v>
       </c>
-      <c r="AI70" s="37">
+      <c r="AI70" s="31">
         <f t="shared" si="21"/>
         <v>291664.18888888886</v>
       </c>
-      <c r="AJ70" s="37">
+      <c r="AJ70" s="31">
         <f t="shared" si="21"/>
         <v>310030.68888888892</v>
       </c>
-      <c r="AK70" s="38">
+      <c r="AK70" s="32">
         <f t="shared" si="21"/>
         <v>311602.72222222225</v>
       </c>
-      <c r="AL70" s="27">
+      <c r="AL70" s="21">
         <f t="shared" si="21"/>
         <v>304954.46666666667</v>
       </c>
-      <c r="AM70" s="37">
+      <c r="AM70" s="31">
         <f t="shared" si="21"/>
         <v>261615.87777777773</v>
       </c>
-      <c r="AN70" s="37">
+      <c r="AN70" s="31">
         <f t="shared" si="21"/>
         <v>309273.14444444445</v>
       </c>
-      <c r="AO70" s="37">
+      <c r="AO70" s="31">
         <f t="shared" si="21"/>
         <v>280180.38888888888</v>
       </c>
-      <c r="AP70" s="37">
+      <c r="AP70" s="31">
         <f t="shared" si="21"/>
         <v>275830.15555555554</v>
       </c>
-      <c r="AQ70" s="37">
+      <c r="AQ70" s="31">
         <f t="shared" si="21"/>
         <v>200651.56666666668</v>
       </c>
-      <c r="AR70" s="37">
+      <c r="AR70" s="31">
         <f t="shared" si="21"/>
         <v>284902.23333333334</v>
       </c>
-      <c r="AS70" s="37">
+      <c r="AS70" s="31">
         <f t="shared" si="21"/>
         <v>294171.51111111109</v>
       </c>
-      <c r="AT70" s="37">
+      <c r="AT70" s="31">
         <f t="shared" si="21"/>
         <v>261479.34444444452</v>
       </c>
-      <c r="AU70" s="37">
+      <c r="AU70" s="31">
         <f t="shared" si="21"/>
         <v>284904.86666666664</v>
       </c>
-      <c r="AV70" s="37">
+      <c r="AV70" s="31">
         <f t="shared" si="21"/>
         <v>283940.69999999995</v>
       </c>
-      <c r="AW70" s="37">
+      <c r="AW70" s="31">
         <f t="shared" si="21"/>
         <v>285029.31111111108</v>
       </c>
-      <c r="AX70" s="37">
+      <c r="AX70" s="31">
         <f t="shared" si="21"/>
         <v>275756.76666666666</v>
       </c>
-      <c r="AY70" s="38">
+      <c r="AY70" s="32">
         <f t="shared" si="21"/>
         <v>309545.47777777782</v>
       </c>
     </row>
     <row r="74" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A74" s="29"/>
-      <c r="B74" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D74" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="F74" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G74" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H74" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I74" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="J74" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="K74" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="L74" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="M74" s="28"/>
-      <c r="N74" s="28"/>
-      <c r="O74" s="18"/>
-      <c r="P74" s="28"/>
-      <c r="Q74" s="28"/>
-      <c r="R74" s="28"/>
-      <c r="S74" s="18"/>
-      <c r="T74" s="28"/>
-      <c r="U74" s="28"/>
-      <c r="V74" s="28"/>
-      <c r="W74" s="28"/>
-      <c r="X74" s="18"/>
-      <c r="Y74" s="18"/>
-      <c r="Z74" s="18"/>
-      <c r="AA74" s="28"/>
-      <c r="AB74" s="28"/>
-      <c r="AC74" s="28"/>
-      <c r="AD74" s="18"/>
-      <c r="AE74" s="18"/>
-      <c r="AF74" s="28"/>
-      <c r="AG74" s="28"/>
-      <c r="AH74" s="28"/>
-      <c r="AI74" s="28"/>
-      <c r="AJ74" s="28"/>
-      <c r="AK74" s="28"/>
-      <c r="AL74" s="18"/>
-      <c r="AM74" s="28"/>
-      <c r="AN74" s="28"/>
-      <c r="AO74" s="28"/>
-      <c r="AP74" s="28"/>
-      <c r="AQ74" s="28"/>
-      <c r="AR74" s="28"/>
-      <c r="AS74" s="28"/>
-      <c r="AT74" s="28"/>
-      <c r="AU74" s="28"/>
-      <c r="AV74" s="28"/>
-      <c r="AW74" s="28"/>
-      <c r="AX74" s="28"/>
-      <c r="AY74" s="28"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F74" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="G74" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="I74" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="J74" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="K74" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="L74" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22"/>
+      <c r="R74" s="22"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="22"/>
+      <c r="U74" s="22"/>
+      <c r="V74" s="22"/>
+      <c r="W74" s="22"/>
+      <c r="X74" s="12"/>
+      <c r="Y74" s="12"/>
+      <c r="Z74" s="12"/>
+      <c r="AA74" s="22"/>
+      <c r="AB74" s="22"/>
+      <c r="AC74" s="22"/>
+      <c r="AD74" s="12"/>
+      <c r="AE74" s="12"/>
+      <c r="AF74" s="22"/>
+      <c r="AG74" s="22"/>
+      <c r="AH74" s="22"/>
+      <c r="AI74" s="22"/>
+      <c r="AJ74" s="22"/>
+      <c r="AK74" s="22"/>
+      <c r="AL74" s="12"/>
+      <c r="AM74" s="22"/>
+      <c r="AN74" s="22"/>
+      <c r="AO74" s="22"/>
+      <c r="AP74" s="22"/>
+      <c r="AQ74" s="22"/>
+      <c r="AR74" s="22"/>
+      <c r="AS74" s="22"/>
+      <c r="AT74" s="22"/>
+      <c r="AU74" s="22"/>
+      <c r="AV74" s="22"/>
+      <c r="AW74" s="22"/>
+      <c r="AX74" s="22"/>
+      <c r="AY74" s="22"/>
     </row>
     <row r="75" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A75" s="29" t="s">
+      <c r="A75" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B75" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" s="29" t="s">
+      <c r="B75" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D75" s="29" t="s">
+      <c r="D75" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E75" s="29" t="s">
+      <c r="E75" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F75" s="29" t="s">
+      <c r="F75" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G75" s="29" t="s">
+      <c r="G75" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="H75" s="29" t="s">
+      <c r="H75" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I75" s="29" t="s">
+      <c r="I75" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="J75" s="29" t="s">
+      <c r="J75" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="K75" s="29" t="s">
+      <c r="K75" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="L75" s="29" t="s">
+      <c r="L75" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="M75" s="18"/>
+      <c r="M75" s="12"/>
     </row>
     <row r="76" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A76" s="29">
+      <c r="A76" s="23">
         <v>4500</v>
       </c>
-      <c r="B76" s="36">
+      <c r="B76" s="30">
         <v>31.960352184951116</v>
       </c>
-      <c r="C76" s="36">
+      <c r="C76" s="30">
         <v>34.199294838448644</v>
       </c>
-      <c r="D76" s="36">
+      <c r="D76" s="30">
         <v>89.149013108332085</v>
       </c>
-      <c r="E76" s="36">
+      <c r="E76" s="30">
         <v>54.228026761983323</v>
       </c>
-      <c r="F76" s="36">
+      <c r="F76" s="30">
         <v>92.104919053549196</v>
       </c>
-      <c r="G76" s="36">
+      <c r="G76" s="30">
         <v>99.676886792452834</v>
       </c>
-      <c r="H76" s="36">
+      <c r="H76" s="30">
         <v>109.79439599183523</v>
       </c>
-      <c r="I76" s="36">
+      <c r="I76" s="30">
         <v>100.37014418999152</v>
       </c>
-      <c r="J76" s="36">
+      <c r="J76" s="30">
         <v>103.82207404807862</v>
       </c>
-      <c r="K76" s="36">
+      <c r="K76" s="30">
         <v>119.02675518004428</v>
       </c>
-      <c r="L76" s="36">
+      <c r="L76" s="30">
         <v>105.4503653537694</v>
       </c>
-      <c r="M76" s="18"/>
+      <c r="M76" s="12"/>
     </row>
     <row r="77" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A77" s="29">
+      <c r="A77" s="23">
         <v>5500</v>
       </c>
-      <c r="B77" s="36">
+      <c r="B77" s="30">
         <v>29.148762515282687</v>
       </c>
-      <c r="C77" s="36">
+      <c r="C77" s="30">
         <v>28.618252011419674</v>
       </c>
-      <c r="D77" s="36">
+      <c r="D77" s="30">
         <v>70.962030407851344</v>
       </c>
-      <c r="E77" s="36">
+      <c r="E77" s="30">
         <v>50.685417145483804</v>
       </c>
-      <c r="F77" s="36">
+      <c r="F77" s="30">
         <v>76.513921415560773</v>
       </c>
-      <c r="G77" s="36">
+      <c r="G77" s="30">
         <v>73.762772807090897</v>
       </c>
-      <c r="H77" s="36">
+      <c r="H77" s="30">
         <v>76.98804328853204</v>
       </c>
-      <c r="I77" s="36">
+      <c r="I77" s="30">
         <v>74.725031766200772</v>
       </c>
-      <c r="J77" s="36">
+      <c r="J77" s="30">
         <v>76.447612444752579</v>
       </c>
-      <c r="K77" s="36">
+      <c r="K77" s="30">
         <v>78.600106923282553</v>
       </c>
-      <c r="L77" s="36">
+      <c r="L77" s="30">
         <v>84.309375896014529</v>
       </c>
-      <c r="M77" s="18"/>
+      <c r="M77" s="12"/>
     </row>
     <row r="78" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A78" s="29">
+      <c r="A78" s="23">
         <v>6500</v>
       </c>
-      <c r="B78" s="36">
+      <c r="B78" s="30">
         <v>28.160391176006669</v>
       </c>
-      <c r="C78" s="36">
+      <c r="C78" s="30">
         <v>27.826193444959031</v>
       </c>
-      <c r="D78" s="36">
+      <c r="D78" s="30">
         <v>60.986238532110093</v>
       </c>
-      <c r="E78" s="36">
+      <c r="E78" s="30">
         <v>45.888595138429899</v>
       </c>
-      <c r="F78" s="36">
+      <c r="F78" s="30">
         <v>63.303110120555168</v>
       </c>
-      <c r="G78" s="36">
+      <c r="G78" s="30">
         <v>60.628244311842046</v>
       </c>
-      <c r="H78" s="36">
+      <c r="H78" s="30">
         <v>67.392687661777387</v>
       </c>
-      <c r="I78" s="36">
+      <c r="I78" s="30">
         <v>67.020432241111166</v>
       </c>
-      <c r="J78" s="36">
+      <c r="J78" s="30">
         <v>65.619847729062755</v>
       </c>
-      <c r="K78" s="36">
+      <c r="K78" s="30">
         <v>66.004542093588256</v>
       </c>
-      <c r="L78" s="36">
+      <c r="L78" s="30">
         <v>68.613703744372458</v>
       </c>
-      <c r="M78" s="18"/>
+      <c r="M78" s="12"/>
     </row>
     <row r="79" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A79" s="29">
+      <c r="A79" s="23">
         <v>7500</v>
       </c>
-      <c r="B79" s="36">
+      <c r="B79" s="30">
         <v>26.833585427863419</v>
       </c>
-      <c r="C79" s="36">
+      <c r="C79" s="30">
         <v>23.680772507810282</v>
       </c>
-      <c r="D79" s="36">
+      <c r="D79" s="30">
         <v>57.989359112563896</v>
       </c>
-      <c r="E79" s="36">
+      <c r="E79" s="30">
         <v>42.72720284916344</v>
       </c>
-      <c r="F79" s="36">
+      <c r="F79" s="30">
         <v>59.10121916643039</v>
       </c>
-      <c r="G79" s="36">
+      <c r="G79" s="30">
         <v>56.547982366904037</v>
       </c>
-      <c r="H79" s="36">
+      <c r="H79" s="30">
         <v>58.436415881136767</v>
       </c>
-      <c r="I79" s="36">
+      <c r="I79" s="30">
         <v>60.234784179158382</v>
       </c>
-      <c r="J79" s="36">
+      <c r="J79" s="30">
         <v>60.896874087058137</v>
       </c>
-      <c r="K79" s="36">
+      <c r="K79" s="30">
         <v>58.128834355828218</v>
       </c>
-      <c r="L79" s="36">
+      <c r="L79" s="30">
         <v>57.541147648459336</v>
       </c>
-      <c r="M79" s="18"/>
+      <c r="M79" s="12"/>
     </row>
     <row r="80" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A80" s="29">
+      <c r="A80" s="23">
         <v>8500</v>
       </c>
-      <c r="B80" s="36">
+      <c r="B80" s="30">
         <v>24.585287197066517</v>
       </c>
-      <c r="C80" s="36">
+      <c r="C80" s="30">
         <v>23.89905604514264</v>
       </c>
-      <c r="D80" s="36">
+      <c r="D80" s="30">
         <v>53.484578407171625</v>
       </c>
-      <c r="E80" s="36">
+      <c r="E80" s="30">
         <v>40.316403878170597</v>
       </c>
-      <c r="F80" s="36">
+      <c r="F80" s="30">
         <v>53.177823132766683</v>
       </c>
-      <c r="G80" s="36">
+      <c r="G80" s="30">
         <v>51.585233822866023</v>
       </c>
-      <c r="H80" s="36">
+      <c r="H80" s="30">
         <v>54.364640008451744</v>
       </c>
-      <c r="I80" s="36">
+      <c r="I80" s="30">
         <v>55.053867551085915</v>
       </c>
-      <c r="J80" s="36">
+      <c r="J80" s="30">
         <v>54.265745696132456</v>
       </c>
-      <c r="K80" s="36">
+      <c r="K80" s="30">
         <v>54.248583401417918</v>
       </c>
-      <c r="L80" s="36">
+      <c r="L80" s="30">
         <v>55.736636880584896</v>
       </c>
-      <c r="M80" s="18"/>
+      <c r="M80" s="12"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="29">
+      <c r="A81" s="23">
         <v>9500</v>
       </c>
-      <c r="B81" s="36">
+      <c r="B81" s="30">
         <v>24.374133135192803</v>
       </c>
-      <c r="C81" s="36">
+      <c r="C81" s="30">
         <v>24.154392953903955</v>
       </c>
-      <c r="D81" s="36">
+      <c r="D81" s="30">
         <v>51.963830219333872</v>
       </c>
-      <c r="E81" s="36">
+      <c r="E81" s="30">
         <v>39.240840426347674</v>
       </c>
-      <c r="F81" s="36">
+      <c r="F81" s="30">
         <v>51.750480351111378</v>
       </c>
-      <c r="G81" s="36">
+      <c r="G81" s="30">
         <v>51.815455337072962</v>
       </c>
-      <c r="H81" s="36">
+      <c r="H81" s="30">
         <v>53.034427724578201</v>
       </c>
-      <c r="I81" s="36">
+      <c r="I81" s="30">
         <v>52.476445374187328</v>
       </c>
-      <c r="J81" s="36">
+      <c r="J81" s="30">
         <v>53.359588755422081</v>
       </c>
-      <c r="K81" s="36">
+      <c r="K81" s="30">
         <v>52.205561903207375</v>
       </c>
-      <c r="L81" s="36">
+      <c r="L81" s="30">
         <v>51.63977073200266</v>
       </c>
-      <c r="M81" s="18"/>
+      <c r="M81" s="12"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="29">
+      <c r="A82" s="23">
         <v>10500</v>
       </c>
-      <c r="B82" s="36">
+      <c r="B82" s="30">
         <v>24.095335254263688</v>
       </c>
-      <c r="C82" s="36">
+      <c r="C82" s="30">
         <v>23.622553061536113</v>
       </c>
-      <c r="D82" s="36">
+      <c r="D82" s="30">
         <v>49.145956764140607</v>
       </c>
-      <c r="E82" s="36">
+      <c r="E82" s="30">
         <v>37.866625871986294</v>
       </c>
-      <c r="F82" s="36">
+      <c r="F82" s="30">
         <v>50.434928604029473</v>
       </c>
-      <c r="G82" s="36">
+      <c r="G82" s="30">
         <v>49.336384220429252</v>
       </c>
-      <c r="H82" s="36">
+      <c r="H82" s="30">
         <v>50.225342510226611</v>
       </c>
-      <c r="I82" s="36">
+      <c r="I82" s="30">
         <v>50.691908186837495</v>
       </c>
-      <c r="J82" s="36">
+      <c r="J82" s="30">
         <v>51.400126254236163</v>
       </c>
-      <c r="K82" s="36">
+      <c r="K82" s="30">
         <v>50.846019851442847</v>
       </c>
-      <c r="L82" s="36">
+      <c r="L82" s="30">
         <v>49.740884830557519</v>
       </c>
-      <c r="M82" s="18"/>
+      <c r="M82" s="12"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="29">
+      <c r="A83" s="23">
         <v>11500</v>
       </c>
-      <c r="B83" s="36">
+      <c r="B83" s="30">
         <v>23.825911993141659</v>
       </c>
-      <c r="C83" s="36">
+      <c r="C83" s="30">
         <v>23.708662520133181</v>
       </c>
-      <c r="D83" s="36">
+      <c r="D83" s="30">
         <v>49.658417227815185</v>
       </c>
-      <c r="E83" s="36">
+      <c r="E83" s="30">
         <v>37.346647546079943</v>
       </c>
-      <c r="F83" s="36">
+      <c r="F83" s="30">
         <v>49.576445373340967</v>
       </c>
-      <c r="G83" s="36">
+      <c r="G83" s="30">
         <v>48.730526150504431</v>
       </c>
-      <c r="H83" s="36">
+      <c r="H83" s="30">
         <v>50.848347897323869</v>
       </c>
-      <c r="I83" s="36">
+      <c r="I83" s="30">
         <v>50.210095589920591</v>
       </c>
-      <c r="J83" s="36">
+      <c r="J83" s="30">
         <v>50.57626911481109</v>
       </c>
-      <c r="K83" s="36">
+      <c r="K83" s="30">
         <v>49.64848686841755</v>
       </c>
-      <c r="L83" s="36">
+      <c r="L83" s="30">
         <v>50.757560889179643</v>
       </c>
-      <c r="M83" s="18"/>
+      <c r="M83" s="12"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="29">
+      <c r="A84" s="23">
         <v>12500</v>
       </c>
-      <c r="B84" s="36">
+      <c r="B84" s="30">
         <v>23.727164617995872</v>
       </c>
-      <c r="C84" s="36">
+      <c r="C84" s="30">
         <v>23.814313073388274</v>
       </c>
-      <c r="D84" s="36">
+      <c r="D84" s="30">
         <v>49.207739650011774</v>
       </c>
-      <c r="E84" s="36">
+      <c r="E84" s="30">
         <v>37.322002193672368</v>
       </c>
-      <c r="F84" s="36">
+      <c r="F84" s="30">
         <v>45.48022048614709</v>
       </c>
-      <c r="G84" s="36">
+      <c r="G84" s="30">
         <v>47.764154125724986</v>
       </c>
-      <c r="H84" s="36">
+      <c r="H84" s="30">
         <v>49.800637614730952</v>
       </c>
-      <c r="I84" s="36">
+      <c r="I84" s="30">
         <v>50.271751703601907</v>
       </c>
-      <c r="J84" s="36">
+      <c r="J84" s="30">
         <v>49.940019341259465</v>
       </c>
-      <c r="K84" s="36">
+      <c r="K84" s="30">
         <v>49.161996281611898</v>
       </c>
-      <c r="L84" s="36">
+      <c r="L84" s="30">
         <v>49.678893579456073</v>
       </c>
-      <c r="M84" s="18"/>
+      <c r="M84" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AD58:AK58"/>
-    <mergeCell ref="AL58:AY58"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="O58:R58"/>
-    <mergeCell ref="S58:W58"/>
-    <mergeCell ref="X58:AC58"/>
+    <mergeCell ref="AD1:AK1"/>
+    <mergeCell ref="AL1:AY1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:W1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="AD15:AK15"/>
     <mergeCell ref="AL15:AY15"/>
@@ -9403,11 +11394,13 @@
     <mergeCell ref="F15:J15"/>
     <mergeCell ref="F42:J42"/>
     <mergeCell ref="X1:AC1"/>
-    <mergeCell ref="AD1:AK1"/>
-    <mergeCell ref="AL1:AY1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="AD58:AK58"/>
+    <mergeCell ref="AL58:AY58"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="O58:R58"/>
+    <mergeCell ref="S58:W58"/>
+    <mergeCell ref="X58:AC58"/>
   </mergeCells>
   <conditionalFormatting sqref="F53:J53">
     <cfRule type="colorScale" priority="28">
@@ -9747,6 +11740,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/assignment72/HeatForOMP/task_5_output/Task5.xlsx
+++ b/assignment72/HeatForOMP/task_5_output/Task5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemra\Downloads\Programming_of_supercomputer\pos_21_group12\assignment72\HeatForOMP\task_5_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719C6B0D-A757-4E07-9FAF-02F0614FEE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1F8204-A3C0-4E44-9C50-AA2C568BC799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="151">
   <si>
     <t>Resolution</t>
   </si>
@@ -772,30 +772,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -828,6 +828,38 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SpeedUp for </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>best MPI+OMP combination</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1997,6 +2029,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Configuration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2062,6 +2149,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speed Up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2180,7 +2322,1560 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MFlops</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> for </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>best MPI+OMP combination</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$B$88:$L$89</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Tabelle1!$B$88:$L$88</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$B$88:$L$88</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>MPI: 2x2 OMP: 48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MPI: 3x2 OMP: 32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPI: 4x2 OMP: 24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MPI: 4x3 OMP: 16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MPI: 16x1 OMP: 12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPI: 3x8 OMP: 8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MPI: 16x2 OMP: 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MPI: 16x3 OMP: 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MPI: 16x4 OMP: 3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MPI: 8x12 OMP: 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MPI: 12x16 OMP: 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$90:$L$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>153135.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>163862.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>427144.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>259829.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>441300.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>477601.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>526074.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>480924.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>497462.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>570304.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>505262.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-145B-463C-9FE7-5F5742DF6BA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$B$88:$L$89</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Tabelle1!$B$88:$L$88</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$B$88:$L$88</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>MPI: 2x2 OMP: 48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MPI: 3x2 OMP: 32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPI: 4x2 OMP: 24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MPI: 4x3 OMP: 16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MPI: 16x1 OMP: 12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPI: 3x8 OMP: 8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MPI: 16x2 OMP: 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MPI: 16x3 OMP: 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MPI: 16x4 OMP: 3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MPI: 8x12 OMP: 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MPI: 12x16 OMP: 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$91:$L$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>139940.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137393.20000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>340683.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>243337.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>367335.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>354124.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>369613.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>358744.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>367016.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>377355.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>404759.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-145B-463C-9FE7-5F5742DF6BA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$B$88:$L$89</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Tabelle1!$B$88:$L$88</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$B$88:$L$88</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>MPI: 2x2 OMP: 48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MPI: 3x2 OMP: 32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPI: 4x2 OMP: 24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MPI: 4x3 OMP: 16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MPI: 16x1 OMP: 12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPI: 3x8 OMP: 8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MPI: 16x2 OMP: 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MPI: 16x3 OMP: 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MPI: 16x4 OMP: 3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MPI: 8x12 OMP: 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MPI: 12x16 OMP: 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$92:$L$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>133283.79999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131702.39999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>288648.09999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>217191.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>299614.90000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>286955.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>318971.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>317210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>310578.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>312400.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>324750.40000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-145B-463C-9FE7-5F5742DF6BA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$93</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$B$88:$L$89</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Tabelle1!$B$88:$L$88</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$B$88:$L$88</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>MPI: 2x2 OMP: 48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MPI: 3x2 OMP: 32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPI: 4x2 OMP: 24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MPI: 4x3 OMP: 16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MPI: 16x1 OMP: 12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPI: 3x8 OMP: 8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MPI: 16x2 OMP: 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MPI: 16x3 OMP: 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MPI: 16x4 OMP: 3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MPI: 8x12 OMP: 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MPI: 12x16 OMP: 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$93:$L$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>126717.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>111829</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>273847.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>201773.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>279095.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>267039.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>275957.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>284450.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>287578.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>274505.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>271730</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-145B-463C-9FE7-5F5742DF6BA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$94</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$B$88:$L$89</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Tabelle1!$B$88:$L$88</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$B$88:$L$88</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>MPI: 2x2 OMP: 48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MPI: 3x2 OMP: 32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPI: 4x2 OMP: 24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MPI: 4x3 OMP: 16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MPI: 16x1 OMP: 12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPI: 3x8 OMP: 8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MPI: 16x2 OMP: 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MPI: 16x3 OMP: 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MPI: 16x4 OMP: 3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MPI: 8x12 OMP: 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MPI: 12x16 OMP: 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$94:$L$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>120815.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117442.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262829.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>198118.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>261322.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>253494.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>267154</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>270540.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>266668.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>266583.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>273895.90000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-145B-463C-9FE7-5F5742DF6BA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$B$88:$L$89</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Tabelle1!$B$88:$L$88</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$B$88:$L$88</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>MPI: 2x2 OMP: 48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MPI: 3x2 OMP: 32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPI: 4x2 OMP: 24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MPI: 4x3 OMP: 16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MPI: 16x1 OMP: 12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPI: 3x8 OMP: 8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MPI: 16x2 OMP: 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MPI: 16x3 OMP: 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MPI: 16x4 OMP: 3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MPI: 8x12 OMP: 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MPI: 12x16 OMP: 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$95:$L$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>120360.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119275.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>193773.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255546.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255867.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>261887.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>259131.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>263493</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>257794.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>255000.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-145B-463C-9FE7-5F5742DF6BA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$96</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$B$88:$L$89</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Tabelle1!$B$88:$L$88</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$B$88:$L$88</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>MPI: 2x2 OMP: 48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MPI: 3x2 OMP: 32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPI: 4x2 OMP: 24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MPI: 4x3 OMP: 16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MPI: 16x1 OMP: 12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPI: 3x8 OMP: 8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MPI: 16x2 OMP: 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MPI: 16x3 OMP: 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MPI: 16x4 OMP: 3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MPI: 8x12 OMP: 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MPI: 12x16 OMP: 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$96:$L$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>120200.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117842.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>245167.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>188900.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>251597.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>246117.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250551.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>252879.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256412.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>253648</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>248135.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-145B-463C-9FE7-5F5742DF6BA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$B$88:$L$89</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Tabelle1!$B$88:$L$88</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$B$88:$L$88</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>MPI: 2x2 OMP: 48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MPI: 3x2 OMP: 32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPI: 4x2 OMP: 24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MPI: 4x3 OMP: 16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MPI: 16x1 OMP: 12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPI: 3x8 OMP: 8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MPI: 16x2 OMP: 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MPI: 16x3 OMP: 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MPI: 16x4 OMP: 3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MPI: 8x12 OMP: 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MPI: 12x16 OMP: 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$97:$L$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>118453.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117870.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>246883</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>185673.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>246476.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>242270.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>252798.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>249626.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>251445.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>246833.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>252347.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-145B-463C-9FE7-5F5742DF6BA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$B$88:$L$89</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Tabelle1!$B$88:$L$88</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$B$88:$L$88</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>MPI: 2x2 OMP: 48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MPI: 3x2 OMP: 32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MPI: 4x2 OMP: 24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MPI: 4x3 OMP: 16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MPI: 16x1 OMP: 12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPI: 3x8 OMP: 8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MPI: 16x2 OMP: 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MPI: 16x3 OMP: 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MPI: 16x4 OMP: 3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MPI: 8x12 OMP: 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MPI: 12x16 OMP: 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$98:$L$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>118244.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118678.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>245226.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>185994.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>226651.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>238032.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>248182</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250529.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>248876.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>244999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>247575.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-145B-463C-9FE7-5F5742DF6BA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="833459199"/>
+        <c:axId val="833457951"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="833459199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Configuration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="833457951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="833457951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MFlops</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="833459199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2723,20 +4418,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2756,6 +4954,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9AFD06C-DF47-4621-845F-9B6CD05E748A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3027,10 +5261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY84"/>
+  <dimension ref="A1:AY98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L98" sqref="A88:L98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3071,66 +5305,66 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37" t="s">
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37" t="s">
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37" t="s">
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37" t="s">
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="40"/>
+      <c r="AO1" s="40"/>
+      <c r="AP1" s="40"/>
+      <c r="AQ1" s="40"/>
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="40"/>
+      <c r="AT1" s="40"/>
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="40"/>
+      <c r="AW1" s="40"/>
+      <c r="AX1" s="40"/>
+      <c r="AY1" s="40"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4695,66 +6929,66 @@
       <c r="E15" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37" t="s">
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37" t="s">
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37" t="s">
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37" t="s">
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37" t="s">
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="37"/>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="37" t="s">
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
+      <c r="AG15" s="40"/>
+      <c r="AH15" s="40"/>
+      <c r="AI15" s="40"/>
+      <c r="AJ15" s="40"/>
+      <c r="AK15" s="40"/>
+      <c r="AL15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="AM15" s="37"/>
-      <c r="AN15" s="37"/>
-      <c r="AO15" s="37"/>
-      <c r="AP15" s="37"/>
-      <c r="AQ15" s="37"/>
-      <c r="AR15" s="37"/>
-      <c r="AS15" s="37"/>
-      <c r="AT15" s="37"/>
-      <c r="AU15" s="37"/>
-      <c r="AV15" s="37"/>
-      <c r="AW15" s="37"/>
-      <c r="AX15" s="37"/>
-      <c r="AY15" s="37"/>
+      <c r="AM15" s="40"/>
+      <c r="AN15" s="40"/>
+      <c r="AO15" s="40"/>
+      <c r="AP15" s="40"/>
+      <c r="AQ15" s="40"/>
+      <c r="AR15" s="40"/>
+      <c r="AS15" s="40"/>
+      <c r="AT15" s="40"/>
+      <c r="AU15" s="40"/>
+      <c r="AV15" s="40"/>
+      <c r="AW15" s="40"/>
+      <c r="AX15" s="40"/>
+      <c r="AY15" s="40"/>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -6850,66 +9084,66 @@
       <c r="E42" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="39" t="s">
+      <c r="F42" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35" t="s">
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="34" t="s">
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="36"/>
-      <c r="S42" s="34" t="s">
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="35"/>
-      <c r="W42" s="36"/>
-      <c r="X42" s="34" t="s">
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="44"/>
+      <c r="X42" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="Y42" s="35"/>
-      <c r="Z42" s="35"/>
-      <c r="AA42" s="35"/>
-      <c r="AB42" s="35"/>
-      <c r="AC42" s="36"/>
-      <c r="AD42" s="34" t="s">
+      <c r="Y42" s="41"/>
+      <c r="Z42" s="41"/>
+      <c r="AA42" s="41"/>
+      <c r="AB42" s="41"/>
+      <c r="AC42" s="44"/>
+      <c r="AD42" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AE42" s="35"/>
-      <c r="AF42" s="35"/>
-      <c r="AG42" s="35"/>
-      <c r="AH42" s="35"/>
-      <c r="AI42" s="35"/>
-      <c r="AJ42" s="35"/>
-      <c r="AK42" s="36"/>
-      <c r="AL42" s="34" t="s">
+      <c r="AE42" s="41"/>
+      <c r="AF42" s="41"/>
+      <c r="AG42" s="41"/>
+      <c r="AH42" s="41"/>
+      <c r="AI42" s="41"/>
+      <c r="AJ42" s="41"/>
+      <c r="AK42" s="44"/>
+      <c r="AL42" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AM42" s="35"/>
-      <c r="AN42" s="35"/>
-      <c r="AO42" s="35"/>
-      <c r="AP42" s="35"/>
-      <c r="AQ42" s="35"/>
-      <c r="AR42" s="35"/>
-      <c r="AS42" s="35"/>
-      <c r="AT42" s="35"/>
-      <c r="AU42" s="35"/>
-      <c r="AV42" s="35"/>
-      <c r="AW42" s="35"/>
-      <c r="AX42" s="35"/>
-      <c r="AY42" s="36"/>
+      <c r="AM42" s="41"/>
+      <c r="AN42" s="41"/>
+      <c r="AO42" s="41"/>
+      <c r="AP42" s="41"/>
+      <c r="AQ42" s="41"/>
+      <c r="AR42" s="41"/>
+      <c r="AS42" s="41"/>
+      <c r="AT42" s="41"/>
+      <c r="AU42" s="41"/>
+      <c r="AV42" s="41"/>
+      <c r="AW42" s="41"/>
+      <c r="AX42" s="41"/>
+      <c r="AY42" s="44"/>
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -8885,66 +11119,66 @@
       <c r="E58" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="34" t="s">
+      <c r="F58" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="34" t="s">
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="36"/>
-      <c r="O58" s="34" t="s">
+      <c r="L58" s="41"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="36"/>
-      <c r="S58" s="34" t="s">
+      <c r="P58" s="41"/>
+      <c r="Q58" s="41"/>
+      <c r="R58" s="44"/>
+      <c r="S58" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="T58" s="35"/>
-      <c r="U58" s="35"/>
-      <c r="V58" s="35"/>
-      <c r="W58" s="36"/>
-      <c r="X58" s="34" t="s">
+      <c r="T58" s="41"/>
+      <c r="U58" s="41"/>
+      <c r="V58" s="41"/>
+      <c r="W58" s="44"/>
+      <c r="X58" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="Y58" s="35"/>
-      <c r="Z58" s="35"/>
-      <c r="AA58" s="35"/>
-      <c r="AB58" s="35"/>
-      <c r="AC58" s="36"/>
-      <c r="AD58" s="34" t="s">
+      <c r="Y58" s="41"/>
+      <c r="Z58" s="41"/>
+      <c r="AA58" s="41"/>
+      <c r="AB58" s="41"/>
+      <c r="AC58" s="44"/>
+      <c r="AD58" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AE58" s="35"/>
-      <c r="AF58" s="35"/>
-      <c r="AG58" s="35"/>
-      <c r="AH58" s="35"/>
-      <c r="AI58" s="35"/>
-      <c r="AJ58" s="35"/>
-      <c r="AK58" s="36"/>
-      <c r="AL58" s="34" t="s">
+      <c r="AE58" s="41"/>
+      <c r="AF58" s="41"/>
+      <c r="AG58" s="41"/>
+      <c r="AH58" s="41"/>
+      <c r="AI58" s="41"/>
+      <c r="AJ58" s="41"/>
+      <c r="AK58" s="44"/>
+      <c r="AL58" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AM58" s="35"/>
-      <c r="AN58" s="35"/>
-      <c r="AO58" s="35"/>
-      <c r="AP58" s="35"/>
-      <c r="AQ58" s="35"/>
-      <c r="AR58" s="35"/>
-      <c r="AS58" s="35"/>
-      <c r="AT58" s="35"/>
-      <c r="AU58" s="35"/>
-      <c r="AV58" s="35"/>
-      <c r="AW58" s="35"/>
-      <c r="AX58" s="35"/>
-      <c r="AY58" s="36"/>
+      <c r="AM58" s="41"/>
+      <c r="AN58" s="41"/>
+      <c r="AO58" s="41"/>
+      <c r="AP58" s="41"/>
+      <c r="AQ58" s="41"/>
+      <c r="AR58" s="41"/>
+      <c r="AS58" s="41"/>
+      <c r="AT58" s="41"/>
+      <c r="AU58" s="41"/>
+      <c r="AV58" s="41"/>
+      <c r="AW58" s="41"/>
+      <c r="AX58" s="41"/>
+      <c r="AY58" s="44"/>
     </row>
     <row r="59" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -9117,7 +11351,7 @@
       <c r="E60" s="15">
         <v>259829.8</v>
       </c>
-      <c r="F60" s="40">
+      <c r="F60" s="34">
         <v>441300.9</v>
       </c>
       <c r="G60" s="12">
@@ -9138,13 +11372,13 @@
       <c r="L60" s="12">
         <v>384307.3</v>
       </c>
-      <c r="M60" s="42">
+      <c r="M60" s="36">
         <v>477601.8</v>
       </c>
       <c r="N60" s="13">
         <v>3561.1</v>
       </c>
-      <c r="O60" s="40">
+      <c r="O60" s="34">
         <v>526074.1</v>
       </c>
       <c r="P60" s="12">
@@ -9156,7 +11390,7 @@
       <c r="R60" s="13">
         <v>309932</v>
       </c>
-      <c r="S60" s="40">
+      <c r="S60" s="34">
         <v>480924.2</v>
       </c>
       <c r="T60" s="12">
@@ -9171,7 +11405,7 @@
       <c r="W60" s="13">
         <v>349094.40000000002</v>
       </c>
-      <c r="X60" s="40">
+      <c r="X60" s="34">
         <v>497462.7</v>
       </c>
       <c r="Y60" s="12">
@@ -9210,7 +11444,7 @@
       <c r="AJ60" s="12">
         <v>531886.4</v>
       </c>
-      <c r="AK60" s="44">
+      <c r="AK60" s="38">
         <v>570304.6</v>
       </c>
       <c r="AL60" s="11">
@@ -9219,7 +11453,7 @@
       <c r="AM60" s="12">
         <v>188447.5</v>
       </c>
-      <c r="AN60" s="42">
+      <c r="AN60" s="36">
         <v>505262.7</v>
       </c>
       <c r="AO60" s="12">
@@ -9272,7 +11506,7 @@
       <c r="E61" s="15">
         <v>243337.1</v>
       </c>
-      <c r="F61" s="40">
+      <c r="F61" s="34">
         <v>367335.5</v>
       </c>
       <c r="G61" s="12">
@@ -9293,13 +11527,13 @@
       <c r="L61" s="12">
         <v>365431.2</v>
       </c>
-      <c r="M61" s="42">
+      <c r="M61" s="36">
         <v>354124.4</v>
       </c>
       <c r="N61" s="13">
         <v>324299.90000000002</v>
       </c>
-      <c r="O61" s="40">
+      <c r="O61" s="34">
         <v>369613.3</v>
       </c>
       <c r="P61" s="12">
@@ -9311,7 +11545,7 @@
       <c r="R61" s="13">
         <v>356455.2</v>
       </c>
-      <c r="S61" s="40">
+      <c r="S61" s="34">
         <v>358744.5</v>
       </c>
       <c r="T61" s="12">
@@ -9326,7 +11560,7 @@
       <c r="W61" s="13">
         <v>361998</v>
       </c>
-      <c r="X61" s="40">
+      <c r="X61" s="34">
         <v>367016.8</v>
       </c>
       <c r="Y61" s="12">
@@ -9365,7 +11599,7 @@
       <c r="AJ61" s="12">
         <v>385136.4</v>
       </c>
-      <c r="AK61" s="44">
+      <c r="AK61" s="38">
         <v>377355.5</v>
       </c>
       <c r="AL61" s="11">
@@ -9374,7 +11608,7 @@
       <c r="AM61" s="12">
         <v>380304.4</v>
       </c>
-      <c r="AN61" s="42">
+      <c r="AN61" s="36">
         <v>404759.7</v>
       </c>
       <c r="AO61" s="12">
@@ -9427,7 +11661,7 @@
       <c r="E62" s="15">
         <v>217191.1</v>
       </c>
-      <c r="F62" s="40">
+      <c r="F62" s="34">
         <v>299614.90000000002</v>
       </c>
       <c r="G62" s="12">
@@ -9448,13 +11682,13 @@
       <c r="L62" s="12">
         <v>300697</v>
       </c>
-      <c r="M62" s="42">
+      <c r="M62" s="36">
         <v>286955.5</v>
       </c>
       <c r="N62" s="13">
         <v>293094.90000000002</v>
       </c>
-      <c r="O62" s="40">
+      <c r="O62" s="34">
         <v>318971.8</v>
       </c>
       <c r="P62" s="12">
@@ -9466,7 +11700,7 @@
       <c r="R62" s="13">
         <v>286329.5</v>
       </c>
-      <c r="S62" s="40">
+      <c r="S62" s="34">
         <v>317210</v>
       </c>
       <c r="T62" s="12">
@@ -9481,7 +11715,7 @@
       <c r="W62" s="13">
         <v>312514.90000000002</v>
       </c>
-      <c r="X62" s="40">
+      <c r="X62" s="34">
         <v>310578.3</v>
       </c>
       <c r="Y62" s="12">
@@ -9520,7 +11754,7 @@
       <c r="AJ62" s="12">
         <v>312467.7</v>
       </c>
-      <c r="AK62" s="44">
+      <c r="AK62" s="38">
         <v>312400.8</v>
       </c>
       <c r="AL62" s="11">
@@ -9529,7 +11763,7 @@
       <c r="AM62" s="12">
         <v>295528.3</v>
       </c>
-      <c r="AN62" s="42">
+      <c r="AN62" s="36">
         <v>324750.40000000002</v>
       </c>
       <c r="AO62" s="12">
@@ -9582,7 +11816,7 @@
       <c r="E63" s="15">
         <v>201773.6</v>
       </c>
-      <c r="F63" s="40">
+      <c r="F63" s="34">
         <v>279095.7</v>
       </c>
       <c r="G63" s="12">
@@ -9603,13 +11837,13 @@
       <c r="L63" s="12">
         <v>276199.5</v>
       </c>
-      <c r="M63" s="42">
+      <c r="M63" s="36">
         <v>267039.7</v>
       </c>
       <c r="N63" s="13">
         <v>265249.09999999998</v>
       </c>
-      <c r="O63" s="40">
+      <c r="O63" s="34">
         <v>275957.2</v>
       </c>
       <c r="P63" s="12">
@@ -9621,7 +11855,7 @@
       <c r="R63" s="13">
         <v>274448.40000000002</v>
       </c>
-      <c r="S63" s="40">
+      <c r="S63" s="34">
         <v>284450.8</v>
       </c>
       <c r="T63" s="12">
@@ -9636,7 +11870,7 @@
       <c r="W63" s="13">
         <v>277592.2</v>
       </c>
-      <c r="X63" s="40">
+      <c r="X63" s="34">
         <v>287578.7</v>
       </c>
       <c r="Y63" s="12">
@@ -9675,7 +11909,7 @@
       <c r="AJ63" s="12">
         <v>283100.2</v>
       </c>
-      <c r="AK63" s="44">
+      <c r="AK63" s="38">
         <v>274505.5</v>
       </c>
       <c r="AL63" s="11">
@@ -9684,7 +11918,7 @@
       <c r="AM63" s="12">
         <v>256674.4</v>
       </c>
-      <c r="AN63" s="42">
+      <c r="AN63" s="36">
         <v>271730</v>
       </c>
       <c r="AO63" s="12">
@@ -9737,7 +11971,7 @@
       <c r="E64" s="15">
         <v>198118.9</v>
       </c>
-      <c r="F64" s="40">
+      <c r="F64" s="34">
         <v>261322.1</v>
       </c>
       <c r="G64" s="12">
@@ -9758,13 +11992,13 @@
       <c r="L64" s="12">
         <v>259739.8</v>
       </c>
-      <c r="M64" s="42">
+      <c r="M64" s="36">
         <v>253494.7</v>
       </c>
       <c r="N64" s="13">
         <v>260992.6</v>
       </c>
-      <c r="O64" s="40">
+      <c r="O64" s="34">
         <v>267154</v>
       </c>
       <c r="P64" s="12">
@@ -9776,7 +12010,7 @@
       <c r="R64" s="13">
         <v>264900.40000000002</v>
       </c>
-      <c r="S64" s="40">
+      <c r="S64" s="34">
         <v>270540.7</v>
       </c>
       <c r="T64" s="12">
@@ -9791,7 +12025,7 @@
       <c r="W64" s="13">
         <v>264887.09999999998</v>
       </c>
-      <c r="X64" s="40">
+      <c r="X64" s="34">
         <v>266668.7</v>
       </c>
       <c r="Y64" s="12">
@@ -9830,7 +12064,7 @@
       <c r="AJ64" s="12">
         <v>271952.40000000002</v>
       </c>
-      <c r="AK64" s="44">
+      <c r="AK64" s="38">
         <v>266583.2</v>
       </c>
       <c r="AL64" s="11">
@@ -9839,7 +12073,7 @@
       <c r="AM64" s="12">
         <v>262557.7</v>
       </c>
-      <c r="AN64" s="42">
+      <c r="AN64" s="36">
         <v>273895.90000000002</v>
       </c>
       <c r="AO64" s="12">
@@ -9892,7 +12126,7 @@
       <c r="E65" s="15">
         <v>193773.9</v>
       </c>
-      <c r="F65" s="40">
+      <c r="F65" s="34">
         <v>255546.8</v>
       </c>
       <c r="G65" s="12">
@@ -9913,13 +12147,13 @@
       <c r="L65" s="12">
         <v>255402.7</v>
       </c>
-      <c r="M65" s="42">
+      <c r="M65" s="36">
         <v>255867.5</v>
       </c>
       <c r="N65" s="13">
         <v>256194.1</v>
       </c>
-      <c r="O65" s="40">
+      <c r="O65" s="34">
         <v>261887.5</v>
       </c>
       <c r="P65" s="12">
@@ -9931,7 +12165,7 @@
       <c r="R65" s="13">
         <v>255330.1</v>
       </c>
-      <c r="S65" s="40">
+      <c r="S65" s="34">
         <v>259131.7</v>
       </c>
       <c r="T65" s="12">
@@ -9946,7 +12180,7 @@
       <c r="W65" s="13">
         <v>262311.40000000002</v>
       </c>
-      <c r="X65" s="40">
+      <c r="X65" s="34">
         <v>263493</v>
       </c>
       <c r="Y65" s="12">
@@ -9985,7 +12219,7 @@
       <c r="AJ65" s="12">
         <v>259536.6</v>
       </c>
-      <c r="AK65" s="44">
+      <c r="AK65" s="38">
         <v>257794.3</v>
       </c>
       <c r="AL65" s="11">
@@ -9994,7 +12228,7 @@
       <c r="AM65" s="12">
         <v>243660.9</v>
       </c>
-      <c r="AN65" s="42">
+      <c r="AN65" s="36">
         <v>255000.8</v>
       </c>
       <c r="AO65" s="12">
@@ -10047,7 +12281,7 @@
       <c r="E66" s="15">
         <v>188900.1</v>
       </c>
-      <c r="F66" s="40">
+      <c r="F66" s="34">
         <v>251597.6</v>
       </c>
       <c r="G66" s="12">
@@ -10068,13 +12302,13 @@
       <c r="L66" s="12">
         <v>246105.7</v>
       </c>
-      <c r="M66" s="42">
+      <c r="M66" s="36">
         <v>246117.8</v>
       </c>
       <c r="N66" s="13">
         <v>247402.6</v>
       </c>
-      <c r="O66" s="40">
+      <c r="O66" s="34">
         <v>250551.8</v>
       </c>
       <c r="P66" s="12">
@@ -10086,7 +12320,7 @@
       <c r="R66" s="13">
         <v>248602.5</v>
       </c>
-      <c r="S66" s="40">
+      <c r="S66" s="34">
         <v>252879.1</v>
       </c>
       <c r="T66" s="12">
@@ -10101,7 +12335,7 @@
       <c r="W66" s="13">
         <v>254963.6</v>
       </c>
-      <c r="X66" s="40">
+      <c r="X66" s="34">
         <v>256412.7</v>
       </c>
       <c r="Y66" s="12">
@@ -10140,7 +12374,7 @@
       <c r="AJ66" s="12">
         <v>250845</v>
       </c>
-      <c r="AK66" s="44">
+      <c r="AK66" s="38">
         <v>253648</v>
       </c>
       <c r="AL66" s="11">
@@ -10149,7 +12383,7 @@
       <c r="AM66" s="12">
         <v>242620.2</v>
       </c>
-      <c r="AN66" s="42">
+      <c r="AN66" s="36">
         <v>248135.6</v>
       </c>
       <c r="AO66" s="12">
@@ -10202,7 +12436,7 @@
       <c r="E67" s="15">
         <v>185673.4</v>
       </c>
-      <c r="F67" s="40">
+      <c r="F67" s="34">
         <v>246476.3</v>
       </c>
       <c r="G67" s="12">
@@ -10223,13 +12457,13 @@
       <c r="L67" s="12">
         <v>243637.6</v>
       </c>
-      <c r="M67" s="42">
+      <c r="M67" s="36">
         <v>242270.2</v>
       </c>
       <c r="N67" s="13">
         <v>247225.7</v>
       </c>
-      <c r="O67" s="40">
+      <c r="O67" s="34">
         <v>252798.9</v>
       </c>
       <c r="P67" s="12">
@@ -10241,7 +12475,7 @@
       <c r="R67" s="13">
         <v>248157.1</v>
       </c>
-      <c r="S67" s="40">
+      <c r="S67" s="34">
         <v>249626.4</v>
       </c>
       <c r="T67" s="12">
@@ -10256,7 +12490,7 @@
       <c r="W67" s="13">
         <v>252220</v>
       </c>
-      <c r="X67" s="40">
+      <c r="X67" s="34">
         <v>251445.8</v>
       </c>
       <c r="Y67" s="12">
@@ -10295,7 +12529,7 @@
       <c r="AJ67" s="12">
         <v>250077.4</v>
       </c>
-      <c r="AK67" s="44">
+      <c r="AK67" s="38">
         <v>246833.6</v>
       </c>
       <c r="AL67" s="11">
@@ -10304,7 +12538,7 @@
       <c r="AM67" s="12">
         <v>242089.7</v>
       </c>
-      <c r="AN67" s="42">
+      <c r="AN67" s="36">
         <v>252347.9</v>
       </c>
       <c r="AO67" s="12">
@@ -10357,7 +12591,7 @@
       <c r="E68" s="33">
         <v>185994.6</v>
       </c>
-      <c r="F68" s="41">
+      <c r="F68" s="35">
         <v>226651.1</v>
       </c>
       <c r="G68" s="31">
@@ -10378,13 +12612,13 @@
       <c r="L68" s="31">
         <v>240031</v>
       </c>
-      <c r="M68" s="43">
+      <c r="M68" s="37">
         <v>238032.7</v>
       </c>
       <c r="N68" s="32">
         <v>244853.8</v>
       </c>
-      <c r="O68" s="41">
+      <c r="O68" s="35">
         <v>248182</v>
       </c>
       <c r="P68" s="31">
@@ -10396,7 +12630,7 @@
       <c r="R68" s="32">
         <v>248941.6</v>
       </c>
-      <c r="S68" s="41">
+      <c r="S68" s="35">
         <v>250529.5</v>
       </c>
       <c r="T68" s="31">
@@ -10411,7 +12645,7 @@
       <c r="W68" s="32">
         <v>247050</v>
       </c>
-      <c r="X68" s="41">
+      <c r="X68" s="35">
         <v>248876.1</v>
       </c>
       <c r="Y68" s="31">
@@ -10450,7 +12684,7 @@
       <c r="AJ68" s="31">
         <v>245274.1</v>
       </c>
-      <c r="AK68" s="45">
+      <c r="AK68" s="39">
         <v>244999</v>
       </c>
       <c r="AL68" s="21">
@@ -10459,7 +12693,7 @@
       <c r="AM68" s="31">
         <v>242659.8</v>
       </c>
-      <c r="AN68" s="43">
+      <c r="AN68" s="37">
         <v>247575.3</v>
       </c>
       <c r="AO68" s="31">
@@ -11371,13 +13605,431 @@
       </c>
       <c r="M84" s="12"/>
     </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="23"/>
+      <c r="B88" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E88" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F88" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="G88" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="H88" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="I88" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="J88" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="K88" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="L88" s="29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G89" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="H89" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I89" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J89" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K89" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="L89" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="23">
+        <v>4500</v>
+      </c>
+      <c r="B90" s="15">
+        <v>153135.9</v>
+      </c>
+      <c r="C90" s="15">
+        <v>163862.6</v>
+      </c>
+      <c r="D90" s="15">
+        <v>427144.6</v>
+      </c>
+      <c r="E90" s="15">
+        <v>259829.8</v>
+      </c>
+      <c r="F90" s="34">
+        <v>441300.9</v>
+      </c>
+      <c r="G90" s="36">
+        <v>477601.8</v>
+      </c>
+      <c r="H90" s="34">
+        <v>526074.1</v>
+      </c>
+      <c r="I90" s="34">
+        <v>480924.2</v>
+      </c>
+      <c r="J90" s="34">
+        <v>497462.7</v>
+      </c>
+      <c r="K90" s="38">
+        <v>570304.6</v>
+      </c>
+      <c r="L90" s="36">
+        <v>505262.7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="23">
+        <v>5500</v>
+      </c>
+      <c r="B91" s="15">
+        <v>139940.1</v>
+      </c>
+      <c r="C91" s="15">
+        <v>137393.20000000001</v>
+      </c>
+      <c r="D91" s="15">
+        <v>340683.1</v>
+      </c>
+      <c r="E91" s="15">
+        <v>243337.1</v>
+      </c>
+      <c r="F91" s="34">
+        <v>367335.5</v>
+      </c>
+      <c r="G91" s="36">
+        <v>354124.4</v>
+      </c>
+      <c r="H91" s="34">
+        <v>369613.3</v>
+      </c>
+      <c r="I91" s="34">
+        <v>358744.5</v>
+      </c>
+      <c r="J91" s="34">
+        <v>367016.8</v>
+      </c>
+      <c r="K91" s="38">
+        <v>377355.5</v>
+      </c>
+      <c r="L91" s="36">
+        <v>404759.7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="23">
+        <v>6500</v>
+      </c>
+      <c r="B92" s="15">
+        <v>133283.79999999999</v>
+      </c>
+      <c r="C92" s="15">
+        <v>131702.39999999999</v>
+      </c>
+      <c r="D92" s="15">
+        <v>288648.09999999998</v>
+      </c>
+      <c r="E92" s="15">
+        <v>217191.1</v>
+      </c>
+      <c r="F92" s="34">
+        <v>299614.90000000002</v>
+      </c>
+      <c r="G92" s="36">
+        <v>286955.5</v>
+      </c>
+      <c r="H92" s="34">
+        <v>318971.8</v>
+      </c>
+      <c r="I92" s="34">
+        <v>317210</v>
+      </c>
+      <c r="J92" s="34">
+        <v>310578.3</v>
+      </c>
+      <c r="K92" s="38">
+        <v>312400.8</v>
+      </c>
+      <c r="L92" s="36">
+        <v>324750.40000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="23">
+        <v>7500</v>
+      </c>
+      <c r="B93" s="15">
+        <v>126717.8</v>
+      </c>
+      <c r="C93" s="15">
+        <v>111829</v>
+      </c>
+      <c r="D93" s="15">
+        <v>273847.7</v>
+      </c>
+      <c r="E93" s="15">
+        <v>201773.6</v>
+      </c>
+      <c r="F93" s="34">
+        <v>279095.7</v>
+      </c>
+      <c r="G93" s="36">
+        <v>267039.7</v>
+      </c>
+      <c r="H93" s="34">
+        <v>275957.2</v>
+      </c>
+      <c r="I93" s="34">
+        <v>284450.8</v>
+      </c>
+      <c r="J93" s="34">
+        <v>287578.7</v>
+      </c>
+      <c r="K93" s="38">
+        <v>274505.5</v>
+      </c>
+      <c r="L93" s="36">
+        <v>271730</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="23">
+        <v>8500</v>
+      </c>
+      <c r="B94" s="15">
+        <v>120815.3</v>
+      </c>
+      <c r="C94" s="15">
+        <v>117442.8</v>
+      </c>
+      <c r="D94" s="15">
+        <v>262829.3</v>
+      </c>
+      <c r="E94" s="15">
+        <v>198118.9</v>
+      </c>
+      <c r="F94" s="34">
+        <v>261322.1</v>
+      </c>
+      <c r="G94" s="36">
+        <v>253494.7</v>
+      </c>
+      <c r="H94" s="34">
+        <v>267154</v>
+      </c>
+      <c r="I94" s="34">
+        <v>270540.7</v>
+      </c>
+      <c r="J94" s="34">
+        <v>266668.7</v>
+      </c>
+      <c r="K94" s="38">
+        <v>266583.2</v>
+      </c>
+      <c r="L94" s="36">
+        <v>273895.90000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="23">
+        <v>9500</v>
+      </c>
+      <c r="B95" s="15">
+        <v>120360.9</v>
+      </c>
+      <c r="C95" s="15">
+        <v>119275.7</v>
+      </c>
+      <c r="D95" s="15">
+        <v>256601</v>
+      </c>
+      <c r="E95" s="15">
+        <v>193773.9</v>
+      </c>
+      <c r="F95" s="34">
+        <v>255546.8</v>
+      </c>
+      <c r="G95" s="36">
+        <v>255867.5</v>
+      </c>
+      <c r="H95" s="34">
+        <v>261887.5</v>
+      </c>
+      <c r="I95" s="34">
+        <v>259131.7</v>
+      </c>
+      <c r="J95" s="34">
+        <v>263493</v>
+      </c>
+      <c r="K95" s="38">
+        <v>257794.3</v>
+      </c>
+      <c r="L95" s="36">
+        <v>255000.8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="23">
+        <v>10500</v>
+      </c>
+      <c r="B96" s="15">
+        <v>120200.8</v>
+      </c>
+      <c r="C96" s="15">
+        <v>117842.4</v>
+      </c>
+      <c r="D96" s="15">
+        <v>245167.1</v>
+      </c>
+      <c r="E96" s="15">
+        <v>188900.1</v>
+      </c>
+      <c r="F96" s="34">
+        <v>251597.6</v>
+      </c>
+      <c r="G96" s="36">
+        <v>246117.8</v>
+      </c>
+      <c r="H96" s="34">
+        <v>250551.8</v>
+      </c>
+      <c r="I96" s="34">
+        <v>252879.1</v>
+      </c>
+      <c r="J96" s="34">
+        <v>256412.7</v>
+      </c>
+      <c r="K96" s="38">
+        <v>253648</v>
+      </c>
+      <c r="L96" s="36">
+        <v>248135.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="23">
+        <v>11500</v>
+      </c>
+      <c r="B97" s="15">
+        <v>118453.5</v>
+      </c>
+      <c r="C97" s="15">
+        <v>117870.6</v>
+      </c>
+      <c r="D97" s="15">
+        <v>246883</v>
+      </c>
+      <c r="E97" s="15">
+        <v>185673.4</v>
+      </c>
+      <c r="F97" s="34">
+        <v>246476.3</v>
+      </c>
+      <c r="G97" s="36">
+        <v>242270.2</v>
+      </c>
+      <c r="H97" s="34">
+        <v>252798.9</v>
+      </c>
+      <c r="I97" s="34">
+        <v>249626.4</v>
+      </c>
+      <c r="J97" s="34">
+        <v>251445.8</v>
+      </c>
+      <c r="K97" s="38">
+        <v>246833.6</v>
+      </c>
+      <c r="L97" s="36">
+        <v>252347.9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="23">
+        <v>12500</v>
+      </c>
+      <c r="B98" s="33">
+        <v>118244.5</v>
+      </c>
+      <c r="C98" s="33">
+        <v>118678.7</v>
+      </c>
+      <c r="D98" s="33">
+        <v>245226.9</v>
+      </c>
+      <c r="E98" s="33">
+        <v>185994.6</v>
+      </c>
+      <c r="F98" s="35">
+        <v>226651.1</v>
+      </c>
+      <c r="G98" s="37">
+        <v>238032.7</v>
+      </c>
+      <c r="H98" s="35">
+        <v>248182</v>
+      </c>
+      <c r="I98" s="35">
+        <v>250529.5</v>
+      </c>
+      <c r="J98" s="35">
+        <v>248876.1</v>
+      </c>
+      <c r="K98" s="39">
+        <v>244999</v>
+      </c>
+      <c r="L98" s="37">
+        <v>247575.3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AD1:AK1"/>
-    <mergeCell ref="AL1:AY1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="AD58:AK58"/>
+    <mergeCell ref="AL58:AY58"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="O58:R58"/>
+    <mergeCell ref="S58:W58"/>
+    <mergeCell ref="X58:AC58"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="AD15:AK15"/>
     <mergeCell ref="AL15:AY15"/>
@@ -11394,13 +14046,11 @@
     <mergeCell ref="F15:J15"/>
     <mergeCell ref="F42:J42"/>
     <mergeCell ref="X1:AC1"/>
-    <mergeCell ref="AD58:AK58"/>
-    <mergeCell ref="AL58:AY58"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="O58:R58"/>
-    <mergeCell ref="S58:W58"/>
-    <mergeCell ref="X58:AC58"/>
+    <mergeCell ref="AD1:AK1"/>
+    <mergeCell ref="AL1:AY1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:W1"/>
   </mergeCells>
   <conditionalFormatting sqref="F53:J53">
     <cfRule type="colorScale" priority="28">
